--- a/Dados/Dados_Corrompidos.xlsx
+++ b/Dados/Dados_Corrompidos.xlsx
@@ -340,7 +340,7 @@
   <dimension ref="A2:APT4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:APT4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dados/Dados_Corrompidos.xlsx
+++ b/Dados/Dados_Corrompidos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labt5\OneDrive\Desktop\Cesar\IC_2024_Cesar\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425ABDF6-07E0-4AE1-B373-E07D56125E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C545FA5-186D-4F93-B9D8-B0C402293ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5550" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,5156 +347,5156 @@
   <sheetData>
     <row r="2" spans="1:572" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-0.18382075483076399</v>
+        <v>-0.17478492711219001</v>
       </c>
       <c r="B2">
-        <v>-7.4717024690374598E-2</v>
+        <v>-0.12228854836728401</v>
       </c>
       <c r="C2">
-        <v>0.112956476066304</v>
+        <v>-2.8674795038397202E-2</v>
       </c>
       <c r="D2">
-        <v>0.28624860399958901</v>
+        <v>5.4900062246813097E-2</v>
       </c>
       <c r="E2">
-        <v>0.43929384521381598</v>
+        <v>0.14195912604653099</v>
       </c>
       <c r="F2">
-        <v>0.57421865252906901</v>
+        <v>0.213360923938507</v>
       </c>
       <c r="G2">
-        <v>0.68427035804791203</v>
+        <v>0.25592588738365402</v>
       </c>
       <c r="H2">
-        <v>0.72836203691723</v>
+        <v>0.28615047856565301</v>
       </c>
       <c r="I2">
-        <v>0.75031672111182901</v>
+        <v>0.30269552646134301</v>
       </c>
       <c r="J2">
-        <v>0.73337635369787602</v>
+        <v>0.27873982063149799</v>
       </c>
       <c r="K2">
-        <v>0.65995928217898803</v>
+        <v>0.25794334848810302</v>
       </c>
       <c r="L2">
-        <v>0.56913018788274194</v>
+        <v>0.19593956167387</v>
       </c>
       <c r="M2">
-        <v>0.43823618311555701</v>
+        <v>0.147515160495026</v>
       </c>
       <c r="N2">
-        <v>0.28744086993017998</v>
+        <v>5.3178863972794997E-2</v>
       </c>
       <c r="O2">
-        <v>0.110993635675653</v>
+        <v>-3.0505591377922799E-2</v>
       </c>
       <c r="P2">
-        <v>-7.7494407320658196E-2</v>
+        <v>-0.132722108511795</v>
       </c>
       <c r="Q2">
-        <v>-0.270180388260711</v>
+        <v>-0.221747280015443</v>
       </c>
       <c r="R2">
-        <v>-0.45766602070337198</v>
+        <v>-0.318175835378192</v>
       </c>
       <c r="S2">
-        <v>-0.63334368925443396</v>
+        <v>-0.40600524911201502</v>
       </c>
       <c r="T2">
-        <v>-0.78665948711845401</v>
+        <v>-0.49361485532634802</v>
       </c>
       <c r="U2">
-        <v>-0.91335667724492497</v>
+        <v>-0.54540767316042904</v>
       </c>
       <c r="V2">
-        <v>-1.01302964401716</v>
+        <v>-0.589747532985616</v>
       </c>
       <c r="W2">
-        <v>-1.0822360354465199</v>
+        <v>-0.61893379686062699</v>
       </c>
       <c r="X2">
-        <v>-1.10328948288101</v>
+        <v>-0.64586766017620401</v>
       </c>
       <c r="Y2">
-        <v>-1.0858732567318501</v>
+        <v>-0.62302572358671404</v>
       </c>
       <c r="Z2">
-        <v>-1.0242267046453</v>
+        <v>-0.59634512912759696</v>
       </c>
       <c r="AA2">
-        <v>-0.91863063845818005</v>
+        <v>-0.54313775413056298</v>
       </c>
       <c r="AB2">
-        <v>-0.79210399632122397</v>
+        <v>-0.48085705744910201</v>
       </c>
       <c r="AC2">
-        <v>-0.63566324562987198</v>
+        <v>-0.40937277427615698</v>
       </c>
       <c r="AD2">
-        <v>-0.45053416782903899</v>
+        <v>-0.30847452018009403</v>
       </c>
       <c r="AE2">
-        <v>-0.27594618705734197</v>
+        <v>-0.21741342897953</v>
       </c>
       <c r="AF2">
-        <v>-7.9506554304695096E-2</v>
+        <v>-0.11712214087881501</v>
       </c>
       <c r="AG2">
-        <v>0.113255680572101</v>
+        <v>-3.34795240549366E-2</v>
       </c>
       <c r="AH2">
-        <v>0.282526652541992</v>
+        <v>5.4238973129757402E-2</v>
       </c>
       <c r="AI2">
-        <v>0.43261932158946098</v>
+        <v>0.13313113065391</v>
       </c>
       <c r="AJ2">
-        <v>0.56448263958548395</v>
+        <v>0.19906987511051999</v>
       </c>
       <c r="AK2">
-        <v>0.64745474869920305</v>
+        <v>0.24818663085895001</v>
       </c>
       <c r="AL2">
-        <v>0.71830507020429102</v>
+        <v>0.27321459345794802</v>
       </c>
       <c r="AM2">
-        <v>0.74105897442430102</v>
+        <v>0.29250036203089302</v>
       </c>
       <c r="AN2">
-        <v>0.71008581060471099</v>
+        <v>0.275067255556739</v>
       </c>
       <c r="AO2">
-        <v>0.64746536220036</v>
+        <v>0.24075566854445701</v>
       </c>
       <c r="AP2">
-        <v>0.55319950024119902</v>
+        <v>0.19334600553353401</v>
       </c>
       <c r="AQ2">
-        <v>0.42951164537860098</v>
+        <v>0.12703333543105499</v>
       </c>
       <c r="AR2">
-        <v>0.286201225705699</v>
+        <v>5.4767606999020099E-2</v>
       </c>
       <c r="AS2">
-        <v>0.100979402150902</v>
+        <v>-2.5452075687160399E-2</v>
       </c>
       <c r="AT2">
-        <v>-8.0829174808284499E-2</v>
+        <v>-0.12305633394627501</v>
       </c>
       <c r="AU2">
-        <v>-0.26608867851546197</v>
+        <v>-0.21580834719457201</v>
       </c>
       <c r="AV2">
-        <v>-0.45949559853646899</v>
+        <v>-0.31878858468092303</v>
       </c>
       <c r="AW2">
-        <v>-0.62046613307501797</v>
+        <v>-0.40402381771532098</v>
       </c>
       <c r="AX2">
-        <v>-0.78431013371149205</v>
+        <v>-0.47236322991950103</v>
       </c>
       <c r="AY2">
-        <v>-0.88737268734206598</v>
+        <v>-0.53359414397985905</v>
       </c>
       <c r="AZ2">
-        <v>-0.99867589694268399</v>
+        <v>-0.58489811338984798</v>
       </c>
       <c r="BA2">
-        <v>-1.0629432888374299</v>
+        <v>-0.62202960843343202</v>
       </c>
       <c r="BB2">
-        <v>-1.0878449935577099</v>
+        <v>-0.62097022800142698</v>
       </c>
       <c r="BC2">
-        <v>-1.0708421444480301</v>
+        <v>-0.61097843508471905</v>
       </c>
       <c r="BD2">
-        <v>-1.0066272766709301</v>
+        <v>-0.58223068601614603</v>
       </c>
       <c r="BE2">
-        <v>-0.90766054782726202</v>
+        <v>-0.547047041187256</v>
       </c>
       <c r="BF2">
-        <v>-0.78674986855953799</v>
+        <v>-0.47102586896383403</v>
       </c>
       <c r="BG2">
-        <v>-0.62196600087852005</v>
+        <v>-0.39643993587003401</v>
       </c>
       <c r="BH2">
-        <v>-0.44943028188038803</v>
+        <v>-0.31554215206616398</v>
       </c>
       <c r="BI2">
-        <v>-0.27127207542437798</v>
+        <v>-0.22143662436824699</v>
       </c>
       <c r="BJ2">
-        <v>-8.5794772856803897E-2</v>
+        <v>-0.12599317112716399</v>
       </c>
       <c r="BK2">
-        <v>9.5798823966575603E-2</v>
+        <v>-4.4821173877803398E-2</v>
       </c>
       <c r="BL2">
-        <v>0.25663176401874599</v>
+        <v>4.9060154885938602E-2</v>
       </c>
       <c r="BM2">
-        <v>0.40762585430310599</v>
+        <v>0.11621056506063999</v>
       </c>
       <c r="BN2">
-        <v>0.53495903014489998</v>
+        <v>0.179105671714024</v>
       </c>
       <c r="BO2">
-        <v>0.61269167185698303</v>
+        <v>0.217232815410007</v>
       </c>
       <c r="BP2">
-        <v>0.68229820357161997</v>
+        <v>0.24738794333835301</v>
       </c>
       <c r="BQ2">
-        <v>0.69040837120642895</v>
+        <v>0.25609230928471599</v>
       </c>
       <c r="BR2">
-        <v>0.67183051413262496</v>
+        <v>0.25646884988614999</v>
       </c>
       <c r="BS2">
-        <v>0.62400339860934195</v>
+        <v>0.21591868240679199</v>
       </c>
       <c r="BT2">
-        <v>0.52895579676210203</v>
+        <v>0.17740393083315201</v>
       </c>
       <c r="BU2">
-        <v>0.40430168323939902</v>
+        <v>0.118402940777548</v>
       </c>
       <c r="BV2">
-        <v>0.26297379121040698</v>
+        <v>5.00127373059868E-2</v>
       </c>
       <c r="BW2">
-        <v>8.6040695819803004E-2</v>
+        <v>-3.01680343689095E-2</v>
       </c>
       <c r="BX2">
-        <v>-8.4064982151520806E-2</v>
+        <v>-0.123991340354646</v>
       </c>
       <c r="BY2">
-        <v>-0.26377679858123099</v>
+        <v>-0.21867507078123299</v>
       </c>
       <c r="BZ2">
-        <v>-0.44356896779865701</v>
+        <v>-0.29213266277797401</v>
       </c>
       <c r="CA2">
-        <v>-0.61083508097361805</v>
+        <v>-0.397132017530193</v>
       </c>
       <c r="CB2">
-        <v>-0.764106956434077</v>
+        <v>-0.45917565649770897</v>
       </c>
       <c r="CC2">
-        <v>-0.86610003954541404</v>
+        <v>-0.52017315061374603</v>
       </c>
       <c r="CD2">
-        <v>-0.96881727339100099</v>
+        <v>-0.57739116104319099</v>
       </c>
       <c r="CE2">
-        <v>-1.0204931135461099</v>
+        <v>-0.587626350598077</v>
       </c>
       <c r="CF2">
-        <v>-1.0347379760329201</v>
+        <v>-0.59745380258012204</v>
       </c>
       <c r="CG2">
-        <v>-1.0127205567350299</v>
+        <v>-0.59535673576932902</v>
       </c>
       <c r="CH2">
-        <v>-0.96096296603824505</v>
+        <v>-0.57393916247638599</v>
       </c>
       <c r="CI2">
-        <v>-0.86743163877255902</v>
+        <v>-0.52056334713036001</v>
       </c>
       <c r="CJ2">
-        <v>-0.74798592054021695</v>
+        <v>-0.467507188638905</v>
       </c>
       <c r="CK2">
-        <v>-0.60677510611914398</v>
+        <v>-0.38305831830894999</v>
       </c>
       <c r="CL2">
-        <v>-0.444571117874137</v>
+        <v>-0.305508792412515</v>
       </c>
       <c r="CM2">
-        <v>-0.26652985970163101</v>
+        <v>-0.21111106844404001</v>
       </c>
       <c r="CN2">
-        <v>-9.2246777152084306E-2</v>
+        <v>-0.126764535367417</v>
       </c>
       <c r="CO2">
-        <v>7.70960816335515E-2</v>
+        <v>-4.6867314006199597E-2</v>
       </c>
       <c r="CP2">
-        <v>0.238776975443104</v>
+        <v>1.7097224559151601E-2</v>
       </c>
       <c r="CQ2">
-        <v>0.36082263644586499</v>
+        <v>9.4667808934994296E-2</v>
       </c>
       <c r="CR2">
-        <v>0.48039444323955299</v>
+        <v>0.14194701503989501</v>
       </c>
       <c r="CS2">
-        <v>0.55581022178698103</v>
+        <v>0.19165003662650901</v>
       </c>
       <c r="CT2">
-        <v>0.61495183579565404</v>
+        <v>0.226574982532423</v>
       </c>
       <c r="CU2">
-        <v>0.62729925929933905</v>
+        <v>0.220872870493695</v>
       </c>
       <c r="CV2">
-        <v>0.60813833252467497</v>
+        <v>0.218997885703656</v>
       </c>
       <c r="CW2">
-        <v>0.56407835843724796</v>
+        <v>0.189341143799546</v>
       </c>
       <c r="CX2">
-        <v>0.47491193861562297</v>
+        <v>0.150253833300589</v>
       </c>
       <c r="CY2">
-        <v>0.359299739466444</v>
+        <v>9.5492929445588695E-2</v>
       </c>
       <c r="CZ2">
-        <v>0.22155122295740201</v>
+        <v>2.3090008996135E-2</v>
       </c>
       <c r="DA2">
-        <v>7.3460313927894497E-2</v>
+        <v>-5.1845875103632498E-2</v>
       </c>
       <c r="DB2">
-        <v>-9.4769167824640801E-2</v>
+        <v>-0.13442681758577499</v>
       </c>
       <c r="DC2">
-        <v>-0.257984241812584</v>
+        <v>-0.21429505197235801</v>
       </c>
       <c r="DD2">
-        <v>-0.41550103013298401</v>
+        <v>-0.30058240352926902</v>
       </c>
       <c r="DE2">
-        <v>-0.56665271802379003</v>
+        <v>-0.365391787578697</v>
       </c>
       <c r="DF2">
-        <v>-0.69460989998874301</v>
+        <v>-0.43014273444351903</v>
       </c>
       <c r="DG2">
-        <v>-0.81556397218619103</v>
+        <v>-0.49440001774638498</v>
       </c>
       <c r="DH2">
-        <v>-0.90170256287765405</v>
+        <v>-0.53246743769197102</v>
       </c>
       <c r="DI2">
-        <v>-0.94705580293701497</v>
+        <v>-0.56925243607519305</v>
       </c>
       <c r="DJ2">
-        <v>-0.96701313252333099</v>
+        <v>-0.57455971265401995</v>
       </c>
       <c r="DK2">
-        <v>-0.949663435610961</v>
+        <v>-0.55508103014696897</v>
       </c>
       <c r="DL2">
-        <v>-0.89275189811637201</v>
+        <v>-0.53941711826343697</v>
       </c>
       <c r="DM2">
-        <v>-0.82708061292412105</v>
+        <v>-0.49410334277200102</v>
       </c>
       <c r="DN2">
-        <v>-0.71545472004952104</v>
+        <v>-0.446129527754001</v>
       </c>
       <c r="DO2">
-        <v>-0.574656678852562</v>
+        <v>-0.37631234556606102</v>
       </c>
       <c r="DP2">
-        <v>-0.42694329369678602</v>
+        <v>-0.30521052066201798</v>
       </c>
       <c r="DQ2">
-        <v>-0.259462605869417</v>
+        <v>-0.22379877255915001</v>
       </c>
       <c r="DR2">
-        <v>-9.9777744623899697E-2</v>
+        <v>-0.13622330870489099</v>
       </c>
       <c r="DS2">
-        <v>4.5088992830906498E-2</v>
+        <v>-7.7344277036969805E-2</v>
       </c>
       <c r="DT2">
-        <v>0.18602994184890301</v>
+        <v>9.5676415169916908E-3</v>
       </c>
       <c r="DU2">
-        <v>0.30865863352224698</v>
+        <v>8.4131011254083399E-2</v>
       </c>
       <c r="DV2">
-        <v>0.39475670781132099</v>
+        <v>0.12348316087828901</v>
       </c>
       <c r="DW2">
-        <v>0.474115144514624</v>
+        <v>0.14791111846243701</v>
       </c>
       <c r="DX2">
-        <v>0.51732418819277903</v>
+        <v>0.17237590097584701</v>
       </c>
       <c r="DY2">
-        <v>0.53033114812187998</v>
+        <v>0.18719151353667801</v>
       </c>
       <c r="DZ2">
-        <v>0.516776185560196</v>
+        <v>0.171846960931689</v>
       </c>
       <c r="EA2">
-        <v>0.47589833416504701</v>
+        <v>0.14883460380462399</v>
       </c>
       <c r="EB2">
-        <v>0.39348175283470599</v>
+        <v>0.117694332484021</v>
       </c>
       <c r="EC2">
-        <v>0.307765527262988</v>
+        <v>5.3607173632463902E-2</v>
       </c>
       <c r="ED2">
-        <v>0.17145449476908001</v>
+        <v>5.5693790306213199E-4</v>
       </c>
       <c r="EE2">
-        <v>3.8724096719894102E-2</v>
+        <v>-6.4819383925027396E-2</v>
       </c>
       <c r="EF2">
-        <v>-9.5948394376086502E-2</v>
+        <v>-0.135436382265025</v>
       </c>
       <c r="EG2">
-        <v>-0.254228236170783</v>
+        <v>-0.21368163573703799</v>
       </c>
       <c r="EH2">
-        <v>-0.38989520669046801</v>
+        <v>-0.27869843027117802</v>
       </c>
       <c r="EI2">
-        <v>-0.53160474423523396</v>
+        <v>-0.34197606824946197</v>
       </c>
       <c r="EJ2">
-        <v>-0.65098812843245102</v>
+        <v>-0.40335128426256101</v>
       </c>
       <c r="EK2">
-        <v>-0.74968896511697702</v>
+        <v>-0.45776813834419899</v>
       </c>
       <c r="EL2">
-        <v>-0.81611614787716902</v>
+        <v>-0.487627773512186</v>
       </c>
       <c r="EM2">
-        <v>-0.85658874714345601</v>
+        <v>-0.51805164084016897</v>
       </c>
       <c r="EN2">
-        <v>-0.883957816128628</v>
+        <v>-0.52768731166609295</v>
       </c>
       <c r="EO2">
-        <v>-0.85654942101357701</v>
+        <v>-0.52581098405675897</v>
       </c>
       <c r="EP2">
-        <v>-0.82362179326153095</v>
+        <v>-0.48836404621352802</v>
       </c>
       <c r="EQ2">
-        <v>-0.74049045579058603</v>
+        <v>-0.44728120165645602</v>
       </c>
       <c r="ER2">
-        <v>-0.64410935337165498</v>
+        <v>-0.408043828525675</v>
       </c>
       <c r="ES2">
-        <v>-0.53186800135831502</v>
+        <v>-0.352153308585548</v>
       </c>
       <c r="ET2">
-        <v>-0.37945755906683198</v>
+        <v>-0.28329238601984802</v>
       </c>
       <c r="EU2">
-        <v>-0.23636785345195299</v>
+        <v>-0.21401807606822301</v>
       </c>
       <c r="EV2">
-        <v>-0.113753275708668</v>
+        <v>-0.14481283903658601</v>
       </c>
       <c r="EW2">
-        <v>1.4252565152044001E-2</v>
+        <v>-8.03678673640396E-2</v>
       </c>
       <c r="EX2">
-        <v>0.11887111000902199</v>
+        <v>-3.1635034365269703E-2</v>
       </c>
       <c r="EY2">
-        <v>0.222392494344893</v>
+        <v>2.9464922441604501E-2</v>
       </c>
       <c r="EZ2">
-        <v>0.30147778707630102</v>
+        <v>7.1003468872438705E-2</v>
       </c>
       <c r="FA2">
-        <v>0.38354522712106998</v>
+        <v>9.9955936357822198E-2</v>
       </c>
       <c r="FB2">
-        <v>0.40816512027013502</v>
+        <v>0.114505692699112</v>
       </c>
       <c r="FC2">
-        <v>0.415946444459112</v>
+        <v>0.11682473797748399</v>
       </c>
       <c r="FD2">
-        <v>0.40026717347020802</v>
+        <v>0.126933532389538</v>
       </c>
       <c r="FE2">
-        <v>0.37492677651089801</v>
+        <v>9.4315487574828702E-2</v>
       </c>
       <c r="FF2">
-        <v>0.31761842700356802</v>
+        <v>7.4613455971135403E-2</v>
       </c>
       <c r="FG2">
-        <v>0.234594190880825</v>
+        <v>2.1607302995843201E-2</v>
       </c>
       <c r="FH2">
-        <v>0.13838237762372901</v>
+        <v>-2.23788346174216E-2</v>
       </c>
       <c r="FI2">
-        <v>3.3411292945829799E-3</v>
+        <v>-8.1293500213969902E-2</v>
       </c>
       <c r="FJ2">
-        <v>-0.11519459131049301</v>
+        <v>-0.13978164216493399</v>
       </c>
       <c r="FK2">
-        <v>-0.230458231448014</v>
+        <v>-0.20879704397032001</v>
       </c>
       <c r="FL2">
-        <v>-0.363024429020329</v>
+        <v>-0.26361822321672801</v>
       </c>
       <c r="FM2">
-        <v>-0.46370042081708301</v>
+        <v>-0.32528222044176702</v>
       </c>
       <c r="FN2">
-        <v>-0.57178409966711696</v>
+        <v>-0.37911924034990602</v>
       </c>
       <c r="FO2">
-        <v>-0.66327824185419404</v>
+        <v>-0.42112536291904501</v>
       </c>
       <c r="FP2">
-        <v>-0.70821027269397097</v>
+        <v>-0.43301864878027002</v>
       </c>
       <c r="FQ2">
-        <v>-0.74256495291854896</v>
+        <v>-0.46784065669638603</v>
       </c>
       <c r="FR2">
-        <v>-0.77061509789323501</v>
+        <v>-0.45817842083149601</v>
       </c>
       <c r="FS2">
-        <v>-0.75516595096248296</v>
+        <v>-0.45901155764908902</v>
       </c>
       <c r="FT2">
-        <v>-0.71832040853153101</v>
+        <v>-0.44677888676905297</v>
       </c>
       <c r="FU2">
-        <v>-0.64958612548958805</v>
+        <v>-0.413190430294957</v>
       </c>
       <c r="FV2">
-        <v>-0.57425241488943501</v>
+        <v>-0.36386712577163399</v>
       </c>
       <c r="FW2">
-        <v>-0.47483154269279898</v>
+        <v>-0.32915933826813498</v>
       </c>
       <c r="FX2">
-        <v>-0.349413625050013</v>
+        <v>-0.256447024273664</v>
       </c>
       <c r="FY2">
-        <v>-0.23269012896849001</v>
+        <v>-0.21806339385561699</v>
       </c>
       <c r="FZ2">
-        <v>-0.12262238638225301</v>
+        <v>-0.14665187074191499</v>
       </c>
       <c r="GA2">
-        <v>-2.58892156000958E-2</v>
+        <v>-0.108579769673812</v>
       </c>
       <c r="GB2">
-        <v>5.6586309773064399E-2</v>
+        <v>-4.6333632398473101E-2</v>
       </c>
       <c r="GC2">
-        <v>0.13680165745686099</v>
+        <v>-1.5252528027442499E-2</v>
       </c>
       <c r="GD2">
-        <v>0.195310663113864</v>
+        <v>1.8789926352872501E-2</v>
       </c>
       <c r="GE2">
-        <v>0.25117442999826001</v>
+        <v>2.9578716056864698E-2</v>
       </c>
       <c r="GF2">
-        <v>0.28108580084055101</v>
+        <v>6.0331004131101103E-2</v>
       </c>
       <c r="GG2">
-        <v>0.29557752029920098</v>
+        <v>6.8763740350246197E-2</v>
       </c>
       <c r="GH2">
-        <v>0.26633651754149501</v>
+        <v>5.8927147410624603E-2</v>
       </c>
       <c r="GI2">
-        <v>0.25417153579302398</v>
+        <v>3.0094323355475901E-2</v>
       </c>
       <c r="GJ2">
-        <v>0.20354327316090801</v>
+        <v>4.5629296035439599E-3</v>
       </c>
       <c r="GK2">
-        <v>0.14562358142068199</v>
+        <v>-2.1905857041881801E-2</v>
       </c>
       <c r="GL2">
-        <v>5.35358515501115E-2</v>
+        <v>-6.1852038952361701E-2</v>
       </c>
       <c r="GM2">
-        <v>-3.5035548502169202E-2</v>
+        <v>-0.110366987606228</v>
       </c>
       <c r="GN2">
-        <v>-0.127099868965345</v>
+        <v>-0.14256682249951899</v>
       </c>
       <c r="GO2">
-        <v>-0.224448019555409</v>
+        <v>-0.20421817840230799</v>
       </c>
       <c r="GP2">
-        <v>-0.31957263300276501</v>
+        <v>-0.244424743635764</v>
       </c>
       <c r="GQ2">
-        <v>-0.41375216342429799</v>
+        <v>-0.28266018236437701</v>
       </c>
       <c r="GR2">
-        <v>-0.47664861746060899</v>
+        <v>-0.31859676270721299</v>
       </c>
       <c r="GS2">
-        <v>-0.54807783225264795</v>
+        <v>-0.36642699071338097</v>
       </c>
       <c r="GT2">
-        <v>-0.59675868157946899</v>
+        <v>-0.38931881246264899</v>
       </c>
       <c r="GU2">
-        <v>-0.62499758301471198</v>
+        <v>-0.39696272654133002</v>
       </c>
       <c r="GV2">
-        <v>-0.632995396452667</v>
+        <v>-0.40231577758082698</v>
       </c>
       <c r="GW2">
-        <v>-0.62605095968162805</v>
+        <v>-0.39975680372631101</v>
       </c>
       <c r="GX2">
-        <v>-0.59793394992707705</v>
+        <v>-0.387515881958783</v>
       </c>
       <c r="GY2">
-        <v>-0.54759216976114899</v>
+        <v>-0.361485727497808</v>
       </c>
       <c r="GZ2">
-        <v>-0.476160299461799</v>
+        <v>-0.33000423426390402</v>
       </c>
       <c r="HA2">
-        <v>-0.41177247297091002</v>
+        <v>-0.281819436521345</v>
       </c>
       <c r="HB2">
-        <v>-0.320283641250732</v>
+        <v>-0.23262169809361999</v>
       </c>
       <c r="HC2">
-        <v>-0.219709626694917</v>
+        <v>-0.19524564311543799</v>
       </c>
       <c r="HD2">
-        <v>-0.13021576608427099</v>
+        <v>-0.15556221017010899</v>
       </c>
       <c r="HE2">
-        <v>-6.8846983382649496E-2</v>
+        <v>-0.12713784414516099</v>
       </c>
       <c r="HF2">
-        <v>-1.8285353162546002E-2</v>
+        <v>-9.1420862000137201E-2</v>
       </c>
       <c r="HG2">
-        <v>3.18695728923509E-2</v>
+        <v>-7.4168258650998006E-2</v>
       </c>
       <c r="HH2">
-        <v>8.6707319616724204E-2</v>
+        <v>-4.3018519778341403E-2</v>
       </c>
       <c r="HI2">
-        <v>0.113511863694103</v>
+        <v>-2.8409435640856299E-2</v>
       </c>
       <c r="HJ2">
-        <v>0.13477617884156301</v>
+        <v>-2.0012111707455298E-2</v>
       </c>
       <c r="HK2">
-        <v>0.13930144553676699</v>
+        <v>-1.04563579349866E-2</v>
       </c>
       <c r="HL2">
-        <v>0.13177700584660099</v>
+        <v>-1.6914041268553601E-2</v>
       </c>
       <c r="HM2">
-        <v>0.107666671232007</v>
+        <v>-2.90423520650878E-2</v>
       </c>
       <c r="HN2">
-        <v>8.1838720929821293E-2</v>
+        <v>-4.0082325700501603E-2</v>
       </c>
       <c r="HO2">
-        <v>4.270235550149E-2</v>
+        <v>-7.03093913807087E-2</v>
       </c>
       <c r="HP2">
-        <v>-1.37713669362851E-2</v>
+        <v>-8.7852440431501394E-2</v>
       </c>
       <c r="HQ2">
-        <v>-6.8691020382779605E-2</v>
+        <v>-0.125475738100401</v>
       </c>
       <c r="HR2">
-        <v>-0.13959063834799901</v>
+        <v>-0.166432690418192</v>
       </c>
       <c r="HS2">
-        <v>-0.205574113306768</v>
+        <v>-0.18943177030292799</v>
       </c>
       <c r="HT2">
-        <v>-0.26254066279462401</v>
+        <v>-0.22371907542778899</v>
       </c>
       <c r="HU2">
-        <v>-0.32394763501437701</v>
+        <v>-0.256869899214204</v>
       </c>
       <c r="HV2">
-        <v>-0.38757813419982101</v>
+        <v>-0.27721983417745399</v>
       </c>
       <c r="HW2">
-        <v>-0.42912591467154498</v>
+        <v>-0.30350091656574701</v>
       </c>
       <c r="HX2">
-        <v>-0.45223005171039699</v>
+        <v>-0.326139598738236</v>
       </c>
       <c r="HY2">
-        <v>-0.474175040252583</v>
+        <v>-0.32876358413824902</v>
       </c>
       <c r="HZ2">
-        <v>-0.48608638371541302</v>
+        <v>-0.33156091851680197</v>
       </c>
       <c r="IA2">
-        <v>-0.47730406624676902</v>
+        <v>-0.31973129233213299</v>
       </c>
       <c r="IB2">
-        <v>-0.45764758247124399</v>
+        <v>-0.311831549379464</v>
       </c>
       <c r="IC2">
-        <v>-0.42631842507726497</v>
+        <v>-0.30307233144678503</v>
       </c>
       <c r="ID2">
-        <v>-0.380298113387458</v>
+        <v>-0.28532943113012499</v>
       </c>
       <c r="IE2">
-        <v>-0.33522322439918001</v>
+        <v>-0.25140336752407599</v>
       </c>
       <c r="IF2">
-        <v>-0.264703531503589</v>
+        <v>-0.225428122961568</v>
       </c>
       <c r="IG2">
-        <v>-0.20132032231160901</v>
+        <v>-0.179465631514963</v>
       </c>
       <c r="IH2">
-        <v>-0.15507009873934199</v>
+        <v>-0.167979972236452</v>
       </c>
       <c r="II2">
-        <v>-0.12576744968033099</v>
+        <v>-0.143980835480991</v>
       </c>
       <c r="IJ2">
-        <v>-8.6763329366353101E-2</v>
+        <v>-0.13455710786642999</v>
       </c>
       <c r="IK2">
-        <v>-5.4143873517524997E-2</v>
+        <v>-0.116023600491286</v>
       </c>
       <c r="IL2">
-        <v>-4.8407637162029199E-2</v>
+        <v>-0.109523468858546</v>
       </c>
       <c r="IM2">
-        <v>-2.8167514783520298E-2</v>
+        <v>-9.5214575691749098E-2</v>
       </c>
       <c r="IN2">
-        <v>-1.99309373076418E-2</v>
+        <v>-9.1958883780179496E-2</v>
       </c>
       <c r="IO2">
-        <v>-1.4609605439165001E-2</v>
+        <v>-9.6666928585774997E-2</v>
       </c>
       <c r="IP2">
-        <v>-1.4589133624479301E-2</v>
+        <v>-8.2944634020191005E-2</v>
       </c>
       <c r="IQ2">
-        <v>-2.47944173875808E-2</v>
+        <v>-0.102613799771164</v>
       </c>
       <c r="IR2">
-        <v>-4.0122698805248498E-2</v>
+        <v>-0.102970619890787</v>
       </c>
       <c r="IS2">
-        <v>-6.6184608671341794E-2</v>
+        <v>-0.12320956328794801</v>
       </c>
       <c r="IT2">
-        <v>-9.2489708134694495E-2</v>
+        <v>-0.13021390269726801</v>
       </c>
       <c r="IU2">
-        <v>-0.123543993458792</v>
+        <v>-0.156720143665314</v>
       </c>
       <c r="IV2">
-        <v>-0.155615073233071</v>
+        <v>-0.16039925952875</v>
       </c>
       <c r="IW2">
-        <v>-0.19458438871759601</v>
+        <v>-0.188397177508877</v>
       </c>
       <c r="IX2">
-        <v>-0.22293831113263701</v>
+        <v>-0.20585904279975101</v>
       </c>
       <c r="IY2">
-        <v>-0.241135351238153</v>
+        <v>-0.20709636127056599</v>
       </c>
       <c r="IZ2">
-        <v>-0.28131233172865899</v>
+        <v>-0.23171473170489201</v>
       </c>
       <c r="JA2">
-        <v>-0.28813703765617699</v>
+        <v>-0.22349658673089701</v>
       </c>
       <c r="JB2">
-        <v>-0.31578638990362301</v>
+        <v>-0.25222864494088898</v>
       </c>
       <c r="JC2">
-        <v>-0.32231779885211698</v>
+        <v>-0.242659481829016</v>
       </c>
       <c r="JD2">
-        <v>-0.33346537681779398</v>
+        <v>-0.24493540291496901</v>
       </c>
       <c r="JE2">
-        <v>-0.34557996577602701</v>
+        <v>-0.244735732373908</v>
       </c>
       <c r="JF2">
-        <v>-0.326236687239845</v>
+        <v>-0.24522231536102099</v>
       </c>
       <c r="JG2">
-        <v>-0.31077334576835403</v>
+        <v>-0.23013966398017699</v>
       </c>
       <c r="JH2">
-        <v>-0.28327459104890101</v>
+        <v>-0.23632326627483199</v>
       </c>
       <c r="JI2">
-        <v>-0.25597714788400699</v>
+        <v>-0.22585994012692301</v>
       </c>
       <c r="JJ2">
-        <v>-0.21893137130996301</v>
+        <v>-0.19082417833507101</v>
       </c>
       <c r="JK2">
-        <v>-0.19249798055774001</v>
+        <v>-0.179543201869375</v>
       </c>
       <c r="JL2">
-        <v>-0.16977030675178401</v>
+        <v>-0.16731203880666701</v>
       </c>
       <c r="JM2">
-        <v>-0.161473119162584</v>
+        <v>-0.16463333168323499</v>
       </c>
       <c r="JN2">
-        <v>-0.16299044764905599</v>
+        <v>-0.17767729648494701</v>
       </c>
       <c r="JO2">
-        <v>-0.15150244051365</v>
+        <v>-0.18122424477106799</v>
       </c>
       <c r="JP2">
-        <v>-0.17031468928046201</v>
+        <v>-0.1686088677016</v>
       </c>
       <c r="JQ2">
-        <v>-0.17797870366201499</v>
+        <v>-0.16181367998059601</v>
       </c>
       <c r="JR2">
-        <v>-0.17265042029167901</v>
+        <v>-0.16427313275083499</v>
       </c>
       <c r="JS2">
-        <v>-0.169674893692009</v>
+        <v>-0.165890165067934</v>
       </c>
       <c r="JT2">
-        <v>-0.16753514370747</v>
+        <v>-0.16588135810295801</v>
       </c>
       <c r="JU2">
-        <v>-0.17728884563295799</v>
+        <v>-0.182904300424717</v>
       </c>
       <c r="JV2">
-        <v>-0.16289989927631199</v>
+        <v>-0.17410423658270699</v>
       </c>
       <c r="JW2">
-        <v>-0.179266609170497</v>
+        <v>-0.167098376069272</v>
       </c>
       <c r="JX2">
-        <v>-0.165053263383554</v>
+        <v>-0.16380616438828699</v>
       </c>
       <c r="JY2">
-        <v>-0.15569126179994699</v>
+        <v>-0.172370280379326</v>
       </c>
       <c r="JZ2">
-        <v>-0.176243781322936</v>
+        <v>-0.17972478197826799</v>
       </c>
       <c r="KA2">
-        <v>-0.168135176406398</v>
+        <v>-0.16972327368479501</v>
       </c>
       <c r="KB2">
-        <v>-0.17367884288598401</v>
+        <v>-0.17504991108860199</v>
       </c>
       <c r="KC2">
-        <v>-0.172584805645176</v>
+        <v>-0.160082105653156</v>
       </c>
       <c r="KD2">
-        <v>-0.17737581015701701</v>
+        <v>-0.16487305082105599</v>
       </c>
       <c r="KE2">
-        <v>-0.171331384731716</v>
+        <v>-0.171460285794508</v>
       </c>
       <c r="KF2">
-        <v>-0.17393678843934299</v>
+        <v>-0.167589870081748</v>
       </c>
       <c r="KG2">
-        <v>-0.176886456632148</v>
+        <v>-0.166143571975155</v>
       </c>
       <c r="KH2">
-        <v>-0.17133017722378399</v>
+        <v>-0.17424881741509099</v>
       </c>
       <c r="KI2">
-        <v>-0.16607579960098401</v>
+        <v>-0.182956133470208</v>
       </c>
       <c r="KJ2">
-        <v>-0.16991355744318101</v>
+        <v>-0.16649888876034599</v>
       </c>
       <c r="KK2">
-        <v>-0.17639291314939901</v>
+        <v>-0.178227126326616</v>
       </c>
       <c r="KL2">
-        <v>-0.172552625078914</v>
+        <v>-0.173724068939825</v>
       </c>
       <c r="KM2">
-        <v>-0.17405191088411001</v>
+        <v>-0.18070771204453001</v>
       </c>
       <c r="KN2">
-        <v>-0.17796236757057801</v>
+        <v>-0.182077820090467</v>
       </c>
       <c r="KO2">
-        <v>-0.16364886820340999</v>
+        <v>-0.161828104040316</v>
       </c>
       <c r="KP2">
-        <v>-0.189861662715856</v>
+        <v>-0.17861042754266099</v>
       </c>
       <c r="KQ2">
-        <v>-0.21292597320336401</v>
+        <v>-0.198187938336607</v>
       </c>
       <c r="KR2">
-        <v>-0.24943666169194201</v>
+        <v>-0.21502179580387901</v>
       </c>
       <c r="KS2">
-        <v>-0.27013478625652898</v>
+        <v>-0.21747551870557</v>
       </c>
       <c r="KT2">
-        <v>-0.30495850226341398</v>
+        <v>-0.24143018254197701</v>
       </c>
       <c r="KU2">
-        <v>-0.33057992972417399</v>
+        <v>-0.25712302215303601</v>
       </c>
       <c r="KV2">
-        <v>-0.32789642384936502</v>
+        <v>-0.26139576507489798</v>
       </c>
       <c r="KW2">
-        <v>-0.32790367491569899</v>
+        <v>-0.24889931656284001</v>
       </c>
       <c r="KX2">
-        <v>-0.336067343102465</v>
+        <v>-0.25842355973919001</v>
       </c>
       <c r="KY2">
-        <v>-0.31995624054396798</v>
+        <v>-0.24472048677461999</v>
       </c>
       <c r="KZ2">
-        <v>-0.29162253121729897</v>
+        <v>-0.227332836061166</v>
       </c>
       <c r="LA2">
-        <v>-0.28655115026455302</v>
+        <v>-0.23258173215540201</v>
       </c>
       <c r="LB2">
-        <v>-0.26057964546057</v>
+        <v>-0.213984471673349</v>
       </c>
       <c r="LC2">
-        <v>-0.231084680525834</v>
+        <v>-0.19102570980050901</v>
       </c>
       <c r="LD2">
-        <v>-0.18446801087696499</v>
+        <v>-0.18220965081307899</v>
       </c>
       <c r="LE2">
-        <v>-0.15553833226279101</v>
+        <v>-0.16071186722097699</v>
       </c>
       <c r="LF2">
-        <v>-0.11337352381664199</v>
+        <v>-0.138125557455305</v>
       </c>
       <c r="LG2">
-        <v>-8.5853346538334901E-2</v>
+        <v>-0.137540638918423</v>
       </c>
       <c r="LH2">
-        <v>-6.0806473881035099E-2</v>
+        <v>-0.12692495261435799</v>
       </c>
       <c r="LI2">
-        <v>-4.2693998002052098E-2</v>
+        <v>-0.105829428886383</v>
       </c>
       <c r="LJ2">
-        <v>-2.8544981806997102E-2</v>
+        <v>-0.102511357297583</v>
       </c>
       <c r="LK2">
-        <v>-7.9735785234984202E-3</v>
+        <v>-8.2775877791004801E-2</v>
       </c>
       <c r="LL2">
-        <v>-1.0874220585975701E-2</v>
+        <v>-9.1452058626458693E-2</v>
       </c>
       <c r="LM2">
-        <v>-1.0057288728188601E-2</v>
+        <v>-9.3158810418921795E-2</v>
       </c>
       <c r="LN2">
-        <v>-2.23538092032925E-2</v>
+        <v>-9.6499077473372996E-2</v>
       </c>
       <c r="LO2">
-        <v>-4.49556453199145E-2</v>
+        <v>-0.10121955824592201</v>
       </c>
       <c r="LP2">
-        <v>-6.5121915813175293E-2</v>
+        <v>-0.11253311887959901</v>
       </c>
       <c r="LQ2">
-        <v>-9.1208375730996494E-2</v>
+        <v>-0.12887632387276701</v>
       </c>
       <c r="LR2">
-        <v>-0.12980747478772001</v>
+        <v>-0.144674618757859</v>
       </c>
       <c r="LS2">
-        <v>-0.165469898993964</v>
+        <v>-0.15418145468105501</v>
       </c>
       <c r="LT2">
-        <v>-0.20749729450653101</v>
+        <v>-0.18298020616337499</v>
       </c>
       <c r="LU2">
-        <v>-0.26306575130291798</v>
+        <v>-0.215720541290504</v>
       </c>
       <c r="LV2">
-        <v>-0.338466502910439</v>
+        <v>-0.25635741468562101</v>
       </c>
       <c r="LW2">
-        <v>-0.38382709435734502</v>
+        <v>-0.27888312465981402</v>
       </c>
       <c r="LX2">
-        <v>-0.424969107707726</v>
+        <v>-0.30315067889677899</v>
       </c>
       <c r="LY2">
-        <v>-0.45670011355888501</v>
+        <v>-0.32710069328062003</v>
       </c>
       <c r="LZ2">
-        <v>-0.48797097609372703</v>
+        <v>-0.329122819922059</v>
       </c>
       <c r="MA2">
-        <v>-0.49407169828191599</v>
+        <v>-0.34086201815964701</v>
       </c>
       <c r="MB2">
-        <v>-0.47991726940055301</v>
+        <v>-0.33097931614200299</v>
       </c>
       <c r="MC2">
-        <v>-0.460293387126884</v>
+        <v>-0.32366288028158702</v>
       </c>
       <c r="MD2">
-        <v>-0.42776640371258901</v>
+        <v>-0.29837069574519298</v>
       </c>
       <c r="ME2">
-        <v>-0.38196934947642902</v>
+        <v>-0.26889630623516497</v>
       </c>
       <c r="MF2">
-        <v>-0.335500360850707</v>
+        <v>-0.25297055937055701</v>
       </c>
       <c r="MG2">
-        <v>-0.27092247157405602</v>
+        <v>-0.233136188052814</v>
       </c>
       <c r="MH2">
-        <v>-0.20439509411200599</v>
+        <v>-0.190569850875564</v>
       </c>
       <c r="MI2">
-        <v>-0.14563275122899999</v>
+        <v>-0.16118620584059001</v>
       </c>
       <c r="MJ2">
-        <v>-6.6440554036416494E-2</v>
+        <v>-0.116694865045083</v>
       </c>
       <c r="MK2">
-        <v>-6.22076826833324E-3</v>
+        <v>-0.10097721171148</v>
       </c>
       <c r="ML2">
-        <v>3.9784240597276699E-2</v>
+        <v>-6.74668007629457E-2</v>
       </c>
       <c r="MM2">
-        <v>7.4914441616881294E-2</v>
+        <v>-5.2105480479315597E-2</v>
       </c>
       <c r="MN2">
-        <v>0.116925137375327</v>
+        <v>-2.7970558597055401E-2</v>
       </c>
       <c r="MO2">
-        <v>0.136487505192352</v>
+        <v>-1.9400145775097299E-2</v>
       </c>
       <c r="MP2">
-        <v>0.143943516378257</v>
+        <v>-9.9146509530447704E-3</v>
       </c>
       <c r="MQ2">
-        <v>0.13224096814460101</v>
+        <v>-2.0486740780501101E-2</v>
       </c>
       <c r="MR2">
-        <v>0.116010422318485</v>
+        <v>-3.7555191808227202E-2</v>
       </c>
       <c r="MS2">
-        <v>8.2037323607894105E-2</v>
+        <v>-4.5673908100304403E-2</v>
       </c>
       <c r="MT2">
-        <v>4.8172486466456103E-2</v>
+        <v>-7.2827447403726098E-2</v>
       </c>
       <c r="MU2">
-        <v>-4.5222661424574196E-3</v>
+        <v>-9.4998815991406901E-2</v>
       </c>
       <c r="MV2">
-        <v>-8.3447164420353506E-2</v>
+        <v>-0.124306436339836</v>
       </c>
       <c r="MW2">
-        <v>-0.14529243107770401</v>
+        <v>-0.16825709153110599</v>
       </c>
       <c r="MX2">
-        <v>-0.22568472604043099</v>
+        <v>-0.20290704187275799</v>
       </c>
       <c r="MY2">
-        <v>-0.31332852574240799</v>
+        <v>-0.24943129370065301</v>
       </c>
       <c r="MZ2">
-        <v>-0.413262481902963</v>
+        <v>-0.29449869965995901</v>
       </c>
       <c r="NA2">
-        <v>-0.47632372644265403</v>
+        <v>-0.31597414979791499</v>
       </c>
       <c r="NB2">
-        <v>-0.53423031903816798</v>
+        <v>-0.35337376765533302</v>
       </c>
       <c r="NC2">
-        <v>-0.59334701260145095</v>
+        <v>-0.39201248543335199</v>
       </c>
       <c r="ND2">
-        <v>-0.61257866952154805</v>
+        <v>-0.39396739492548399</v>
       </c>
       <c r="NE2">
-        <v>-0.63506875201128898</v>
+        <v>-0.40309705651317601</v>
       </c>
       <c r="NF2">
-        <v>-0.62668027589801001</v>
+        <v>-0.39309293579562998</v>
       </c>
       <c r="NG2">
-        <v>-0.592231042487806</v>
+        <v>-0.37836163229051401</v>
       </c>
       <c r="NH2">
-        <v>-0.549531681153687</v>
+        <v>-0.36477017032442699</v>
       </c>
       <c r="NI2">
-        <v>-0.46841912517913198</v>
+        <v>-0.33147258643898098</v>
       </c>
       <c r="NJ2">
-        <v>-0.39799627997225401</v>
+        <v>-0.28170305942512402</v>
       </c>
       <c r="NK2">
-        <v>-0.31072146711783299</v>
+        <v>-0.24082828290316599</v>
       </c>
       <c r="NL2">
-        <v>-0.22147030260145201</v>
+        <v>-0.20217695807539801</v>
       </c>
       <c r="NM2">
-        <v>-0.121932042042139</v>
+        <v>-0.149256058459976</v>
       </c>
       <c r="NN2">
-        <v>-2.73911452271744E-2</v>
+        <v>-0.10748923169932301</v>
       </c>
       <c r="NO2">
-        <v>6.3930362594877402E-2</v>
+        <v>-4.2218305532962103E-2</v>
       </c>
       <c r="NP2">
-        <v>0.135545023273558</v>
+        <v>-1.17527967213056E-2</v>
       </c>
       <c r="NQ2">
-        <v>0.19757686128891699</v>
+        <v>2.0749324769867E-2</v>
       </c>
       <c r="NR2">
-        <v>0.257206868186032</v>
+        <v>4.4153082006115403E-2</v>
       </c>
       <c r="NS2">
-        <v>0.26910819022799498</v>
+        <v>5.8268246677114201E-2</v>
       </c>
       <c r="NT2">
-        <v>0.298037158010797</v>
+        <v>5.7638288609995397E-2</v>
       </c>
       <c r="NU2">
-        <v>0.281608991938605</v>
+        <v>5.2127607660904303E-2</v>
       </c>
       <c r="NV2">
-        <v>0.23635985681225599</v>
+        <v>3.4071347143839602E-2</v>
       </c>
       <c r="NW2">
-        <v>0.20103061626982899</v>
+        <v>1.5958906038844801E-2</v>
       </c>
       <c r="NX2">
-        <v>0.1443263587035</v>
+        <v>-1.8206593137518899E-2</v>
       </c>
       <c r="NY2">
-        <v>6.2695463381248998E-2</v>
+        <v>-6.7500592098807405E-2</v>
       </c>
       <c r="NZ2">
-        <v>-3.2926735090136897E-2</v>
+        <v>-9.2102199343756797E-2</v>
       </c>
       <c r="OA2">
-        <v>-0.120458591349706</v>
+        <v>-0.146132574854521</v>
       </c>
       <c r="OB2">
-        <v>-0.22191674019323601</v>
+        <v>-0.20077274204746701</v>
       </c>
       <c r="OC2">
-        <v>-0.34822212851428502</v>
+        <v>-0.25397923980869502</v>
       </c>
       <c r="OD2">
-        <v>-0.47196093557805102</v>
+        <v>-0.32978208416744398</v>
       </c>
       <c r="OE2">
-        <v>-0.56816272782198796</v>
+        <v>-0.36821315230586699</v>
       </c>
       <c r="OF2">
-        <v>-0.64559232480925699</v>
+        <v>-0.40806836460545398</v>
       </c>
       <c r="OG2">
-        <v>-0.71982007096108802</v>
+        <v>-0.444070703537218</v>
       </c>
       <c r="OH2">
-        <v>-0.74784692317814105</v>
+        <v>-0.45605128722460098</v>
       </c>
       <c r="OI2">
-        <v>-0.77719251950791202</v>
+        <v>-0.47586561219747298</v>
       </c>
       <c r="OJ2">
-        <v>-0.74955358907629299</v>
+        <v>-0.47585600725382099</v>
       </c>
       <c r="OK2">
-        <v>-0.70794506571393201</v>
+        <v>-0.44211530184887698</v>
       </c>
       <c r="OL2">
-        <v>-0.65038992314977495</v>
+        <v>-0.40912328292015399</v>
       </c>
       <c r="OM2">
-        <v>-0.57647126101384805</v>
+        <v>-0.37294478358421101</v>
       </c>
       <c r="ON2">
-        <v>-0.48083827099614002</v>
+        <v>-0.30906283109437299</v>
       </c>
       <c r="OO2">
-        <v>-0.34690416954355902</v>
+        <v>-0.25627403991710401</v>
       </c>
       <c r="OP2">
-        <v>-0.22031536205435501</v>
+        <v>-0.196138158427408</v>
       </c>
       <c r="OQ2">
-        <v>-0.116596005438556</v>
+        <v>-0.137206285467459</v>
       </c>
       <c r="OR2">
-        <v>-2.88402579771126E-3</v>
+        <v>-8.2102825708418203E-2</v>
       </c>
       <c r="OS2">
-        <v>0.123729514626412</v>
+        <v>-3.97625527014197E-2</v>
       </c>
       <c r="OT2">
-        <v>0.22143988112430801</v>
+        <v>1.9344649609357702E-2</v>
       </c>
       <c r="OU2">
-        <v>0.30740950578924597</v>
+        <v>7.5947206764145403E-2</v>
       </c>
       <c r="OV2">
-        <v>0.37573865925634498</v>
+        <v>9.1861537709737401E-2</v>
       </c>
       <c r="OW2">
-        <v>0.40812916647812097</v>
+        <v>0.122807699347127</v>
       </c>
       <c r="OX2">
-        <v>0.42066282337046301</v>
+        <v>0.12660765423501899</v>
       </c>
       <c r="OY2">
-        <v>0.40302871740576801</v>
+        <v>0.11172696594048399</v>
       </c>
       <c r="OZ2">
-        <v>0.35924590146119301</v>
+        <v>9.8690012487037695E-2</v>
       </c>
       <c r="PA2">
-        <v>0.29981967118477698</v>
+        <v>6.2846123272331397E-2</v>
       </c>
       <c r="PB2">
-        <v>0.227453371785372</v>
+        <v>1.8029224124031899E-2</v>
       </c>
       <c r="PC2">
-        <v>0.12597116407841799</v>
+        <v>-3.06496038400557E-2</v>
       </c>
       <c r="PD2">
-        <v>1.8976295251538699E-3</v>
+        <v>-8.2897099400178295E-2</v>
       </c>
       <c r="PE2">
-        <v>-0.107848332061042</v>
+        <v>-0.142178935207877</v>
       </c>
       <c r="PF2">
-        <v>-0.24423330613831101</v>
+        <v>-0.212044617991756</v>
       </c>
       <c r="PG2">
-        <v>-0.38536365231433201</v>
+        <v>-0.27207267309338601</v>
       </c>
       <c r="PH2">
-        <v>-0.51688660168906797</v>
+        <v>-0.34064219906684601</v>
       </c>
       <c r="PI2">
-        <v>-0.64578842244924495</v>
+        <v>-0.40861834564363397</v>
       </c>
       <c r="PJ2">
-        <v>-0.75179756895594796</v>
+        <v>-0.45622965637250701</v>
       </c>
       <c r="PK2">
-        <v>-0.82007773163485498</v>
+        <v>-0.47882318747233199</v>
       </c>
       <c r="PL2">
-        <v>-0.85939889781158096</v>
+        <v>-0.51573344962946899</v>
       </c>
       <c r="PM2">
-        <v>-0.87283315487922697</v>
+        <v>-0.533707907594556</v>
       </c>
       <c r="PN2">
-        <v>-0.85334703654786503</v>
+        <v>-0.51404162464499503</v>
       </c>
       <c r="PO2">
-        <v>-0.82558243950715204</v>
+        <v>-0.48411375336764501</v>
       </c>
       <c r="PP2">
-        <v>-0.74520550058631896</v>
+        <v>-0.45376402377596697</v>
       </c>
       <c r="PQ2">
-        <v>-0.62646851958389504</v>
+        <v>-0.40698110375520002</v>
       </c>
       <c r="PR2">
-        <v>-0.52586764869946701</v>
+        <v>-0.34781004275584299</v>
       </c>
       <c r="PS2">
-        <v>-0.39381298680340399</v>
+        <v>-0.288614125915583</v>
       </c>
       <c r="PT2">
-        <v>-0.23432823887504101</v>
+        <v>-0.204888253585047</v>
       </c>
       <c r="PU2">
-        <v>-9.32927788018659E-2</v>
+        <v>-0.14515375165444799</v>
       </c>
       <c r="PV2">
-        <v>5.1321839556114003E-2</v>
+        <v>-7.5069561222614198E-2</v>
       </c>
       <c r="PW2">
-        <v>0.183000633254401</v>
+        <v>-3.0944033167900099E-3</v>
       </c>
       <c r="PX2">
-        <v>0.29938074375987</v>
+        <v>6.6124719278499403E-2</v>
       </c>
       <c r="PY2">
-        <v>0.38710720688697797</v>
+        <v>0.118497239091973</v>
       </c>
       <c r="PZ2">
-        <v>0.47082184393043103</v>
+        <v>0.14141056103694999</v>
       </c>
       <c r="QA2">
-        <v>0.50140717863281203</v>
+        <v>0.16385379684318199</v>
       </c>
       <c r="QB2">
-        <v>0.52569867244802504</v>
+        <v>0.16253432049420599</v>
       </c>
       <c r="QC2">
-        <v>0.51548909306344803</v>
+        <v>0.17217136728837201</v>
       </c>
       <c r="QD2">
-        <v>0.473624922331218</v>
+        <v>0.15417448181451801</v>
       </c>
       <c r="QE2">
-        <v>0.400872223485367</v>
+        <v>0.112975016733282</v>
       </c>
       <c r="QF2">
-        <v>0.28917071144346401</v>
+        <v>6.3525351224854504E-2</v>
       </c>
       <c r="QG2">
-        <v>0.18304595713198399</v>
+        <v>6.9849587256201797E-3</v>
       </c>
       <c r="QH2">
-        <v>5.0703160320348203E-2</v>
+        <v>-6.3815633193454804E-2</v>
       </c>
       <c r="QI2">
-        <v>-0.10195031192706799</v>
+        <v>-0.133241870505139</v>
       </c>
       <c r="QJ2">
-        <v>-0.25419880660578298</v>
+        <v>-0.21979069926844</v>
       </c>
       <c r="QK2">
-        <v>-0.41333787073079697</v>
+        <v>-0.297288442873134</v>
       </c>
       <c r="QL2">
-        <v>-0.57575538829584105</v>
+        <v>-0.36734403109845698</v>
       </c>
       <c r="QM2">
-        <v>-0.69749540455506998</v>
+        <v>-0.43500267809829601</v>
       </c>
       <c r="QN2">
-        <v>-0.80917309703520501</v>
+        <v>-0.49218667694940899</v>
       </c>
       <c r="QO2">
-        <v>-0.89527670706304197</v>
+        <v>-0.54123645246304097</v>
       </c>
       <c r="QP2">
-        <v>-0.95774349585330798</v>
+        <v>-0.56183507539992406</v>
       </c>
       <c r="QQ2">
-        <v>-0.969833288852886</v>
+        <v>-0.57241914330034704</v>
       </c>
       <c r="QR2">
-        <v>-0.95271781892546703</v>
+        <v>-0.57025543099235099</v>
       </c>
       <c r="QS2">
-        <v>-0.89894625746012902</v>
+        <v>-0.53994645183587897</v>
       </c>
       <c r="QT2">
-        <v>-0.82425813670818204</v>
+        <v>-0.49772143337729402</v>
       </c>
       <c r="QU2">
-        <v>-0.69545338555414904</v>
+        <v>-0.44167923335190601</v>
       </c>
       <c r="QV2">
-        <v>-0.57657546470511201</v>
+        <v>-0.37146709787677501</v>
       </c>
       <c r="QW2">
-        <v>-0.41841825658669202</v>
+        <v>-0.288160270147027</v>
       </c>
       <c r="QX2">
-        <v>-0.25098423069118098</v>
+        <v>-0.223603810518159</v>
       </c>
       <c r="QY2">
-        <v>-8.3102244931962305E-2</v>
+        <v>-0.124704145003355</v>
       </c>
       <c r="QZ2">
-        <v>8.69822739908995E-2</v>
+        <v>-4.948013738945E-2</v>
       </c>
       <c r="RA2">
-        <v>0.22165409181345899</v>
+        <v>3.3337652459086403E-2</v>
       </c>
       <c r="RB2">
-        <v>0.36110500480722102</v>
+        <v>9.3872773926976197E-2</v>
       </c>
       <c r="RC2">
-        <v>0.47147311693099397</v>
+        <v>0.15796595687328999</v>
       </c>
       <c r="RD2">
-        <v>0.56281082757067702</v>
+        <v>0.19067894048544701</v>
       </c>
       <c r="RE2">
-        <v>0.61373541612971605</v>
+        <v>0.21983748475291701</v>
       </c>
       <c r="RF2">
-        <v>0.64516639687243704</v>
+        <v>0.226536051918618</v>
       </c>
       <c r="RG2">
-        <v>0.60763266215422795</v>
+        <v>0.21635108280239301</v>
       </c>
       <c r="RH2">
-        <v>0.56263602801689006</v>
+        <v>0.19443167426300501</v>
       </c>
       <c r="RI2">
-        <v>0.472779797385947</v>
+        <v>0.15145636784232799</v>
       </c>
       <c r="RJ2">
-        <v>0.35135749748713802</v>
+        <v>9.5612051487338701E-2</v>
       </c>
       <c r="RK2">
-        <v>0.234169950855554</v>
+        <v>2.43299637977499E-2</v>
       </c>
       <c r="RL2">
-        <v>8.2646458137421802E-2</v>
+        <v>-4.9176220056276601E-2</v>
       </c>
       <c r="RM2">
-        <v>-9.5247374791246106E-2</v>
+        <v>-0.146525594890759</v>
       </c>
       <c r="RN2">
-        <v>-0.25744418173631201</v>
+        <v>-0.220509858421959</v>
       </c>
       <c r="RO2">
-        <v>-0.43107754953938598</v>
+        <v>-0.30186224382791499</v>
       </c>
       <c r="RP2">
-        <v>-0.60523960226821505</v>
+        <v>-0.393091733672081</v>
       </c>
       <c r="RQ2">
-        <v>-0.75649029633291198</v>
+        <v>-0.45501183763817798</v>
       </c>
       <c r="RR2">
-        <v>-0.87536478207258195</v>
+        <v>-0.52889777164404095</v>
       </c>
       <c r="RS2">
-        <v>-0.96308922697444599</v>
+        <v>-0.56490529274107804</v>
       </c>
       <c r="RT2">
-        <v>-1.0221222912680299</v>
+        <v>-0.58817449130727895</v>
       </c>
       <c r="RU2">
-        <v>-1.0304462226989599</v>
+        <v>-0.60557574966663397</v>
       </c>
       <c r="RV2">
-        <v>-1.0220497866621501</v>
+        <v>-0.59872408920127096</v>
       </c>
       <c r="RW2">
-        <v>-0.95252773273162705</v>
+        <v>-0.57258037633120995</v>
       </c>
       <c r="RX2">
-        <v>-0.87889621145376295</v>
+        <v>-0.51957292547568101</v>
       </c>
       <c r="RY2">
-        <v>-0.74908852158038597</v>
+        <v>-0.46410331792051301</v>
       </c>
       <c r="RZ2">
-        <v>-0.60121401351496195</v>
+        <v>-0.38983634355848201</v>
       </c>
       <c r="SA2">
-        <v>-0.436537587827036</v>
+        <v>-0.30109864550579102</v>
       </c>
       <c r="SB2">
-        <v>-0.25711412728958999</v>
+        <v>-0.21838080628089901</v>
       </c>
       <c r="SC2">
-        <v>-8.1466812536914193E-2</v>
+        <v>-0.122310142556215</v>
       </c>
       <c r="SD2">
-        <v>9.9882978063515704E-2</v>
+        <v>-2.8168392966798E-2</v>
       </c>
       <c r="SE2">
-        <v>0.25992189466983701</v>
+        <v>5.02618076049718E-2</v>
       </c>
       <c r="SF2">
-        <v>0.41390409408085099</v>
+        <v>9.9918962110225301E-2</v>
       </c>
       <c r="SG2">
-        <v>0.53713419381769401</v>
+        <v>0.171976907558445</v>
       </c>
       <c r="SH2">
-        <v>0.61852068394167903</v>
+        <v>0.218125675073643</v>
       </c>
       <c r="SI2">
-        <v>0.68377297767524003</v>
+        <v>0.25014947556884498</v>
       </c>
       <c r="SJ2">
-        <v>0.69136155207669403</v>
+        <v>0.25388273442606102</v>
       </c>
       <c r="SK2">
-        <v>0.67651379972319403</v>
+        <v>0.25209225355579001</v>
       </c>
       <c r="SL2">
-        <v>0.62205752758253696</v>
+        <v>0.22661723161414901</v>
       </c>
       <c r="SM2">
-        <v>0.53488073520832602</v>
+        <v>0.178464717666171</v>
       </c>
       <c r="SN2">
-        <v>0.41766892272869</v>
+        <v>0.11648270811681199</v>
       </c>
       <c r="SO2">
-        <v>0.25529927707723499</v>
+        <v>3.9899381740418301E-2</v>
       </c>
       <c r="SP2">
-        <v>9.9117836317051997E-2</v>
+        <v>-4.6737800151679297E-2</v>
       </c>
       <c r="SQ2">
-        <v>-7.5697715929840106E-2</v>
+        <v>-0.119806722513084</v>
       </c>
       <c r="SR2">
-        <v>-0.25700415551111699</v>
+        <v>-0.22111299641712101</v>
       </c>
       <c r="SS2">
-        <v>-0.45053322957688702</v>
+        <v>-0.31655071128916401</v>
       </c>
       <c r="ST2">
-        <v>-0.629757182984515</v>
+        <v>-0.40146038277515</v>
       </c>
       <c r="SU2">
-        <v>-0.77607277946317099</v>
+        <v>-0.472166949242453</v>
       </c>
       <c r="SV2">
-        <v>-0.90221995183849002</v>
+        <v>-0.53597748300733306</v>
       </c>
       <c r="SW2">
-        <v>-0.99811652912515203</v>
+        <v>-0.58981253769933994</v>
       </c>
       <c r="SX2">
-        <v>-1.0613950583265199</v>
+        <v>-0.62101352806294297</v>
       </c>
       <c r="SY2">
-        <v>-1.06441260916013</v>
+        <v>-0.61738499151165505</v>
       </c>
       <c r="SZ2">
-        <v>-1.0583002752000601</v>
+        <v>-0.62076017322455601</v>
       </c>
       <c r="TA2">
-        <v>-0.99920096135172798</v>
+        <v>-0.58504856456795895</v>
       </c>
       <c r="TB2">
-        <v>-0.90877105807831904</v>
+        <v>-0.53902011697454399</v>
       </c>
       <c r="TC2">
-        <v>-0.77842166691493098</v>
+        <v>-0.47488200076763998</v>
       </c>
       <c r="TD2">
-        <v>-0.62416673715419202</v>
+        <v>-0.40797516963157099</v>
       </c>
       <c r="TE2">
-        <v>-0.45083168011460301</v>
+        <v>-0.31012860457088998</v>
       </c>
       <c r="TF2">
-        <v>-0.27035635074103298</v>
+        <v>-0.23587516510071799</v>
       </c>
       <c r="TG2">
-        <v>-8.7101984356691295E-2</v>
+        <v>-0.13411102673868799</v>
       </c>
       <c r="TH2">
-        <v>0.112051910839905</v>
+        <v>-3.2771954089074802E-2</v>
       </c>
       <c r="TI2">
-        <v>0.277825422560882</v>
+        <v>5.4243618128382597E-2</v>
       </c>
       <c r="TJ2">
-        <v>0.430076963518356</v>
+        <v>0.12887468763448101</v>
       </c>
       <c r="TK2">
-        <v>0.57404861624473202</v>
+        <v>0.20279280558807</v>
       </c>
       <c r="TL2">
-        <v>0.65533195117074705</v>
+        <v>0.25141445930065198</v>
       </c>
       <c r="TM2">
-        <v>0.72225801895925201</v>
+        <v>0.26466419074390901</v>
       </c>
       <c r="TN2">
-        <v>0.73862409415683505</v>
+        <v>0.28414696159596398</v>
       </c>
       <c r="TO2">
-        <v>0.70707429706556102</v>
+        <v>0.26194890913868102</v>
       </c>
       <c r="TP2">
-        <v>0.66316545737893595</v>
+        <v>0.25395857255940602</v>
       </c>
       <c r="TQ2">
-        <v>0.56183133418283004</v>
+        <v>0.1903356618848</v>
       </c>
       <c r="TR2">
-        <v>0.43900862796367501</v>
+        <v>0.12717487616376699</v>
       </c>
       <c r="TS2">
-        <v>0.291407753828406</v>
+        <v>5.9693327363079397E-2</v>
       </c>
       <c r="TT2">
-        <v>0.104612010981668</v>
+        <v>-3.3065393939194498E-2</v>
       </c>
       <c r="TU2">
-        <v>-8.4825022647802797E-2</v>
+        <v>-0.121325080140117</v>
       </c>
       <c r="TV2">
-        <v>-0.263871766081201</v>
+        <v>-0.212476371139489</v>
       </c>
       <c r="TW2">
-        <v>-0.44725159574991502</v>
+        <v>-0.30567551356707201</v>
       </c>
       <c r="TX2">
-        <v>-0.64306682501575196</v>
+        <v>-0.405023076638718</v>
       </c>
       <c r="TY2">
-        <v>-0.78674475396093102</v>
+        <v>-0.48676855925763901</v>
       </c>
       <c r="TZ2">
-        <v>-0.91808825882547296</v>
+        <v>-0.556346142624633</v>
       </c>
       <c r="UA2">
-        <v>-1.01378927002462</v>
+        <v>-0.58861796302441405</v>
       </c>
       <c r="UB2">
-        <v>-1.07651073631848</v>
+        <v>-0.61381870549795803</v>
       </c>
       <c r="UC2">
-        <v>-1.0921284163806499</v>
+        <v>-0.63698275552417105</v>
       </c>
       <c r="UD2">
-        <v>-1.07704903140366</v>
+        <v>-0.61630438194973403</v>
       </c>
       <c r="UE2">
-        <v>-1.01473423337727</v>
+        <v>-0.595471093888989</v>
       </c>
       <c r="UF2">
-        <v>-0.91880236025117201</v>
+        <v>-0.54807586249500895</v>
       </c>
       <c r="UG2">
-        <v>-0.78454633004449503</v>
+        <v>-0.475924865690527</v>
       </c>
       <c r="UH2">
-        <v>-0.63559998509063498</v>
+        <v>-0.40201201354583399</v>
       </c>
       <c r="UI2">
-        <v>-0.45577385038706603</v>
+        <v>-0.30199167389005599</v>
       </c>
       <c r="UJ2">
-        <v>-0.27674144879406998</v>
+        <v>-0.22231963001480401</v>
       </c>
       <c r="UK2">
-        <v>-8.0967639100940902E-2</v>
+        <v>-0.12506225535808899</v>
       </c>
       <c r="UL2">
-        <v>0.114832091147092</v>
+        <v>-2.6023262920703099E-2</v>
       </c>
       <c r="UM2">
-        <v>0.28780361953761402</v>
+        <v>6.3016908627593293E-2</v>
       </c>
       <c r="UN2">
-        <v>0.43794013965929102</v>
+        <v>0.12725101989656701</v>
       </c>
       <c r="UO2">
-        <v>0.57369185522510902</v>
+        <v>0.209338346294206</v>
       </c>
       <c r="UP2">
-        <v>0.67153528518519201</v>
+        <v>0.25839158818733998</v>
       </c>
       <c r="UQ2">
-        <v>0.72661955883271001</v>
+        <v>0.28234401969352202</v>
       </c>
       <c r="UR2">
-        <v>0.74528034180796499</v>
+        <v>0.284768670824876</v>
       </c>
       <c r="US2">
-        <v>0.72911022323637997</v>
+        <v>0.27272322412105199</v>
       </c>
       <c r="UT2">
-        <v>0.67940899382450304</v>
+        <v>0.258067874233397</v>
       </c>
       <c r="UU2">
-        <v>0.57356679277642597</v>
+        <v>0.202377466145201</v>
       </c>
       <c r="UV2">
-        <v>0.45078575090370399</v>
+        <v>0.133697781358179</v>
       </c>
       <c r="UW2">
-        <v>0.29285952341995197</v>
+        <v>6.8377352218064805E-2</v>
       </c>
       <c r="UX2">
-        <v>0.110265936125546</v>
+        <v>-3.2357941156884902E-2</v>
       </c>
       <c r="UY2">
-        <v>-7.4528275945715802E-2</v>
+        <v>-0.13580616769454101</v>
       </c>
       <c r="UZ2">
-        <v>-0.17913137487537201</v>
+        <v>-0.16598596041428701</v>
       </c>
     </row>
     <row r="3" spans="1:572" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-7.0347325323235205E-2</v>
+        <v>-7.4712820701683794E-2</v>
       </c>
       <c r="B3">
-        <v>-8.2136983494480606E-2</v>
+        <v>-7.3399969012885397E-2</v>
       </c>
       <c r="C3">
-        <v>-7.8585952732893802E-2</v>
+        <v>-7.3908801576597197E-2</v>
       </c>
       <c r="D3">
-        <v>-8.0718768807083202E-2</v>
+        <v>-9.6499204855810997E-2</v>
       </c>
       <c r="E3">
-        <v>-9.8595076057318404E-2</v>
+        <v>-8.7993588975760095E-2</v>
       </c>
       <c r="F3">
-        <v>-9.5202320497154894E-2</v>
+        <v>-8.6118737335282095E-2</v>
       </c>
       <c r="G3">
-        <v>-0.11394493118500899</v>
+        <v>-8.6467795620078405E-2</v>
       </c>
       <c r="H3">
-        <v>-0.10552650474133</v>
+        <v>-0.10420306785496999</v>
       </c>
       <c r="I3">
-        <v>-0.107465330397942</v>
+        <v>-9.0275199198259604E-2</v>
       </c>
       <c r="J3">
-        <v>-0.11019857877391399</v>
+        <v>-8.2240059397864995E-2</v>
       </c>
       <c r="K3">
-        <v>-0.104423848019695</v>
+        <v>-9.3848676996895503E-2</v>
       </c>
       <c r="L3">
-        <v>-9.8840317980949194E-2</v>
+        <v>-9.0705763474725296E-2</v>
       </c>
       <c r="M3">
-        <v>-0.105059709015431</v>
+        <v>-9.2983151204765802E-2</v>
       </c>
       <c r="N3">
-        <v>-8.3461567249574903E-2</v>
+        <v>-9.2212709093205406E-2</v>
       </c>
       <c r="O3">
-        <v>-9.0477864396538293E-2</v>
+        <v>-8.4602443860951004E-2</v>
       </c>
       <c r="P3">
-        <v>-6.9751465007138802E-2</v>
+        <v>-7.7325265617728497E-2</v>
       </c>
       <c r="Q3">
-        <v>-6.4191554231231504E-2</v>
+        <v>-7.1898389048388203E-2</v>
       </c>
       <c r="R3">
-        <v>-5.62268353098253E-2</v>
+        <v>-7.0704343732973601E-2</v>
       </c>
       <c r="S3">
-        <v>-5.9296051749006297E-2</v>
+        <v>-6.5475846465753995E-2</v>
       </c>
       <c r="T3">
-        <v>-4.7390377189613399E-2</v>
+        <v>-6.6075349882164597E-2</v>
       </c>
       <c r="U3">
-        <v>-4.1372922702367303E-2</v>
+        <v>-4.9722926082252698E-2</v>
       </c>
       <c r="V3">
-        <v>-5.17748743921779E-2</v>
+        <v>-5.4778255310675802E-2</v>
       </c>
       <c r="W3">
-        <v>-4.9603711496263497E-2</v>
+        <v>-5.9978486649189901E-2</v>
       </c>
       <c r="X3">
-        <v>-2.7947542214865E-2</v>
+        <v>-5.32850727636313E-2</v>
       </c>
       <c r="Y3">
-        <v>-4.9065287062050801E-2</v>
+        <v>-6.0135056778691201E-2</v>
       </c>
       <c r="Z3">
-        <v>-4.7008294775037901E-2</v>
+        <v>-5.6677551202111501E-2</v>
       </c>
       <c r="AA3">
-        <v>-4.8067949401014901E-2</v>
+        <v>-6.6337812437751303E-2</v>
       </c>
       <c r="AB3">
-        <v>-6.0344781605995101E-2</v>
+        <v>-6.4082981861060595E-2</v>
       </c>
       <c r="AC3">
-        <v>-5.30617707374706E-2</v>
+        <v>-5.9152556930178499E-2</v>
       </c>
       <c r="AD3">
-        <v>-6.4211586764384307E-2</v>
+        <v>-6.2743088712334902E-2</v>
       </c>
       <c r="AE3">
-        <v>-6.9973366446005894E-2</v>
+        <v>-7.4762659761100497E-2</v>
       </c>
       <c r="AF3">
-        <v>-6.4659689421043096E-2</v>
+        <v>-8.4692544520919899E-2</v>
       </c>
       <c r="AG3">
-        <v>-5.16188592356343E-2</v>
+        <v>-6.3304486102177204E-2</v>
       </c>
       <c r="AH3">
-        <v>-2.48758528671617E-2</v>
+        <v>-4.5858192178033802E-2</v>
       </c>
       <c r="AI3">
-        <v>-1.19688374973526E-2</v>
+        <v>-5.52466291940438E-2</v>
       </c>
       <c r="AJ3">
-        <v>5.70852729437919E-3</v>
+        <v>-3.7933649807264401E-2</v>
       </c>
       <c r="AK3">
-        <v>1.10442856872368E-2</v>
+        <v>-3.5843634848494302E-2</v>
       </c>
       <c r="AL3">
-        <v>1.8024778641379399E-2</v>
+        <v>-2.82569961838109E-2</v>
       </c>
       <c r="AM3">
-        <v>2.6467955419518199E-2</v>
+        <v>-2.50578482415445E-2</v>
       </c>
       <c r="AN3">
-        <v>2.2528695364709798E-2</v>
+        <v>-1.8817625460529099E-2</v>
       </c>
       <c r="AO3">
-        <v>1.7083696867863998E-2</v>
+        <v>-2.1820424470010199E-2</v>
       </c>
       <c r="AP3">
-        <v>1.10297581016288E-2</v>
+        <v>-2.9200377632887398E-2</v>
       </c>
       <c r="AQ3">
-        <v>-1.6038757898869899E-2</v>
+        <v>-4.4488998492847702E-2</v>
       </c>
       <c r="AR3">
-        <v>-2.0495430534601001E-2</v>
+        <v>-5.4070712943612598E-2</v>
       </c>
       <c r="AS3">
-        <v>-3.9614288093151498E-2</v>
+        <v>-5.8067538372132799E-2</v>
       </c>
       <c r="AT3">
-        <v>-7.2955158326290806E-2</v>
+        <v>-5.7722917761012599E-2</v>
       </c>
       <c r="AU3">
-        <v>-7.8558552702863396E-2</v>
+        <v>-7.3716062595279797E-2</v>
       </c>
       <c r="AV3">
-        <v>-0.10122451540725499</v>
+        <v>-8.3135642011114702E-2</v>
       </c>
       <c r="AW3">
-        <v>-0.117584774094263</v>
+        <v>-9.9804852486222104E-2</v>
       </c>
       <c r="AX3">
-        <v>-0.141947205960641</v>
+        <v>-0.105587116431527</v>
       </c>
       <c r="AY3">
-        <v>-0.14785386394562</v>
+        <v>-0.114079629597855</v>
       </c>
       <c r="AZ3">
-        <v>-0.16442279848087099</v>
+        <v>-0.118672178843077</v>
       </c>
       <c r="BA3">
-        <v>-0.164721312892118</v>
+        <v>-0.124903414576904</v>
       </c>
       <c r="BB3">
-        <v>-0.169136854172627</v>
+        <v>-0.109802194387639</v>
       </c>
       <c r="BC3">
-        <v>-0.17044046154201101</v>
+        <v>-0.12054839283035</v>
       </c>
       <c r="BD3">
-        <v>-0.166665482903368</v>
+        <v>-0.117063662444158</v>
       </c>
       <c r="BE3">
-        <v>-0.15358116833806201</v>
+        <v>-0.119328915824275</v>
       </c>
       <c r="BF3">
-        <v>-0.15378516683176399</v>
+        <v>-0.10482621746138</v>
       </c>
       <c r="BG3">
-        <v>-0.12844452559354899</v>
+        <v>-9.8702242846090193E-2</v>
       </c>
       <c r="BH3">
-        <v>-9.91381198470314E-2</v>
+        <v>-9.0068087083499296E-2</v>
       </c>
       <c r="BI3">
-        <v>-8.9721246204465199E-2</v>
+        <v>-7.1105732651111503E-2</v>
       </c>
       <c r="BJ3">
-        <v>-4.1325964245684001E-2</v>
+        <v>-6.0426271806904498E-2</v>
       </c>
       <c r="BK3">
-        <v>-5.5414422801606704E-3</v>
+        <v>-4.6703956919110001E-2</v>
       </c>
       <c r="BL3">
-        <v>4.0226612596925497E-2</v>
+        <v>-1.9825402806365699E-2</v>
       </c>
       <c r="BM3">
-        <v>8.6672804272781095E-2</v>
+        <v>-1.3806492938305201E-3</v>
       </c>
       <c r="BN3">
-        <v>0.10660974788602801</v>
+        <v>-9.9156045962724799E-4</v>
       </c>
       <c r="BO3">
-        <v>0.138464588769249</v>
+        <v>2.6521046902352501E-2</v>
       </c>
       <c r="BP3">
-        <v>0.157619398837712</v>
+        <v>3.0431054277263E-2</v>
       </c>
       <c r="BQ3">
-        <v>0.153197463663334</v>
+        <v>3.8371697148476699E-2</v>
       </c>
       <c r="BR3">
-        <v>0.14171684272759399</v>
+        <v>3.7057903544001E-2</v>
       </c>
       <c r="BS3">
-        <v>0.13698534203905999</v>
+        <v>3.0083182436642399E-2</v>
       </c>
       <c r="BT3">
-        <v>0.121728265354881</v>
+        <v>2.5745400583009299E-2</v>
       </c>
       <c r="BU3">
-        <v>8.0913169758546705E-2</v>
+        <v>3.0046162041791101E-3</v>
       </c>
       <c r="BV3">
-        <v>4.5411089120835302E-2</v>
-      </c>
-      <c r="BW3" s="1">
-        <v>4.9044824941895E-5</v>
+        <v>-1.33043324585031E-2</v>
+      </c>
+      <c r="BW3">
+        <v>-3.8346597164873902E-2</v>
       </c>
       <c r="BX3">
-        <v>-4.5314353581342302E-2</v>
+        <v>-5.4525953332324302E-2</v>
       </c>
       <c r="BY3">
-        <v>-9.4517188715170203E-2</v>
+        <v>-8.7980845392522503E-2</v>
       </c>
       <c r="BZ3">
-        <v>-0.15332192109940199</v>
+        <v>-0.11181586004652699</v>
       </c>
       <c r="CA3">
-        <v>-0.193203978891861</v>
+        <v>-0.132365611140912</v>
       </c>
       <c r="CB3">
-        <v>-0.22668691853154799</v>
+        <v>-0.13897418791197699</v>
       </c>
       <c r="CC3">
-        <v>-0.26543141913017698</v>
+        <v>-0.16125382764495899</v>
       </c>
       <c r="CD3">
-        <v>-0.28844497543979303</v>
+        <v>-0.179442750918965</v>
       </c>
       <c r="CE3">
-        <v>-0.30237289990069899</v>
+        <v>-0.17807027322851299</v>
       </c>
       <c r="CF3">
-        <v>-0.29312254234103902</v>
+        <v>-0.19707199782632701</v>
       </c>
       <c r="CG3">
-        <v>-0.31181945504270198</v>
+        <v>-0.18682502052255301</v>
       </c>
       <c r="CH3">
-        <v>-0.28660069314422199</v>
+        <v>-0.181072460251573</v>
       </c>
       <c r="CI3">
-        <v>-0.25409639946483997</v>
+        <v>-0.160977662824206</v>
       </c>
       <c r="CJ3">
-        <v>-0.23214681171531901</v>
+        <v>-0.15004450824701199</v>
       </c>
       <c r="CK3">
-        <v>-0.18805741102121001</v>
+        <v>-0.14034091349393599</v>
       </c>
       <c r="CL3">
-        <v>-0.148158187995338</v>
+        <v>-0.11306141138645399</v>
       </c>
       <c r="CM3">
-        <v>-8.6635766047701193E-2</v>
+        <v>-8.0777338753040898E-2</v>
       </c>
       <c r="CN3">
-        <v>-3.7835361013263603E-2</v>
+        <v>-5.8968095602467498E-2</v>
       </c>
       <c r="CO3">
-        <v>4.31928748693899E-2</v>
+        <v>-1.24858186182346E-2</v>
       </c>
       <c r="CP3">
-        <v>0.107092672967743</v>
+        <v>8.1193998782294902E-3</v>
       </c>
       <c r="CQ3">
-        <v>0.16393529730975401</v>
+        <v>4.9620002540457397E-2</v>
       </c>
       <c r="CR3">
-        <v>0.218066003333657</v>
+        <v>7.6230053659848099E-2</v>
       </c>
       <c r="CS3">
-        <v>0.252831361412033</v>
+        <v>8.7952489659043204E-2</v>
       </c>
       <c r="CT3">
-        <v>0.26711620527267499</v>
+        <v>0.104851467693531</v>
       </c>
       <c r="CU3">
-        <v>0.28730300351870702</v>
+        <v>0.10855920032844101</v>
       </c>
       <c r="CV3">
-        <v>0.27155781283043201</v>
+        <v>9.8303639456807396E-2</v>
       </c>
       <c r="CW3">
-        <v>0.26528432739076901</v>
+        <v>0.10006432752007099</v>
       </c>
       <c r="CX3">
-        <v>0.208737339433888</v>
+        <v>6.6483336978960694E-2</v>
       </c>
       <c r="CY3">
-        <v>0.16152714550068201</v>
+        <v>3.8582831279529398E-2</v>
       </c>
       <c r="CZ3">
-        <v>9.89706381939362E-2</v>
+        <v>8.8526386871282392E-3</v>
       </c>
       <c r="DA3">
-        <v>4.3634887115856003E-2</v>
+        <v>-2.1310047074142E-2</v>
       </c>
       <c r="DB3">
-        <v>-4.1042172111823899E-2</v>
+        <v>-5.1901120147692603E-2</v>
       </c>
       <c r="DC3">
-        <v>-9.9046858248670003E-2</v>
+        <v>-9.8551304106888296E-2</v>
       </c>
       <c r="DD3">
-        <v>-0.17981720361259301</v>
+        <v>-0.13187115754376599</v>
       </c>
       <c r="DE3">
-        <v>-0.243861283177989</v>
+        <v>-0.164176733367011</v>
       </c>
       <c r="DF3">
-        <v>-0.30631398740863502</v>
+        <v>-0.19132751688722499</v>
       </c>
       <c r="DG3">
-        <v>-0.35314539821315799</v>
+        <v>-0.219438485276374</v>
       </c>
       <c r="DH3">
-        <v>-0.38238921180245999</v>
+        <v>-0.23069224874790101</v>
       </c>
       <c r="DI3">
-        <v>-0.41452787452978801</v>
+        <v>-0.23922573841328701</v>
       </c>
       <c r="DJ3">
-        <v>-0.44194305982439902</v>
+        <v>-0.241508164070147</v>
       </c>
       <c r="DK3">
-        <v>-0.41789019451674297</v>
+        <v>-0.24985902621165901</v>
       </c>
       <c r="DL3">
-        <v>-0.39364793387783098</v>
+        <v>-0.23465077774427601</v>
       </c>
       <c r="DM3">
-        <v>-0.34854600857446699</v>
+        <v>-0.21865750841877299</v>
       </c>
       <c r="DN3">
-        <v>-0.307738120488805</v>
+        <v>-0.19912770233868499</v>
       </c>
       <c r="DO3">
-        <v>-0.24766756431405099</v>
+        <v>-0.16749850724023599</v>
       </c>
       <c r="DP3">
-        <v>-0.19372483830465201</v>
+        <v>-0.134014357513732</v>
       </c>
       <c r="DQ3">
-        <v>-0.10836306837984599</v>
+        <v>-8.9998982626066107E-2</v>
       </c>
       <c r="DR3">
-        <v>-3.45017054046E-2</v>
+        <v>-5.4222255471880497E-2</v>
       </c>
       <c r="DS3">
-        <v>7.7019073252338102E-2</v>
+        <v>-2.1381174135170502E-3</v>
       </c>
       <c r="DT3">
-        <v>0.15158619697016301</v>
+        <v>4.6223117467246701E-2</v>
       </c>
       <c r="DU3">
-        <v>0.22473409252531501</v>
+        <v>8.0963170731323905E-2</v>
       </c>
       <c r="DV3">
-        <v>0.30321253214224803</v>
+        <v>0.112493919242933</v>
       </c>
       <c r="DW3">
-        <v>0.35448493905602801</v>
+        <v>0.13232407589601899</v>
       </c>
       <c r="DX3">
-        <v>0.37322033348594003</v>
+        <v>0.14206894016224</v>
       </c>
       <c r="DY3">
-        <v>0.38344885860687</v>
+        <v>0.15733363072985801</v>
       </c>
       <c r="DZ3">
-        <v>0.38210939012872702</v>
+        <v>0.14118544498595001</v>
       </c>
       <c r="EA3">
-        <v>0.35873707930234</v>
+        <v>0.12932257892959301</v>
       </c>
       <c r="EB3">
-        <v>0.30170380337165198</v>
+        <v>0.116412701803408</v>
       </c>
       <c r="EC3">
-        <v>0.23644008835295699</v>
+        <v>8.8010174355893103E-2</v>
       </c>
       <c r="ED3">
-        <v>0.16254255958275499</v>
+        <v>4.1773868020181001E-2</v>
       </c>
       <c r="EE3">
-        <v>6.7654350356719198E-2</v>
+        <v>-1.2601222134648101E-3</v>
       </c>
       <c r="EF3">
-        <v>-2.65149134209825E-2</v>
+        <v>-4.2206758246751103E-2</v>
       </c>
       <c r="EG3">
-        <v>-0.11690600726108399</v>
+        <v>-9.08321770040878E-2</v>
       </c>
       <c r="EH3">
-        <v>-0.21356183525396999</v>
+        <v>-0.14615967777108099</v>
       </c>
       <c r="EI3">
-        <v>-0.29879809672289898</v>
+        <v>-0.18735301336067101</v>
       </c>
       <c r="EJ3">
-        <v>-0.389430321927351</v>
+        <v>-0.22591233524129301</v>
       </c>
       <c r="EK3">
-        <v>-0.44846503860293502</v>
+        <v>-0.27342804422085898</v>
       </c>
       <c r="EL3">
-        <v>-0.49577495248696901</v>
+        <v>-0.28929210761735002</v>
       </c>
       <c r="EM3">
-        <v>-0.52847565909695005</v>
+        <v>-0.298482520041495</v>
       </c>
       <c r="EN3">
-        <v>-0.53901083061723998</v>
+        <v>-0.29757583080384598</v>
       </c>
       <c r="EO3">
-        <v>-0.52966287124233202</v>
+        <v>-0.28670264444159999</v>
       </c>
       <c r="EP3">
-        <v>-0.49779061090783999</v>
+        <v>-0.29169550412144202</v>
       </c>
       <c r="EQ3">
-        <v>-0.45414910946541398</v>
+        <v>-0.26275463041618902</v>
       </c>
       <c r="ER3">
-        <v>-0.38020187505847702</v>
+        <v>-0.243084007999569</v>
       </c>
       <c r="ES3">
-        <v>-0.30259999541117699</v>
+        <v>-0.19643960163556101</v>
       </c>
       <c r="ET3">
-        <v>-0.22103575029977801</v>
+        <v>-0.15015285322695601</v>
       </c>
       <c r="EU3">
-        <v>-0.121144226901408</v>
+        <v>-9.8846674943992005E-2</v>
       </c>
       <c r="EV3">
-        <v>-2.0076515125888199E-2</v>
+        <v>-4.6739479361520397E-2</v>
       </c>
       <c r="EW3">
-        <v>0.101412965416812</v>
+        <v>9.2465710983969003E-3</v>
       </c>
       <c r="EX3">
-        <v>0.21348797243701301</v>
+        <v>6.9054027414713198E-2</v>
       </c>
       <c r="EY3">
-        <v>0.30168529069571298</v>
+        <v>0.117590858160039</v>
       </c>
       <c r="EZ3">
-        <v>0.386034041693471</v>
+        <v>0.15198296838234901</v>
       </c>
       <c r="FA3">
-        <v>0.44348585037911997</v>
+        <v>0.18266862347890001</v>
       </c>
       <c r="FB3">
-        <v>0.47080773239109203</v>
+        <v>0.21221831366688701</v>
       </c>
       <c r="FC3">
-        <v>0.48415922339439499</v>
+        <v>0.208310640843926</v>
       </c>
       <c r="FD3">
-        <v>0.480853495666626</v>
+        <v>0.20492266403856699</v>
       </c>
       <c r="FE3">
-        <v>0.44033974776735801</v>
+        <v>0.189137793024659</v>
       </c>
       <c r="FF3">
-        <v>0.38190373897739399</v>
+        <v>0.14053456260206301</v>
       </c>
       <c r="FG3">
-        <v>0.28774074644775599</v>
+        <v>0.113239072283101</v>
       </c>
       <c r="FH3">
-        <v>0.20470057516434101</v>
+        <v>6.8464028709915095E-2</v>
       </c>
       <c r="FI3">
-        <v>0.104714181611494</v>
+        <v>1.4441273206698401E-2</v>
       </c>
       <c r="FJ3">
-        <v>-1.18215936292685E-2</v>
+        <v>-4.6128462937009201E-2</v>
       </c>
       <c r="FK3">
-        <v>-0.132217910827128</v>
+        <v>-0.10585085220149</v>
       </c>
       <c r="FL3">
-        <v>-0.246847970314757</v>
+        <v>-0.157275126919554</v>
       </c>
       <c r="FM3">
-        <v>-0.35759271913206297</v>
+        <v>-0.214716386607856</v>
       </c>
       <c r="FN3">
-        <v>-0.44902170770672201</v>
+        <v>-0.26271594377327701</v>
       </c>
       <c r="FO3">
-        <v>-0.54099010821716198</v>
+        <v>-0.31444566496582799</v>
       </c>
       <c r="FP3">
-        <v>-0.58623121136260403</v>
+        <v>-0.32884696524331503</v>
       </c>
       <c r="FQ3">
-        <v>-0.62422327836176394</v>
+        <v>-0.34909562210254103</v>
       </c>
       <c r="FR3">
-        <v>-0.64567000180562195</v>
+        <v>-0.3630400776587</v>
       </c>
       <c r="FS3">
-        <v>-0.63208139238101801</v>
+        <v>-0.35590102878910401</v>
       </c>
       <c r="FT3">
-        <v>-0.58354451774245097</v>
+        <v>-0.33932929055930899</v>
       </c>
       <c r="FU3">
-        <v>-0.52729112196593098</v>
+        <v>-0.30167251187121402</v>
       </c>
       <c r="FV3">
-        <v>-0.44774391792870799</v>
+        <v>-0.262088016292151</v>
       </c>
       <c r="FW3">
-        <v>-0.36217384949800302</v>
+        <v>-0.207906351616649</v>
       </c>
       <c r="FX3">
-        <v>-0.25870943164473897</v>
+        <v>-0.167630636296552</v>
       </c>
       <c r="FY3">
-        <v>-0.13663886356869301</v>
+        <v>-0.10731065339948199</v>
       </c>
       <c r="FZ3">
-        <v>-7.6818721432651898E-3</v>
+        <v>-3.3489141886406601E-2</v>
       </c>
       <c r="GA3">
-        <v>0.130058306110376</v>
+        <v>2.80123174486125E-2</v>
       </c>
       <c r="GB3">
-        <v>0.25351583834408498</v>
+        <v>9.01235916389274E-2</v>
       </c>
       <c r="GC3">
-        <v>0.36531890863511202</v>
+        <v>0.13876170663711199</v>
       </c>
       <c r="GD3">
-        <v>0.45871307538815298</v>
+        <v>0.192075794238973</v>
       </c>
       <c r="GE3">
-        <v>0.509565908102106</v>
+        <v>0.22396467572847001</v>
       </c>
       <c r="GF3">
-        <v>0.55603034559123599</v>
+        <v>0.23797287157197999</v>
       </c>
       <c r="GG3">
-        <v>0.56165515625002704</v>
+        <v>0.24198409538187801</v>
       </c>
       <c r="GH3">
-        <v>0.55617342953737403</v>
+        <v>0.242992147098987</v>
       </c>
       <c r="GI3">
-        <v>0.51434603029961701</v>
+        <v>0.227497668769884</v>
       </c>
       <c r="GJ3">
-        <v>0.45339384465511001</v>
+        <v>0.17972881669762</v>
       </c>
       <c r="GK3">
-        <v>0.35204532469488398</v>
+        <v>0.147241612254573</v>
       </c>
       <c r="GL3">
-        <v>0.246794101497395</v>
+        <v>9.3743597676817697E-2</v>
       </c>
       <c r="GM3">
-        <v>0.13298594972661201</v>
+        <v>2.73770467977895E-2</v>
       </c>
       <c r="GN3">
-        <v>-1.2580679483685299E-2</v>
+        <v>-4.3069207036339097E-2</v>
       </c>
       <c r="GO3">
-        <v>-0.138564881819669</v>
+        <v>-0.113806524896717</v>
       </c>
       <c r="GP3">
-        <v>-0.27255574383176501</v>
+        <v>-0.17627986171257601</v>
       </c>
       <c r="GQ3">
-        <v>-0.38539140890649798</v>
+        <v>-0.23882342986687599</v>
       </c>
       <c r="GR3">
-        <v>-0.49884306427250602</v>
+        <v>-0.28650497125352797</v>
       </c>
       <c r="GS3">
-        <v>-0.59510655739080298</v>
+        <v>-0.33326762140688398</v>
       </c>
       <c r="GT3">
-        <v>-0.66095731842337402</v>
+        <v>-0.36896970742810697</v>
       </c>
       <c r="GU3">
-        <v>-0.70340881636466601</v>
+        <v>-0.39297648031679899</v>
       </c>
       <c r="GV3">
-        <v>-0.71401803362248295</v>
+        <v>-0.39672499355526603</v>
       </c>
       <c r="GW3">
-        <v>-0.70627769833529097</v>
+        <v>-0.381127288434428</v>
       </c>
       <c r="GX3">
-        <v>-0.67370525771843803</v>
+        <v>-0.35914904214400101</v>
       </c>
       <c r="GY3">
-        <v>-0.59357240225547203</v>
+        <v>-0.32984368271803499</v>
       </c>
       <c r="GZ3">
-        <v>-0.49973593589214599</v>
+        <v>-0.277110836920819</v>
       </c>
       <c r="HA3">
-        <v>-0.39317532562284901</v>
+        <v>-0.236222311990189</v>
       </c>
       <c r="HB3">
-        <v>-0.26573810870926301</v>
+        <v>-0.165297038121163</v>
       </c>
       <c r="HC3">
-        <v>-0.139791493641054</v>
+        <v>-9.8414267561442406E-2</v>
       </c>
       <c r="HD3">
-        <v>-1.9240943995015101E-3</v>
+        <v>-3.6110871573285998E-2</v>
       </c>
       <c r="HE3">
-        <v>0.138353732930799</v>
+        <v>3.2379269188859298E-2</v>
       </c>
       <c r="HF3">
-        <v>0.287612902566803</v>
+        <v>0.10120198180555399</v>
       </c>
       <c r="HG3">
-        <v>0.40373203212244102</v>
+        <v>0.15756325050151199</v>
       </c>
       <c r="HH3">
-        <v>0.49931110341495599</v>
+        <v>0.22007133340641499</v>
       </c>
       <c r="HI3">
-        <v>0.58277878565797903</v>
+        <v>0.25132897326514497</v>
       </c>
       <c r="HJ3">
-        <v>0.61037814977165195</v>
+        <v>0.26521828244101497</v>
       </c>
       <c r="HK3">
-        <v>0.64168517653931101</v>
+        <v>0.27736072689829799</v>
       </c>
       <c r="HL3">
-        <v>0.613321220023747</v>
+        <v>0.27590761606743403</v>
       </c>
       <c r="HM3">
-        <v>0.57419465442517303</v>
+        <v>0.25147120172861598</v>
       </c>
       <c r="HN3">
-        <v>0.48572278465525398</v>
+        <v>0.213108344354733</v>
       </c>
       <c r="HO3">
-        <v>0.39386509618336102</v>
+        <v>0.169948862575096</v>
       </c>
       <c r="HP3">
-        <v>0.28561870759306801</v>
+        <v>0.110652280624551</v>
       </c>
       <c r="HQ3">
-        <v>0.14321952267365001</v>
+        <v>3.6356109995389602E-2</v>
       </c>
       <c r="HR3">
-        <v>-1.54818873859981E-3</v>
+        <v>-3.2022899057130398E-2</v>
       </c>
       <c r="HS3">
-        <v>-0.15289519339035701</v>
+        <v>-0.112345035136306</v>
       </c>
       <c r="HT3">
-        <v>-0.29460959319689201</v>
+        <v>-0.180119154210239</v>
       </c>
       <c r="HU3">
-        <v>-0.42625664719073297</v>
+        <v>-0.25832932120301499</v>
       </c>
       <c r="HV3">
-        <v>-0.55506944917522505</v>
+        <v>-0.31388967344447999</v>
       </c>
       <c r="HW3">
-        <v>-0.64297065216514304</v>
+        <v>-0.35780064578297099</v>
       </c>
       <c r="HX3">
-        <v>-0.71570869822828698</v>
+        <v>-0.40814015842011597</v>
       </c>
       <c r="HY3">
-        <v>-0.76773601101479805</v>
+        <v>-0.410730956678376</v>
       </c>
       <c r="HZ3">
-        <v>-0.784897230925242</v>
+        <v>-0.43314145267451898</v>
       </c>
       <c r="IA3">
-        <v>-0.76626276809473404</v>
+        <v>-0.421150605731134</v>
       </c>
       <c r="IB3">
-        <v>-0.72277000617823595</v>
+        <v>-0.40353267888738498</v>
       </c>
       <c r="IC3">
-        <v>-0.65083207498857198</v>
+        <v>-0.360204839883491</v>
       </c>
       <c r="ID3">
-        <v>-0.53867739958522498</v>
+        <v>-0.31919390152166099</v>
       </c>
       <c r="IE3">
-        <v>-0.42498405659292798</v>
+        <v>-0.24672179782859499</v>
       </c>
       <c r="IF3">
-        <v>-0.29208109385211301</v>
+        <v>-0.18212022170369699</v>
       </c>
       <c r="IG3">
-        <v>-0.13606056510466599</v>
+        <v>-0.10768951805017001</v>
       </c>
       <c r="IH3">
-        <v>3.72517687434686E-4</v>
+        <v>-3.7475202341985703E-2</v>
       </c>
       <c r="II3">
-        <v>0.15768401946931099</v>
+        <v>4.5897181806159301E-2</v>
       </c>
       <c r="IJ3">
-        <v>0.302148370178484</v>
+        <v>0.11905857223722099</v>
       </c>
       <c r="IK3">
-        <v>0.41331011860288702</v>
+        <v>0.16914704343774301</v>
       </c>
       <c r="IL3">
-        <v>0.51698532584637702</v>
+        <v>0.23805132796022299</v>
       </c>
       <c r="IM3">
-        <v>0.60839504643185105</v>
+        <v>0.25964450246854798</v>
       </c>
       <c r="IN3">
-        <v>0.65016956593650799</v>
+        <v>0.27512311621893898</v>
       </c>
       <c r="IO3">
-        <v>0.66311186036446601</v>
+        <v>0.29593820031475399</v>
       </c>
       <c r="IP3">
-        <v>0.65258329982502805</v>
+        <v>0.28327099834288799</v>
       </c>
       <c r="IQ3">
-        <v>0.60561543172433796</v>
+        <v>0.26367517453447598</v>
       </c>
       <c r="IR3">
-        <v>0.52632438407529103</v>
+        <v>0.22793138780435901</v>
       </c>
       <c r="IS3">
-        <v>0.42547099438706698</v>
+        <v>0.18009751625464601</v>
       </c>
       <c r="IT3">
-        <v>0.29587535299464202</v>
+        <v>0.118031097661388</v>
       </c>
       <c r="IU3">
-        <v>0.16109549214806701</v>
+        <v>4.61709981980572E-2</v>
       </c>
       <c r="IV3">
-        <v>3.26843802633448E-3</v>
+        <v>-3.8848408627101198E-2</v>
       </c>
       <c r="IW3">
-        <v>-0.157786926091498</v>
+        <v>-0.103798249124317</v>
       </c>
       <c r="IX3">
-        <v>-0.298810875729702</v>
+        <v>-0.19560940491415499</v>
       </c>
       <c r="IY3">
-        <v>-0.44125711085375202</v>
+        <v>-0.26046776593656501</v>
       </c>
       <c r="IZ3">
-        <v>-0.56754622880330696</v>
+        <v>-0.32561511834486601</v>
       </c>
       <c r="JA3">
-        <v>-0.67746023033092395</v>
+        <v>-0.37910158069941702</v>
       </c>
       <c r="JB3">
-        <v>-0.760563403663985</v>
+        <v>-0.41160996535733102</v>
       </c>
       <c r="JC3">
-        <v>-0.80140038030308802</v>
+        <v>-0.43201016831351802</v>
       </c>
       <c r="JD3">
-        <v>-0.82041761998310103</v>
+        <v>-0.44248780516018899</v>
       </c>
       <c r="JE3">
-        <v>-0.80088980180670299</v>
+        <v>-0.44436073537519399</v>
       </c>
       <c r="JF3">
-        <v>-0.76422430057535196</v>
+        <v>-0.417214878432974</v>
       </c>
       <c r="JG3">
-        <v>-0.68724930117828997</v>
+        <v>-0.37808309411646002</v>
       </c>
       <c r="JH3">
-        <v>-0.56542668914565397</v>
+        <v>-0.31842534581683102</v>
       </c>
       <c r="JI3">
-        <v>-0.44536937142459199</v>
+        <v>-0.26416871173224898</v>
       </c>
       <c r="JJ3">
-        <v>-0.303304603637366</v>
+        <v>-0.18680510392125299</v>
       </c>
       <c r="JK3">
-        <v>-0.149136714991985</v>
+        <v>-0.114588186279585</v>
       </c>
       <c r="JL3">
-        <v>1.21501313883314E-2</v>
+        <v>-3.0085641283652299E-2</v>
       </c>
       <c r="JM3">
-        <v>0.15779500966944801</v>
+        <v>4.9734205148505198E-2</v>
       </c>
       <c r="JN3">
-        <v>0.29843672990678999</v>
+        <v>0.11531150393338201</v>
       </c>
       <c r="JO3">
-        <v>0.434958392040102</v>
+        <v>0.17860567012578399</v>
       </c>
       <c r="JP3">
-        <v>0.55054496295944999</v>
+        <v>0.24019380474201399</v>
       </c>
       <c r="JQ3">
-        <v>0.62003045186892503</v>
+        <v>0.269044563506871</v>
       </c>
       <c r="JR3">
-        <v>0.68714337245922297</v>
+        <v>0.290046533222929</v>
       </c>
       <c r="JS3">
-        <v>0.68357430108453898</v>
+        <v>0.29772017957966002</v>
       </c>
       <c r="JT3">
-        <v>0.67074994159613899</v>
+        <v>0.29226189857788798</v>
       </c>
       <c r="JU3">
-        <v>0.62803717109059698</v>
+        <v>0.270335027971285</v>
       </c>
       <c r="JV3">
-        <v>0.54801655446122299</v>
+        <v>0.23650737028992899</v>
       </c>
       <c r="JW3">
-        <v>0.43386093817140098</v>
+        <v>0.174008959087079</v>
       </c>
       <c r="JX3">
-        <v>0.30104892885163098</v>
+        <v>0.11933165264142399</v>
       </c>
       <c r="JY3">
-        <v>0.158615289049686</v>
+        <v>5.2433838430065299E-2</v>
       </c>
       <c r="JZ3">
-        <v>-4.6778471969268296E-3</v>
+        <v>-3.27789394181272E-2</v>
       </c>
       <c r="KA3">
-        <v>-0.156888078176767</v>
+        <v>-0.130035963414452</v>
       </c>
       <c r="KB3">
-        <v>-0.31855776898615601</v>
+        <v>-0.19346755138282501</v>
       </c>
       <c r="KC3">
-        <v>-0.45822497423000202</v>
+        <v>-0.26190315144342302</v>
       </c>
       <c r="KD3">
-        <v>-0.59534956547137496</v>
+        <v>-0.33234689981828203</v>
       </c>
       <c r="KE3">
-        <v>-0.69750841572307798</v>
+        <v>-0.37937849582622402</v>
       </c>
       <c r="KF3">
-        <v>-0.77147017283499897</v>
+        <v>-0.42375853512026701</v>
       </c>
       <c r="KG3">
-        <v>-0.81767269907294005</v>
+        <v>-0.44644604729335502</v>
       </c>
       <c r="KH3">
-        <v>-0.82493293307148097</v>
+        <v>-0.45754398018388498</v>
       </c>
       <c r="KI3">
-        <v>-0.80597154454315201</v>
+        <v>-0.44998596189351497</v>
       </c>
       <c r="KJ3">
-        <v>-0.75915395442994305</v>
+        <v>-0.43090908970237402</v>
       </c>
       <c r="KK3">
-        <v>-0.67902780101361104</v>
+        <v>-0.37632792593626102</v>
       </c>
       <c r="KL3">
-        <v>-0.58169714856132304</v>
+        <v>-0.33281826055979202</v>
       </c>
       <c r="KM3">
-        <v>-0.457770967389379</v>
+        <v>-0.26876385454248197</v>
       </c>
       <c r="KN3">
-        <v>-0.310146461041933</v>
+        <v>-0.191851834854178</v>
       </c>
       <c r="KO3">
-        <v>-0.15241073587808901</v>
+        <v>-0.107153346201443</v>
       </c>
       <c r="KP3">
-        <v>4.5165135945743904E-3</v>
+        <v>-3.6100711106095203E-2</v>
       </c>
       <c r="KQ3">
-        <v>0.15995780183988001</v>
+        <v>3.07433188181763E-2</v>
       </c>
       <c r="KR3">
-        <v>0.30650486347137901</v>
+        <v>0.105531163413274</v>
       </c>
       <c r="KS3">
-        <v>0.43773314926526902</v>
+        <v>0.17600026018034901</v>
       </c>
       <c r="KT3">
-        <v>0.53746254593468101</v>
+        <v>0.233997586397028</v>
       </c>
       <c r="KU3">
-        <v>0.61343779431310697</v>
+        <v>0.27495225529030198</v>
       </c>
       <c r="KV3">
-        <v>0.65544646441319099</v>
+        <v>0.29701619619312603</v>
       </c>
       <c r="KW3">
-        <v>0.67704655478135101</v>
+        <v>0.301765322774184</v>
       </c>
       <c r="KX3">
-        <v>0.67589704267797301</v>
+        <v>0.28418438473873098</v>
       </c>
       <c r="KY3">
-        <v>0.61170692366839197</v>
+        <v>0.27567550826221099</v>
       </c>
       <c r="KZ3">
-        <v>0.53980539526299398</v>
+        <v>0.228486926716819</v>
       </c>
       <c r="LA3">
-        <v>0.43328636002868298</v>
+        <v>0.173115039319233</v>
       </c>
       <c r="LB3">
-        <v>0.31106335628257997</v>
+        <v>0.117789022141722</v>
       </c>
       <c r="LC3">
-        <v>0.14736026978233299</v>
+        <v>4.6429495261231198E-2</v>
       </c>
       <c r="LD3">
-        <v>4.5158353222914498E-3</v>
+        <v>-3.8135398060399499E-2</v>
       </c>
       <c r="LE3">
-        <v>-0.15959346702273899</v>
+        <v>-0.11722430696152</v>
       </c>
       <c r="LF3">
-        <v>-0.306204471861515</v>
+        <v>-0.186346522836007</v>
       </c>
       <c r="LG3">
-        <v>-0.46027791176847899</v>
+        <v>-0.27792359413004403</v>
       </c>
       <c r="LH3">
-        <v>-0.58553389372706599</v>
+        <v>-0.32267482039891299</v>
       </c>
       <c r="LI3">
-        <v>-0.67463959810173701</v>
+        <v>-0.38269517474626502</v>
       </c>
       <c r="LJ3">
-        <v>-0.76681196693752696</v>
+        <v>-0.41557575250947998</v>
       </c>
       <c r="LK3">
-        <v>-0.81605599548617902</v>
+        <v>-0.44942640642242998</v>
       </c>
       <c r="LL3">
-        <v>-0.83145524022475503</v>
+        <v>-0.45865846993045001</v>
       </c>
       <c r="LM3">
-        <v>-0.80782712776590704</v>
+        <v>-0.43507341963879598</v>
       </c>
       <c r="LN3">
-        <v>-0.75404000114147596</v>
+        <v>-0.41561278169623</v>
       </c>
       <c r="LO3">
-        <v>-0.69652422680901005</v>
+        <v>-0.36691522583602298</v>
       </c>
       <c r="LP3">
-        <v>-0.58228562997578803</v>
+        <v>-0.32614070971821302</v>
       </c>
       <c r="LQ3">
-        <v>-0.45405207594112801</v>
+        <v>-0.26636178973096503</v>
       </c>
       <c r="LR3">
-        <v>-0.31253207486235302</v>
+        <v>-0.18630012651869299</v>
       </c>
       <c r="LS3">
-        <v>-0.15429776391654701</v>
+        <v>-0.109492550394133</v>
       </c>
       <c r="LT3">
-        <v>-2.20405776606869E-3</v>
+        <v>-4.1841410271951499E-2</v>
       </c>
       <c r="LU3">
-        <v>0.14814757111253099</v>
+        <v>3.6197567093716097E-2</v>
       </c>
       <c r="LV3">
-        <v>0.283973588586591</v>
+        <v>0.109594301078638</v>
       </c>
       <c r="LW3">
-        <v>0.41753400148075598</v>
+        <v>0.179715176163289</v>
       </c>
       <c r="LX3">
-        <v>0.51936702106169497</v>
+        <v>0.223185976568437</v>
       </c>
       <c r="LY3">
-        <v>0.593407096124828</v>
+        <v>0.254646741325119</v>
       </c>
       <c r="LZ3">
-        <v>0.63484414108472298</v>
+        <v>0.286974704077328</v>
       </c>
       <c r="MA3">
-        <v>0.65658887642045305</v>
+        <v>0.287836755014718</v>
       </c>
       <c r="MB3">
-        <v>0.63968245859850004</v>
+        <v>0.26514581578626101</v>
       </c>
       <c r="MC3">
-        <v>0.59079871045559096</v>
+        <v>0.26253432355005402</v>
       </c>
       <c r="MD3">
-        <v>0.498920229451707</v>
+        <v>0.21918071888763799</v>
       </c>
       <c r="ME3">
-        <v>0.41870496541831598</v>
+        <v>0.16063128600631399</v>
       </c>
       <c r="MF3">
-        <v>0.29440509386428099</v>
+        <v>0.113399588759582</v>
       </c>
       <c r="MG3">
-        <v>0.150975654134203</v>
+        <v>4.1723384984447102E-2</v>
       </c>
       <c r="MH3">
-        <v>3.4096709474901901E-3</v>
+        <v>-4.7831475990086803E-2</v>
       </c>
       <c r="MI3">
-        <v>-0.144389554000249</v>
+        <v>-0.116812644168046</v>
       </c>
       <c r="MJ3">
-        <v>-0.304572338874319</v>
+        <v>-0.18338454803717699</v>
       </c>
       <c r="MK3">
-        <v>-0.42959423935764102</v>
+        <v>-0.25432606898444599</v>
       </c>
       <c r="ML3">
-        <v>-0.55309996433940201</v>
+        <v>-0.32224421094373901</v>
       </c>
       <c r="MM3">
-        <v>-0.65325684883099699</v>
+        <v>-0.36965393187171097</v>
       </c>
       <c r="MN3">
-        <v>-0.74040471481242698</v>
+        <v>-0.40799833656975598</v>
       </c>
       <c r="MO3">
-        <v>-0.78761424611894504</v>
+        <v>-0.42949914450936499</v>
       </c>
       <c r="MP3">
-        <v>-0.80302019443994799</v>
+        <v>-0.442195398983179</v>
       </c>
       <c r="MQ3">
-        <v>-0.77364305144857004</v>
+        <v>-0.43597829355666001</v>
       </c>
       <c r="MR3">
-        <v>-0.73231165486895999</v>
+        <v>-0.40171003779672898</v>
       </c>
       <c r="MS3">
-        <v>-0.66630682353913395</v>
+        <v>-0.37031969020938699</v>
       </c>
       <c r="MT3">
-        <v>-0.55653565956997098</v>
+        <v>-0.31525242267293402</v>
       </c>
       <c r="MU3">
-        <v>-0.43789808210587</v>
+        <v>-0.25869821290378697</v>
       </c>
       <c r="MV3">
-        <v>-0.29617557759709701</v>
+        <v>-0.17527690426058901</v>
       </c>
       <c r="MW3">
-        <v>-0.14448787671565599</v>
+        <v>-0.10801412907729099</v>
       </c>
       <c r="MX3">
-        <v>-5.7380540535186299E-3</v>
+        <v>-4.2691212547415099E-2</v>
       </c>
       <c r="MY3">
-        <v>0.124791337949767</v>
+        <v>2.6994949778212599E-2</v>
       </c>
       <c r="MZ3">
-        <v>0.26389300921140302</v>
+        <v>9.6493825433921598E-2</v>
       </c>
       <c r="NA3">
-        <v>0.37277220294663699</v>
+        <v>0.15494301205256</v>
       </c>
       <c r="NB3">
-        <v>0.48646224544537803</v>
+        <v>0.19668817755159801</v>
       </c>
       <c r="NC3">
-        <v>0.55601667343950201</v>
+        <v>0.24130707195628001</v>
       </c>
       <c r="ND3">
-        <v>0.59288384204931699</v>
+        <v>0.25439772355485502</v>
       </c>
       <c r="NE3">
-        <v>0.61291481385115498</v>
+        <v>0.266215703947355</v>
       </c>
       <c r="NF3">
-        <v>0.59032135068439795</v>
+        <v>0.256476945003484</v>
       </c>
       <c r="NG3">
-        <v>0.55342991805790698</v>
+        <v>0.22929744224781901</v>
       </c>
       <c r="NH3">
-        <v>0.47557584535374903</v>
+        <v>0.19406937425594101</v>
       </c>
       <c r="NI3">
-        <v>0.36804281371076403</v>
+        <v>0.15190732410534999</v>
       </c>
       <c r="NJ3">
-        <v>0.25940591248761402</v>
+        <v>9.7047473208725296E-2</v>
       </c>
       <c r="NK3">
-        <v>0.14260617404376899</v>
+        <v>3.4335989268860702E-2</v>
       </c>
       <c r="NL3">
-        <v>-6.17932594999038E-3</v>
+        <v>-4.2975783290522498E-2</v>
       </c>
       <c r="NM3">
-        <v>-0.14856240064686699</v>
+        <v>-0.104466636675761</v>
       </c>
       <c r="NN3">
-        <v>-0.28609396597627901</v>
+        <v>-0.17661083336226399</v>
       </c>
       <c r="NO3">
-        <v>-0.406569314442977</v>
+        <v>-0.23496149066618899</v>
       </c>
       <c r="NP3">
-        <v>-0.530725602719751</v>
+        <v>-0.30203501618028</v>
       </c>
       <c r="NQ3">
-        <v>-0.623680461791844</v>
+        <v>-0.34712509603173602</v>
       </c>
       <c r="NR3">
-        <v>-0.688863656840217</v>
+        <v>-0.37818303358456601</v>
       </c>
       <c r="NS3">
-        <v>-0.73602886690902902</v>
+        <v>-0.40749842961009503</v>
       </c>
       <c r="NT3">
-        <v>-0.74794827909719197</v>
+        <v>-0.41057907462661197</v>
       </c>
       <c r="NU3">
-        <v>-0.73231033162843795</v>
+        <v>-0.40753784221441702</v>
       </c>
       <c r="NV3">
-        <v>-0.68630016383311798</v>
+        <v>-0.38348021007944699</v>
       </c>
       <c r="NW3">
-        <v>-0.63099592936186699</v>
+        <v>-0.34480439730596701</v>
       </c>
       <c r="NX3">
-        <v>-0.53008586065613394</v>
+        <v>-0.29688197921842802</v>
       </c>
       <c r="NY3">
-        <v>-0.41400668972530202</v>
+        <v>-0.246657694959627</v>
       </c>
       <c r="NZ3">
-        <v>-0.28101301272817403</v>
+        <v>-0.173162038322411</v>
       </c>
       <c r="OA3">
-        <v>-0.143173919084671</v>
+        <v>-0.11600641339114499</v>
       </c>
       <c r="OB3">
-        <v>-1.2774926497852E-2</v>
+        <v>-5.1611967974118801E-2</v>
       </c>
       <c r="OC3">
-        <v>0.118305020274377</v>
+        <v>7.4035062202172401E-3</v>
       </c>
       <c r="OD3">
-        <v>0.23002657379758201</v>
+        <v>7.0910057257473597E-2</v>
       </c>
       <c r="OE3">
-        <v>0.327074552513761</v>
+        <v>0.12278397047989</v>
       </c>
       <c r="OF3">
-        <v>0.41575268842197399</v>
+        <v>0.16880639542994899</v>
       </c>
       <c r="OG3">
-        <v>0.48027972420646797</v>
+        <v>0.20064093556297</v>
       </c>
       <c r="OH3">
-        <v>0.52576982908242997</v>
+        <v>0.21986374361057001</v>
       </c>
       <c r="OI3">
-        <v>0.53525651441915101</v>
+        <v>0.215785013114731</v>
       </c>
       <c r="OJ3">
-        <v>0.51465514725596195</v>
+        <v>0.204534799220532</v>
       </c>
       <c r="OK3">
-        <v>0.47579580067244398</v>
+        <v>0.19985501429309299</v>
       </c>
       <c r="OL3">
-        <v>0.43079103454370399</v>
+        <v>0.16787021652009301</v>
       </c>
       <c r="OM3">
-        <v>0.328057291675594</v>
+        <v>0.12549376699689699</v>
       </c>
       <c r="ON3">
-        <v>0.23599722732751699</v>
+        <v>7.8298888188327101E-2</v>
       </c>
       <c r="OO3">
-        <v>0.107658235382649</v>
+        <v>9.9068620753585794E-3</v>
       </c>
       <c r="OP3">
-        <v>-7.3043811662665296E-3</v>
+        <v>-4.2196921125965597E-2</v>
       </c>
       <c r="OQ3">
-        <v>-0.13074743520582899</v>
+        <v>-0.101343999623026</v>
       </c>
       <c r="OR3">
-        <v>-0.26655723865536302</v>
+        <v>-0.16887244715338701</v>
       </c>
       <c r="OS3">
-        <v>-0.38873030502043499</v>
+        <v>-0.22967495190362799</v>
       </c>
       <c r="OT3">
-        <v>-0.47493462994213498</v>
+        <v>-0.27520774531460701</v>
       </c>
       <c r="OU3">
-        <v>-0.56387774513151601</v>
+        <v>-0.31126571820347698</v>
       </c>
       <c r="OV3">
-        <v>-0.62922977007176595</v>
+        <v>-0.34476866717425297</v>
       </c>
       <c r="OW3">
-        <v>-0.66654130285099999</v>
+        <v>-0.36995985826175698</v>
       </c>
       <c r="OX3">
-        <v>-0.66668803037162205</v>
+        <v>-0.379313622350752</v>
       </c>
       <c r="OY3">
-        <v>-0.67135679619794197</v>
+        <v>-0.374550060849698</v>
       </c>
       <c r="OZ3">
-        <v>-0.61608362660388805</v>
+        <v>-0.35706891931792201</v>
       </c>
       <c r="PA3">
-        <v>-0.56304693545100104</v>
+        <v>-0.32114817842406801</v>
       </c>
       <c r="PB3">
-        <v>-0.48019089288078598</v>
+        <v>-0.28084192775123601</v>
       </c>
       <c r="PC3">
-        <v>-0.37161078287378801</v>
+        <v>-0.219449230475108</v>
       </c>
       <c r="PD3">
-        <v>-0.261760901179664</v>
+        <v>-0.158105399559412</v>
       </c>
       <c r="PE3">
-        <v>-0.14849564584373301</v>
+        <v>-9.9572419142549606E-2</v>
       </c>
       <c r="PF3">
-        <v>-2.6907352448706599E-2</v>
+        <v>-5.22675808909146E-2</v>
       </c>
       <c r="PG3">
-        <v>9.96908174151038E-2</v>
+        <v>1.19532115474438E-2</v>
       </c>
       <c r="PH3">
-        <v>0.17837889666690299</v>
+        <v>5.4090350951542597E-2</v>
       </c>
       <c r="PI3">
-        <v>0.27273494758561301</v>
+        <v>9.5677610033391203E-2</v>
       </c>
       <c r="PJ3">
-        <v>0.34115021007034502</v>
+        <v>0.128240204151539</v>
       </c>
       <c r="PK3">
-        <v>0.39553078366336902</v>
+        <v>0.164246490390904</v>
       </c>
       <c r="PL3">
-        <v>0.42552387161913902</v>
+        <v>0.175604409869873</v>
       </c>
       <c r="PM3">
-        <v>0.44317022199360401</v>
+        <v>0.17888119767438701</v>
       </c>
       <c r="PN3">
-        <v>0.426225610452658</v>
+        <v>0.17685522124161199</v>
       </c>
       <c r="PO3">
-        <v>0.39597907889455602</v>
+        <v>0.16110245850966201</v>
       </c>
       <c r="PP3">
-        <v>0.33773733067073902</v>
+        <v>0.13114656116547499</v>
       </c>
       <c r="PQ3">
-        <v>0.27969844815202299</v>
+        <v>0.101273460290857</v>
       </c>
       <c r="PR3">
-        <v>0.18569623631742099</v>
+        <v>5.6698353567338898E-2</v>
       </c>
       <c r="PS3">
-        <v>9.0736234168718496E-2</v>
+        <v>-1.18214258295806E-3</v>
       </c>
       <c r="PT3">
-        <v>-3.0817358755663701E-2</v>
+        <v>-5.7883731310959599E-2</v>
       </c>
       <c r="PU3">
-        <v>-0.127254525722587</v>
+        <v>-0.100903922490578</v>
       </c>
       <c r="PV3">
-        <v>-0.23235255607278599</v>
+        <v>-0.14573854144780099</v>
       </c>
       <c r="PW3">
-        <v>-0.327205884994895</v>
+        <v>-0.18830765582762499</v>
       </c>
       <c r="PX3">
-        <v>-0.42065864190843799</v>
+        <v>-0.24767458187435601</v>
       </c>
       <c r="PY3">
-        <v>-0.48784657098871598</v>
+        <v>-0.29708273752919201</v>
       </c>
       <c r="PZ3">
-        <v>-0.54648706540631398</v>
+        <v>-0.31258739767615801</v>
       </c>
       <c r="QA3">
-        <v>-0.57261698147387896</v>
+        <v>-0.32877608246756801</v>
       </c>
       <c r="QB3">
-        <v>-0.58943796743625898</v>
+        <v>-0.32281965748506702</v>
       </c>
       <c r="QC3">
-        <v>-0.58694212298180604</v>
+        <v>-0.32753759055660397</v>
       </c>
       <c r="QD3">
-        <v>-0.549078126233426</v>
+        <v>-0.318789854227994</v>
       </c>
       <c r="QE3">
-        <v>-0.498579948368857</v>
+        <v>-0.28147879131896297</v>
       </c>
       <c r="QF3">
-        <v>-0.42524044223804702</v>
+        <v>-0.24441629529568801</v>
       </c>
       <c r="QG3">
-        <v>-0.33131984272284498</v>
+        <v>-0.21027504700661001</v>
       </c>
       <c r="QH3">
-        <v>-0.22576148289730699</v>
+        <v>-0.16041423192191701</v>
       </c>
       <c r="QI3">
-        <v>-0.13032540349607699</v>
+        <v>-0.10970858222784199</v>
       </c>
       <c r="QJ3">
-        <v>-2.9767324785622499E-2</v>
+        <v>-5.7932086364230702E-2</v>
       </c>
       <c r="QK3">
-        <v>5.7601288117703403E-2</v>
+        <v>-4.7024579069755504E-3</v>
       </c>
       <c r="QL3">
-        <v>0.122693230319289</v>
+        <v>2.6711157835150701E-2</v>
       </c>
       <c r="QM3">
-        <v>0.192267581676618</v>
+        <v>5.85404371263352E-2</v>
       </c>
       <c r="QN3">
-        <v>0.25694255088408702</v>
+        <v>9.5178075951753802E-2</v>
       </c>
       <c r="QO3">
-        <v>0.29282104008795401</v>
+        <v>0.11313673908311001</v>
       </c>
       <c r="QP3">
-        <v>0.32767476096971299</v>
+        <v>0.123507896548483</v>
       </c>
       <c r="QQ3">
-        <v>0.32294823147291402</v>
+        <v>0.12783029891765799</v>
       </c>
       <c r="QR3">
-        <v>0.32383945959690003</v>
+        <v>0.124933155790342</v>
       </c>
       <c r="QS3">
-        <v>0.30160359350882099</v>
+        <v>0.11951271752060801</v>
       </c>
       <c r="QT3">
-        <v>0.25293161010590998</v>
+        <v>9.3953425896761603E-2</v>
       </c>
       <c r="QU3">
-        <v>0.19508591634563099</v>
+        <v>5.5383469268939098E-2</v>
       </c>
       <c r="QV3">
-        <v>0.136188732955386</v>
+        <v>3.8192383320585901E-2</v>
       </c>
       <c r="QW3">
-        <v>5.8124840676430901E-2</v>
+        <v>-7.2377753990821901E-3</v>
       </c>
       <c r="QX3">
-        <v>-4.4076517797278697E-2</v>
+        <v>-5.7120339677761103E-2</v>
       </c>
       <c r="QY3">
-        <v>-0.114819961710472</v>
+        <v>-9.0037905790296496E-2</v>
       </c>
       <c r="QZ3">
-        <v>-0.193196822835628</v>
+        <v>-0.13430811929778999</v>
       </c>
       <c r="RA3">
-        <v>-0.27965491371101803</v>
+        <v>-0.18084639941391001</v>
       </c>
       <c r="RB3">
-        <v>-0.34083966090265599</v>
+        <v>-0.22012073907239599</v>
       </c>
       <c r="RC3">
-        <v>-0.40687821803023899</v>
+        <v>-0.24822177462977599</v>
       </c>
       <c r="RD3">
-        <v>-0.44922928559863801</v>
+        <v>-0.26172719177637099</v>
       </c>
       <c r="RE3">
-        <v>-0.47045697581381002</v>
+        <v>-0.27188592943665701</v>
       </c>
       <c r="RF3">
-        <v>-0.48355827800047102</v>
+        <v>-0.27256432652947199</v>
       </c>
       <c r="RG3">
-        <v>-0.47109815380181302</v>
+        <v>-0.27636720744384002</v>
       </c>
       <c r="RH3">
-        <v>-0.43735789704124201</v>
+        <v>-0.26495077761677099</v>
       </c>
       <c r="RI3">
-        <v>-0.408893376541695</v>
+        <v>-0.23162448033680499</v>
       </c>
       <c r="RJ3">
-        <v>-0.34853065781131698</v>
+        <v>-0.200962809435768</v>
       </c>
       <c r="RK3">
-        <v>-0.27798919197037802</v>
+        <v>-0.182078388502775</v>
       </c>
       <c r="RL3">
-        <v>-0.21134223308608699</v>
+        <v>-0.13806805485097101</v>
       </c>
       <c r="RM3">
-        <v>-0.120780141326262</v>
+        <v>-0.10079530744285101</v>
       </c>
       <c r="RN3">
-        <v>-4.8642961604201798E-2</v>
+        <v>-6.3989129160740593E-2</v>
       </c>
       <c r="RO3">
-        <v>1.08678442897868E-2</v>
+        <v>-3.3710897886839203E-2</v>
       </c>
       <c r="RP3">
-        <v>7.5443636590790203E-2</v>
+        <v>5.4682662735816802E-3</v>
       </c>
       <c r="RQ3">
-        <v>0.121685511754227</v>
+        <v>2.6253116377660202E-2</v>
       </c>
       <c r="RR3">
-        <v>0.15505757108832</v>
+        <v>4.8102763875177701E-2</v>
       </c>
       <c r="RS3">
-        <v>0.190079368631284</v>
+        <v>5.0865197714486797E-2</v>
       </c>
       <c r="RT3">
-        <v>0.205889804860344</v>
+        <v>6.6641898056523499E-2</v>
       </c>
       <c r="RU3">
-        <v>0.216015597218953</v>
+        <v>6.9156446062404897E-2</v>
       </c>
       <c r="RV3">
-        <v>0.21745526984521399</v>
+        <v>7.1929815995521507E-2</v>
       </c>
       <c r="RW3">
-        <v>0.18758016965232199</v>
+        <v>5.6493762642642401E-2</v>
       </c>
       <c r="RX3">
-        <v>0.168763540655404</v>
+        <v>4.9314851214121699E-2</v>
       </c>
       <c r="RY3">
-        <v>0.111105876409857</v>
+        <v>2.0160632043663002E-2</v>
       </c>
       <c r="RZ3">
-        <v>6.3999762595470494E-2</v>
+        <v>2.3333991044704699E-3</v>
       </c>
       <c r="SA3">
-        <v>2.6669017638361499E-2</v>
+        <v>-2.9794936138521601E-2</v>
       </c>
       <c r="SB3">
-        <v>-4.57487571061116E-2</v>
+        <v>-6.7899539564727093E-2</v>
       </c>
       <c r="SC3">
-        <v>-0.10993670902024601</v>
+        <v>-8.0925952795977196E-2</v>
       </c>
       <c r="SD3">
-        <v>-0.15842336364624701</v>
+        <v>-0.118297449671386</v>
       </c>
       <c r="SE3">
-        <v>-0.223345117467768</v>
+        <v>-0.149093145840204</v>
       </c>
       <c r="SF3">
-        <v>-0.26404435335723098</v>
+        <v>-0.16721663034228201</v>
       </c>
       <c r="SG3">
-        <v>-0.30820848187700101</v>
+        <v>-0.199234197745668</v>
       </c>
       <c r="SH3">
-        <v>-0.33572028028356099</v>
+        <v>-0.210739140956373</v>
       </c>
       <c r="SI3">
-        <v>-0.36994240459653499</v>
+        <v>-0.20413753084529301</v>
       </c>
       <c r="SJ3">
-        <v>-0.37261824142894201</v>
+        <v>-0.22143063005617999</v>
       </c>
       <c r="SK3">
-        <v>-0.35082570773313199</v>
+        <v>-0.215695931550588</v>
       </c>
       <c r="SL3">
-        <v>-0.33899875448868499</v>
+        <v>-0.209268504438581</v>
       </c>
       <c r="SM3">
-        <v>-0.30991659057813398</v>
+        <v>-0.18519505338654299</v>
       </c>
       <c r="SN3">
-        <v>-0.270631460155418</v>
+        <v>-0.17981765729058799</v>
       </c>
       <c r="SO3">
-        <v>-0.224453848297998</v>
+        <v>-0.15475129054459</v>
       </c>
       <c r="SP3">
-        <v>-0.15784978373980499</v>
+        <v>-0.116622902182313</v>
       </c>
       <c r="SQ3">
-        <v>-0.103545218813025</v>
+        <v>-8.8448681108576899E-2</v>
       </c>
       <c r="SR3">
-        <v>-4.8270135006858401E-2</v>
+        <v>-7.2171051145394197E-2</v>
       </c>
       <c r="SS3">
-        <v>-2.83307097685511E-2</v>
+        <v>-4.7263550163032103E-2</v>
       </c>
       <c r="ST3">
-        <v>1.7957449735699599E-2</v>
+        <v>-3.1784014054491903E-2</v>
       </c>
       <c r="SU3">
-        <v>4.0273569741665599E-2</v>
+        <v>-6.1445631669423397E-3</v>
       </c>
       <c r="SV3">
-        <v>6.0589062544387902E-2</v>
+        <v>-1.7178274028661601E-2</v>
       </c>
       <c r="SW3">
-        <v>7.44295283960935E-2</v>
+        <v>5.7213394733187798E-3</v>
       </c>
       <c r="SX3">
-        <v>8.6395022524483098E-2</v>
+        <v>4.3813386423372904E-3</v>
       </c>
       <c r="SY3">
-        <v>8.3181712770329805E-2</v>
+        <v>1.08491912913758E-2</v>
       </c>
       <c r="SZ3">
-        <v>8.6620134693640702E-2</v>
+        <v>3.0968349094563597E-4</v>
       </c>
       <c r="TA3">
-        <v>8.0806868584822306E-2</v>
+        <v>2.8112818101535702E-3</v>
       </c>
       <c r="TB3">
-        <v>5.1353886479930798E-2</v>
+        <v>-4.3275005129243798E-3</v>
       </c>
       <c r="TC3">
-        <v>4.01485123297768E-2</v>
+        <v>-2.6485637588975701E-2</v>
       </c>
       <c r="TD3">
-        <v>7.3507360246274703E-3</v>
+        <v>-3.2192318051166E-2</v>
       </c>
       <c r="TE3">
-        <v>-2.64523657018472E-2</v>
+        <v>-4.5110313441538201E-2</v>
       </c>
       <c r="TF3">
-        <v>-4.8258274329182498E-2</v>
+        <v>-6.8388472189334804E-2</v>
       </c>
       <c r="TG3">
-        <v>-9.2515056169871601E-2</v>
+        <v>-8.7621620604917197E-2</v>
       </c>
       <c r="TH3">
-        <v>-0.12398623331422701</v>
+        <v>-9.9106725732853299E-2</v>
       </c>
       <c r="TI3">
-        <v>-0.15485636771164599</v>
+        <v>-0.109558618717087</v>
       </c>
       <c r="TJ3">
-        <v>-0.186319102488988</v>
+        <v>-0.131059708794596</v>
       </c>
       <c r="TK3">
-        <v>-0.20248767458483699</v>
+        <v>-0.13040672047946</v>
       </c>
       <c r="TL3">
-        <v>-0.22781558173453001</v>
+        <v>-0.15298138412067799</v>
       </c>
       <c r="TM3">
-        <v>-0.232859433170237</v>
+        <v>-0.14119423275840401</v>
       </c>
       <c r="TN3">
-        <v>-0.243478487847792</v>
+        <v>-0.158704869138595</v>
       </c>
       <c r="TO3">
-        <v>-0.23032506669851699</v>
+        <v>-0.1653267391164</v>
       </c>
       <c r="TP3">
-        <v>-0.23300737404551899</v>
+        <v>-0.146380235715106</v>
       </c>
       <c r="TQ3">
-        <v>-0.20667921643079101</v>
+        <v>-0.138688221280097</v>
       </c>
       <c r="TR3">
-        <v>-0.18034096942805899</v>
+        <v>-0.134608722620496</v>
       </c>
       <c r="TS3">
-        <v>-0.15836117020205701</v>
+        <v>-0.101880214077501</v>
       </c>
       <c r="TT3">
-        <v>-0.12533990816752999</v>
+        <v>-0.10805166274502299</v>
       </c>
       <c r="TU3">
-        <v>-9.0162014461536599E-2</v>
+        <v>-8.7966042690369506E-2</v>
       </c>
       <c r="TV3">
-        <v>-8.2476714345829094E-2</v>
+        <v>-7.5355226759790006E-2</v>
       </c>
       <c r="TW3">
-        <v>-6.4899060394495403E-2</v>
+        <v>-7.0645165563643905E-2</v>
       </c>
       <c r="TX3">
-        <v>-5.8283496689189702E-2</v>
+        <v>-6.5943415563887303E-2</v>
       </c>
       <c r="TY3">
-        <v>-4.5833492990895897E-2</v>
+        <v>-6.3469577164343205E-2</v>
       </c>
       <c r="TZ3">
-        <v>-4.1377965581726198E-2</v>
+        <v>-5.7226730275595897E-2</v>
       </c>
       <c r="UA3">
-        <v>-4.5692073245334502E-2</v>
+        <v>-6.5056523901667093E-2</v>
       </c>
       <c r="UB3">
-        <v>-5.1036461795468599E-2</v>
+        <v>-6.0576661499936797E-2</v>
       </c>
       <c r="UC3">
-        <v>-4.0549174919437103E-2</v>
+        <v>-5.9951450331070202E-2</v>
       </c>
       <c r="UD3">
-        <v>-4.6214912488380201E-2</v>
+        <v>-6.2413805419572498E-2</v>
       </c>
       <c r="UE3">
-        <v>-4.0352502455055998E-2</v>
+        <v>-6.0835587687152498E-2</v>
       </c>
       <c r="UF3">
-        <v>-5.9549300190460099E-2</v>
+        <v>-5.0423914225384898E-2</v>
       </c>
       <c r="UG3">
-        <v>-5.6751025220668702E-2</v>
+        <v>-6.1931256395829803E-2</v>
       </c>
       <c r="UH3">
-        <v>-4.75539577542861E-2</v>
+        <v>-6.8297116325361895E-2</v>
       </c>
       <c r="UI3">
-        <v>-7.0289401389953599E-2</v>
+        <v>-6.8055628401235801E-2</v>
       </c>
       <c r="UJ3">
-        <v>-6.6312907472380403E-2</v>
+        <v>-6.1757345560169201E-2</v>
       </c>
       <c r="UK3">
-        <v>-6.0189713330327202E-2</v>
+        <v>-8.0515257428956405E-2</v>
       </c>
       <c r="UL3">
-        <v>-7.2700356627101601E-2</v>
+        <v>-7.5383566323421594E-2</v>
       </c>
       <c r="UM3">
-        <v>-9.0586113721033396E-2</v>
+        <v>-8.5193237256934701E-2</v>
       </c>
       <c r="UN3">
-        <v>-9.2788355443627804E-2</v>
+        <v>-9.8015658359370303E-2</v>
       </c>
       <c r="UO3">
-        <v>-9.7902036939249107E-2</v>
+        <v>-9.6044629622074704E-2</v>
       </c>
       <c r="UP3">
-        <v>-0.10853325820738299</v>
+        <v>-7.6268626386834196E-2</v>
       </c>
       <c r="UQ3">
-        <v>-0.116016970088465</v>
+        <v>-9.2660660051553698E-2</v>
       </c>
       <c r="UR3">
-        <v>-0.112923614001256</v>
+        <v>-8.3760553606158999E-2</v>
       </c>
       <c r="US3">
-        <v>-0.107590397807542</v>
+        <v>-8.9415625295199697E-2</v>
       </c>
       <c r="UT3">
-        <v>-9.6913055215639601E-2</v>
+        <v>-9.7567960942589196E-2</v>
       </c>
       <c r="UU3">
-        <v>-9.1460132812745398E-2</v>
+        <v>-8.2491514278152697E-2</v>
       </c>
       <c r="UV3">
-        <v>-9.7919641182506206E-2</v>
+        <v>-6.3094631255332198E-2</v>
       </c>
       <c r="UW3">
-        <v>-9.5620439349186695E-2</v>
+        <v>-8.3215270687417797E-2</v>
       </c>
       <c r="UX3">
-        <v>-7.8462182545911793E-2</v>
+        <v>-7.2689022756635704E-2</v>
       </c>
       <c r="UY3">
-        <v>-7.0767080994266804E-2</v>
+        <v>-7.0928239833790305E-2</v>
       </c>
       <c r="UZ3">
-        <v>-6.9047438169069303E-2</v>
+        <v>-6.3994163703863904E-2</v>
       </c>
     </row>
     <row r="4" spans="1:572" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.32023336971274</v>
+        <v>0.72456421311351804</v>
       </c>
       <c r="B4">
-        <v>1.31473724978899</v>
+        <v>0.72224734122979595</v>
       </c>
       <c r="C4">
-        <v>1.27823798489866</v>
+        <v>0.697032295265405</v>
       </c>
       <c r="D4">
-        <v>1.1836027423114699</v>
+        <v>0.66669980243112703</v>
       </c>
       <c r="E4">
-        <v>1.0528329990473599</v>
+        <v>0.58799994265154898</v>
       </c>
       <c r="F4">
-        <v>0.87194675030740199</v>
+        <v>0.493320735582153</v>
       </c>
       <c r="G4">
-        <v>0.66066101087801898</v>
+        <v>0.40606172981286598</v>
       </c>
       <c r="H4">
-        <v>0.44040068021816398</v>
+        <v>0.28141193212596299</v>
       </c>
       <c r="I4">
-        <v>0.187582034981157</v>
+        <v>0.15734751960453899</v>
       </c>
       <c r="J4">
-        <v>-5.6933136721103297E-2</v>
+        <v>3.6778266764728999E-2</v>
       </c>
       <c r="K4">
-        <v>-0.30362555690054099</v>
+        <v>-8.9736064113762601E-2</v>
       </c>
       <c r="L4">
-        <v>-0.52417395341494599</v>
+        <v>-0.19036494547623201</v>
       </c>
       <c r="M4">
-        <v>-0.72176414321360005</v>
+        <v>-0.29812504264620499</v>
       </c>
       <c r="N4">
-        <v>-0.86362893844303501</v>
+        <v>-0.363155340162643</v>
       </c>
       <c r="O4">
-        <v>-0.96361944404107602</v>
+        <v>-0.41605696783267898</v>
       </c>
       <c r="P4">
-        <v>-1.0331343436398199</v>
+        <v>-0.44896077937353801</v>
       </c>
       <c r="Q4">
-        <v>-1.0404854532230099</v>
+        <v>-0.45871549944027701</v>
       </c>
       <c r="R4">
-        <v>-0.99516910723865104</v>
+        <v>-0.435735158250036</v>
       </c>
       <c r="S4">
-        <v>-0.91307991194812499</v>
+        <v>-0.38549443621732499</v>
       </c>
       <c r="T4">
-        <v>-0.780814882033395</v>
+        <v>-0.32202604574648502</v>
       </c>
       <c r="U4">
-        <v>-0.60206612805106796</v>
+        <v>-0.22909098030075201</v>
       </c>
       <c r="V4">
-        <v>-0.40179338369698397</v>
+        <v>-0.13647313091587901</v>
       </c>
       <c r="W4">
-        <v>-0.16419439326732099</v>
+        <v>-2.6303585735575698E-2</v>
       </c>
       <c r="X4">
-        <v>8.5665266629599807E-2</v>
+        <v>0.10381626852428399</v>
       </c>
       <c r="Y4">
-        <v>0.327394866959486</v>
+        <v>0.224878047539457</v>
       </c>
       <c r="Z4">
-        <v>0.57292080570641202</v>
+        <v>0.33682936892094101</v>
       </c>
       <c r="AA4">
-        <v>0.77981392442112596</v>
+        <v>0.46547323812724101</v>
       </c>
       <c r="AB4">
-        <v>0.97897834828876995</v>
+        <v>0.54966415350045705</v>
       </c>
       <c r="AC4">
-        <v>1.13836074061338</v>
+        <v>0.62627080407965796</v>
       </c>
       <c r="AD4">
-        <v>1.2384954333040199</v>
+        <v>0.68840935546537796</v>
       </c>
       <c r="AE4">
-        <v>1.3094630654717501</v>
+        <v>0.71581045269203503</v>
       </c>
       <c r="AF4">
-        <v>1.3176563121271401</v>
+        <v>0.72162092242748199</v>
       </c>
       <c r="AG4">
-        <v>1.27302784886719</v>
+        <v>0.71129155171622505</v>
       </c>
       <c r="AH4">
-        <v>1.1853346615906999</v>
+        <v>0.65430972571588797</v>
       </c>
       <c r="AI4">
-        <v>1.04407832903775</v>
+        <v>0.59575065958859297</v>
       </c>
       <c r="AJ4">
-        <v>0.86994963265571601</v>
+        <v>0.50537745381399002</v>
       </c>
       <c r="AK4">
-        <v>0.63754351099018303</v>
+        <v>0.39911415542880402</v>
       </c>
       <c r="AL4">
-        <v>0.42245722446470302</v>
+        <v>0.27855109018693802</v>
       </c>
       <c r="AM4">
-        <v>0.17666825486246501</v>
+        <v>0.15249699454566601</v>
       </c>
       <c r="AN4">
-        <v>-6.3708259736869402E-2</v>
+        <v>3.3097798490345602E-2</v>
       </c>
       <c r="AO4">
-        <v>-0.300460521048033</v>
+        <v>-7.5360623967874199E-2</v>
       </c>
       <c r="AP4">
-        <v>-0.51968258386072697</v>
+        <v>-0.20614744197175</v>
       </c>
       <c r="AQ4">
-        <v>-0.71105332183269898</v>
+        <v>-0.29804123400093402</v>
       </c>
       <c r="AR4">
-        <v>-0.86189001024912404</v>
+        <v>-0.37230584173266801</v>
       </c>
       <c r="AS4">
-        <v>-0.97902815565127699</v>
+        <v>-0.41382266063853101</v>
       </c>
       <c r="AT4">
-        <v>-1.02952652235265</v>
+        <v>-0.44725230582996001</v>
       </c>
       <c r="AU4">
-        <v>-1.03649246003541</v>
+        <v>-0.46091781264520698</v>
       </c>
       <c r="AV4">
-        <v>-1.0035046973798301</v>
+        <v>-0.42919490895019102</v>
       </c>
       <c r="AW4">
-        <v>-0.90665512784369895</v>
+        <v>-0.38877445865642102</v>
       </c>
       <c r="AX4">
-        <v>-0.77243740377140302</v>
+        <v>-0.32871160526898302</v>
       </c>
       <c r="AY4">
-        <v>-0.58284908292300697</v>
+        <v>-0.23009467594935901</v>
       </c>
       <c r="AZ4">
-        <v>-0.38389750404380002</v>
+        <v>-0.12832670909588001</v>
       </c>
       <c r="BA4">
-        <v>-0.15652176298659801</v>
+        <v>-1.31916268764222E-2</v>
       </c>
       <c r="BB4">
-        <v>7.9677948578622898E-2</v>
+        <v>0.107450349111092</v>
       </c>
       <c r="BC4">
-        <v>0.33002036958875902</v>
+        <v>0.23588856170056799</v>
       </c>
       <c r="BD4">
-        <v>0.57062146764497701</v>
+        <v>0.35457199375777598</v>
       </c>
       <c r="BE4">
-        <v>0.78517081832409097</v>
+        <v>0.47151307605189802</v>
       </c>
       <c r="BF4">
-        <v>0.97971070244541703</v>
+        <v>0.56606565399903197</v>
       </c>
       <c r="BG4">
-        <v>1.1378750702098199</v>
+        <v>0.63273010812505504</v>
       </c>
       <c r="BH4">
-        <v>1.2498843662601899</v>
+        <v>0.68002006556026096</v>
       </c>
       <c r="BI4">
-        <v>1.3048181131963801</v>
+        <v>0.71834012953006199</v>
       </c>
       <c r="BJ4">
-        <v>1.32127276090043</v>
+        <v>0.73679329573088004</v>
       </c>
       <c r="BK4">
-        <v>1.2720406832754201</v>
+        <v>0.70542994279860405</v>
       </c>
       <c r="BL4">
-        <v>1.17218003693332</v>
+        <v>0.64927381387837602</v>
       </c>
       <c r="BM4">
-        <v>1.04070089406414</v>
+        <v>0.58820636323205999</v>
       </c>
       <c r="BN4">
-        <v>0.85878428470621104</v>
+        <v>0.49669644286585801</v>
       </c>
       <c r="BO4">
-        <v>0.64949844831746595</v>
+        <v>0.39220838087694398</v>
       </c>
       <c r="BP4">
-        <v>0.41886678109451603</v>
+        <v>0.27338432985416</v>
       </c>
       <c r="BQ4">
-        <v>0.15777124412288099</v>
+        <v>0.142060048915745</v>
       </c>
       <c r="BR4">
-        <v>-7.0775417770723506E-2</v>
+        <v>2.9611053517533001E-2</v>
       </c>
       <c r="BS4">
-        <v>-0.315857567660287</v>
+        <v>-8.1993138794902595E-2</v>
       </c>
       <c r="BT4">
-        <v>-0.52315472753778802</v>
+        <v>-0.195133137536491</v>
       </c>
       <c r="BU4">
-        <v>-0.72655137378442103</v>
+        <v>-0.29451857963407602</v>
       </c>
       <c r="BV4">
-        <v>-0.86568195625352096</v>
+        <v>-0.376410604518364</v>
       </c>
       <c r="BW4">
-        <v>-0.98358568613473896</v>
+        <v>-0.417722162792245</v>
       </c>
       <c r="BX4">
-        <v>-1.0353033619349601</v>
+        <v>-0.457145148005907</v>
       </c>
       <c r="BY4">
-        <v>-1.0347866943141</v>
+        <v>-0.44635330176274801</v>
       </c>
       <c r="BZ4">
-        <v>-1.00754928229064</v>
+        <v>-0.430542024428401</v>
       </c>
       <c r="CA4">
-        <v>-0.90350275011599601</v>
+        <v>-0.39196884074608501</v>
       </c>
       <c r="CB4">
-        <v>-0.77251655391756702</v>
+        <v>-0.31702339096968202</v>
       </c>
       <c r="CC4">
-        <v>-0.58926012893328605</v>
+        <v>-0.233224568308178</v>
       </c>
       <c r="CD4">
-        <v>-0.38070509910637401</v>
+        <v>-0.12765329383535101</v>
       </c>
       <c r="CE4">
-        <v>-0.13977753171349</v>
+        <v>-1.0233347745959701E-2</v>
       </c>
       <c r="CF4">
-        <v>9.6655594578947707E-2</v>
+        <v>0.11857629977911099</v>
       </c>
       <c r="CG4">
-        <v>0.34858527505805098</v>
+        <v>0.23609909582573699</v>
       </c>
       <c r="CH4">
-        <v>0.58615921106618496</v>
+        <v>0.36113125835647603</v>
       </c>
       <c r="CI4">
-        <v>0.80216817178575395</v>
+        <v>0.463128649689447</v>
       </c>
       <c r="CJ4">
-        <v>0.98165732287292995</v>
+        <v>0.55855053510909602</v>
       </c>
       <c r="CK4">
-        <v>1.14518789251228</v>
+        <v>0.63373954321799497</v>
       </c>
       <c r="CL4">
-        <v>1.2646472414827199</v>
+        <v>0.68458211566826599</v>
       </c>
       <c r="CM4">
-        <v>1.31125948934445</v>
+        <v>0.73001904041214105</v>
       </c>
       <c r="CN4">
-        <v>1.31062393779389</v>
+        <v>0.721404019966846</v>
       </c>
       <c r="CO4">
-        <v>1.25595981868727</v>
+        <v>0.69884605495384999</v>
       </c>
       <c r="CP4">
-        <v>1.16690919898895</v>
+        <v>0.65607805643436401</v>
       </c>
       <c r="CQ4">
-        <v>1.0311173218048499</v>
+        <v>0.58434195087378105</v>
       </c>
       <c r="CR4">
-        <v>0.84720383328306803</v>
+        <v>0.48426919794624901</v>
       </c>
       <c r="CS4">
-        <v>0.63883804879175599</v>
+        <v>0.38868373490302499</v>
       </c>
       <c r="CT4">
-        <v>0.40768261343322798</v>
+        <v>0.26360243342588902</v>
       </c>
       <c r="CU4">
-        <v>0.15168714737921901</v>
+        <v>0.15075205334199501</v>
       </c>
       <c r="CV4">
-        <v>-0.10050073015446</v>
+        <v>2.74319722971548E-2</v>
       </c>
       <c r="CW4">
-        <v>-0.32440843343410503</v>
+        <v>-9.4670770990017805E-2</v>
       </c>
       <c r="CX4">
-        <v>-0.53729293924278398</v>
+        <v>-0.20129844938601801</v>
       </c>
       <c r="CY4">
-        <v>-0.71702521788089602</v>
+        <v>-0.29068298001732601</v>
       </c>
       <c r="CZ4">
-        <v>-0.87669792985835104</v>
+        <v>-0.36818429475651199</v>
       </c>
       <c r="DA4">
-        <v>-0.96940201620163602</v>
+        <v>-0.43244162888155602</v>
       </c>
       <c r="DB4">
-        <v>-1.0350485228815001</v>
+        <v>-0.45331692073659302</v>
       </c>
       <c r="DC4">
-        <v>-1.03369968378402</v>
+        <v>-0.46477076938380202</v>
       </c>
       <c r="DD4">
-        <v>-0.99941702071163196</v>
+        <v>-0.43422443619098899</v>
       </c>
       <c r="DE4">
-        <v>-0.90095318352474696</v>
+        <v>-0.37601551373716202</v>
       </c>
       <c r="DF4">
-        <v>-0.76160096212279105</v>
+        <v>-0.31655531708637702</v>
       </c>
       <c r="DG4">
-        <v>-0.58334503127807402</v>
+        <v>-0.22472929547439</v>
       </c>
       <c r="DH4">
-        <v>-0.37255958548946599</v>
+        <v>-0.12547825885573299</v>
       </c>
       <c r="DI4">
-        <v>-0.12691869094593899</v>
+        <v>-4.1069564766109904E-3</v>
       </c>
       <c r="DJ4">
-        <v>0.103524672904427</v>
+        <v>0.126097887906783</v>
       </c>
       <c r="DK4">
-        <v>0.36662398336099999</v>
+        <v>0.254325098996592</v>
       </c>
       <c r="DL4">
-        <v>0.59191230763710401</v>
+        <v>0.35767450085938701</v>
       </c>
       <c r="DM4">
-        <v>0.80880300563397101</v>
+        <v>0.47388572553724301</v>
       </c>
       <c r="DN4">
-        <v>0.99575185005103894</v>
+        <v>0.55911348497247704</v>
       </c>
       <c r="DO4">
-        <v>1.1403973718070901</v>
+        <v>0.63607477191569795</v>
       </c>
       <c r="DP4">
-        <v>1.2478067399638999</v>
+        <v>0.67960113486251505</v>
       </c>
       <c r="DQ4">
-        <v>1.29755553012514</v>
+        <v>0.71348218700881705</v>
       </c>
       <c r="DR4">
-        <v>1.3216133888914601</v>
+        <v>0.72730658458367003</v>
       </c>
       <c r="DS4">
-        <v>1.26532711177365</v>
+        <v>0.70757279809514895</v>
       </c>
       <c r="DT4">
-        <v>1.1721994007708101</v>
+        <v>0.64697032015273603</v>
       </c>
       <c r="DU4">
-        <v>1.0208559669769399</v>
+        <v>0.58424840586773297</v>
       </c>
       <c r="DV4">
-        <v>0.83527696693037901</v>
+        <v>0.48745220741587503</v>
       </c>
       <c r="DW4">
-        <v>0.62944666736027199</v>
+        <v>0.38547030105372698</v>
       </c>
       <c r="DX4">
-        <v>0.39434331032667302</v>
+        <v>0.26382106012155099</v>
       </c>
       <c r="DY4">
-        <v>0.148325710326976</v>
+        <v>0.144042473474705</v>
       </c>
       <c r="DZ4">
-        <v>-9.1349893033315796E-2</v>
+        <v>1.5285747015990701E-2</v>
       </c>
       <c r="EA4">
-        <v>-0.33752885151106499</v>
+        <v>-0.110908164860527</v>
       </c>
       <c r="EB4">
-        <v>-0.540277293348569</v>
+        <v>-0.21188494094442301</v>
       </c>
       <c r="EC4">
-        <v>-0.73774076714030601</v>
+        <v>-0.29422224164516497</v>
       </c>
       <c r="ED4">
-        <v>-0.88165392820990696</v>
+        <v>-0.37091089054294102</v>
       </c>
       <c r="EE4">
-        <v>-0.99599551302024802</v>
+        <v>-0.41415193875527601</v>
       </c>
       <c r="EF4">
-        <v>-1.0295438837003601</v>
+        <v>-0.44713576445444903</v>
       </c>
       <c r="EG4">
-        <v>-1.04149310509249</v>
+        <v>-0.45776611893068198</v>
       </c>
       <c r="EH4">
-        <v>-0.98679654973483899</v>
+        <v>-0.43201739211697698</v>
       </c>
       <c r="EI4">
-        <v>-0.90351408651338905</v>
+        <v>-0.38197431518605401</v>
       </c>
       <c r="EJ4">
-        <v>-0.74909612191188701</v>
+        <v>-0.30522262821384599</v>
       </c>
       <c r="EK4">
-        <v>-0.56950702612469295</v>
+        <v>-0.21678852375007601</v>
       </c>
       <c r="EL4">
-        <v>-0.366615441244171</v>
+        <v>-0.11646126065196399</v>
       </c>
       <c r="EM4">
-        <v>-0.121217623271634</v>
+        <v>6.3342388644976599E-3</v>
       </c>
       <c r="EN4">
-        <v>0.12500252251959099</v>
+        <v>0.11902177021405699</v>
       </c>
       <c r="EO4">
-        <v>0.35458269730918501</v>
+        <v>0.25201469938301702</v>
       </c>
       <c r="EP4">
-        <v>0.60631849162419404</v>
+        <v>0.36696424880502398</v>
       </c>
       <c r="EQ4">
-        <v>0.83044297570581305</v>
+        <v>0.47245579401625099</v>
       </c>
       <c r="ER4">
-        <v>1.000065345631</v>
+        <v>0.57376932340879006</v>
       </c>
       <c r="ES4">
-        <v>1.1564170332419199</v>
+        <v>0.63926605414233595</v>
       </c>
       <c r="ET4">
-        <v>1.24365098137063</v>
+        <v>0.68176901937176304</v>
       </c>
       <c r="EU4">
-        <v>1.3009684611021399</v>
+        <v>0.71510007945434995</v>
       </c>
       <c r="EV4">
-        <v>1.3165150729863</v>
+        <v>0.722773620114042</v>
       </c>
       <c r="EW4">
-        <v>1.26023533123845</v>
+        <v>0.68940366419997601</v>
       </c>
       <c r="EX4">
-        <v>1.1609641665631301</v>
+        <v>0.64367553679720602</v>
       </c>
       <c r="EY4">
-        <v>1.0135850337341601</v>
+        <v>0.57979974212398</v>
       </c>
       <c r="EZ4">
-        <v>0.83939831289486</v>
+        <v>0.48300317345305499</v>
       </c>
       <c r="FA4">
-        <v>0.61250433108107305</v>
+        <v>0.369778736147372</v>
       </c>
       <c r="FB4">
-        <v>0.379034461268697</v>
+        <v>0.255860889107561</v>
       </c>
       <c r="FC4">
-        <v>0.1393956105969</v>
+        <v>0.13334505034807401</v>
       </c>
       <c r="FD4">
-        <v>-0.10381632779146301</v>
+        <v>1.57548695730453E-2</v>
       </c>
       <c r="FE4">
-        <v>-0.33997845071403399</v>
+        <v>-0.109488801119472</v>
       </c>
       <c r="FF4">
-        <v>-0.55897717338967401</v>
+        <v>-0.20292985225347199</v>
       </c>
       <c r="FG4">
-        <v>-0.74461851081243302</v>
+        <v>-0.30470209796167302</v>
       </c>
       <c r="FH4">
-        <v>-0.89092123434733395</v>
+        <v>-0.36697461401572401</v>
       </c>
       <c r="FI4">
-        <v>-1.0012434109361601</v>
+        <v>-0.423822164521164</v>
       </c>
       <c r="FJ4">
-        <v>-1.0405458922919599</v>
+        <v>-0.44956794927103499</v>
       </c>
       <c r="FK4">
-        <v>-1.0370638405076</v>
+        <v>-0.45043473463550698</v>
       </c>
       <c r="FL4">
-        <v>-0.99979186877255299</v>
+        <v>-0.43113900733529698</v>
       </c>
       <c r="FM4">
-        <v>-0.88655385174658397</v>
+        <v>-0.379379924853114</v>
       </c>
       <c r="FN4">
-        <v>-0.73947101190305797</v>
+        <v>-0.30626914686148399</v>
       </c>
       <c r="FO4">
-        <v>-0.573639199695685</v>
+        <v>-0.217377833786734</v>
       </c>
       <c r="FP4">
-        <v>-0.35325395062341602</v>
+        <v>-9.5416296485487495E-2</v>
       </c>
       <c r="FQ4">
-        <v>-0.123834419029523</v>
+        <v>3.2060566350269001E-3</v>
       </c>
       <c r="FR4">
-        <v>0.13700278376626601</v>
+        <v>0.13380381370615199</v>
       </c>
       <c r="FS4">
-        <v>0.37352566277088001</v>
+        <v>0.26256568910941203</v>
       </c>
       <c r="FT4">
-        <v>0.61495615630130895</v>
+        <v>0.37386991214528198</v>
       </c>
       <c r="FU4">
-        <v>0.82656768184449703</v>
+        <v>0.47744485958835198</v>
       </c>
       <c r="FV4">
-        <v>1.0053522061479601</v>
+        <v>0.57587689566522104</v>
       </c>
       <c r="FW4">
-        <v>1.1611765802443199</v>
+        <v>0.641809442873432</v>
       </c>
       <c r="FX4">
-        <v>1.2560951925996899</v>
+        <v>0.69623940543174601</v>
       </c>
       <c r="FY4">
-        <v>1.3135031137600901</v>
+        <v>0.72625171495470497</v>
       </c>
       <c r="FZ4">
-        <v>1.3049893905340899</v>
+        <v>0.72414337888357405</v>
       </c>
       <c r="GA4">
-        <v>1.2580158446629099</v>
+        <v>0.69444725551656095</v>
       </c>
       <c r="GB4">
-        <v>1.1476317798556399</v>
+        <v>0.64954938183769295</v>
       </c>
       <c r="GC4">
-        <v>1.0052782999546399</v>
+        <v>0.57461067751403205</v>
       </c>
       <c r="GD4">
-        <v>0.82015834157313605</v>
+        <v>0.47652617000333802</v>
       </c>
       <c r="GE4">
-        <v>0.60854448465995503</v>
+        <v>0.36738589162191398</v>
       </c>
       <c r="GF4">
-        <v>0.373298616799352</v>
+        <v>0.26115617980454198</v>
       </c>
       <c r="GG4">
-        <v>0.12673445596843</v>
+        <v>0.13324442750052601</v>
       </c>
       <c r="GH4">
-        <v>-0.108376648143315</v>
+        <v>1.5741794425530699E-3</v>
       </c>
       <c r="GI4">
-        <v>-0.35634200545321199</v>
+        <v>-0.10782913015788</v>
       </c>
       <c r="GJ4">
-        <v>-0.56722658402200099</v>
+        <v>-0.21041729519143301</v>
       </c>
       <c r="GK4">
-        <v>-0.76164448166583598</v>
+        <v>-0.30185733548257698</v>
       </c>
       <c r="GL4">
-        <v>-0.89560855395820305</v>
+        <v>-0.374814038972131</v>
       </c>
       <c r="GM4">
-        <v>-1.0018741366557899</v>
+        <v>-0.424100704247656</v>
       </c>
       <c r="GN4">
-        <v>-1.04459707390932</v>
+        <v>-0.44814704337086902</v>
       </c>
       <c r="GO4">
-        <v>-1.0461802045834201</v>
+        <v>-0.45205982387177202</v>
       </c>
       <c r="GP4">
-        <v>-0.98029610634618103</v>
+        <v>-0.42065244887401898</v>
       </c>
       <c r="GQ4">
-        <v>-0.88994331395955595</v>
+        <v>-0.37880882925697201</v>
       </c>
       <c r="GR4">
-        <v>-0.73007793225119899</v>
+        <v>-0.304772544909721</v>
       </c>
       <c r="GS4">
-        <v>-0.55421407205790696</v>
+        <v>-0.21266696527235901</v>
       </c>
       <c r="GT4">
-        <v>-0.336266967590654</v>
+        <v>-0.10212238536498899</v>
       </c>
       <c r="GU4">
-        <v>-8.6900583984535998E-2</v>
+        <v>1.6265647487368098E-2</v>
       </c>
       <c r="GV4">
-        <v>0.14012368918741899</v>
+        <v>0.13908296447990101</v>
       </c>
       <c r="GW4">
-        <v>0.39174708723823598</v>
+        <v>0.26455845698748498</v>
       </c>
       <c r="GX4">
-        <v>0.62303185167429598</v>
+        <v>0.36736514308941898</v>
       </c>
       <c r="GY4">
-        <v>0.83622266304470105</v>
+        <v>0.49549048115746702</v>
       </c>
       <c r="GZ4">
-        <v>1.01010409715245</v>
+        <v>0.58543454169581799</v>
       </c>
       <c r="HA4">
-        <v>1.16361034204428</v>
+        <v>0.64829334811628803</v>
       </c>
       <c r="HB4">
-        <v>1.2607743045954301</v>
+        <v>0.699283024360282</v>
       </c>
       <c r="HC4">
-        <v>1.3146774212358601</v>
+        <v>0.72613473907858905</v>
       </c>
       <c r="HD4">
-        <v>1.29676219142506</v>
+        <v>0.72392965201090398</v>
       </c>
       <c r="HE4">
-        <v>1.25915129555913</v>
+        <v>0.68828869308368901</v>
       </c>
       <c r="HF4">
-        <v>1.14255662569052</v>
+        <v>0.64365095609225498</v>
       </c>
       <c r="HG4">
-        <v>0.99063609130609898</v>
+        <v>0.57231784619051795</v>
       </c>
       <c r="HH4">
-        <v>0.81158890394369998</v>
+        <v>0.479680633765181</v>
       </c>
       <c r="HI4">
-        <v>0.59419269294467103</v>
+        <v>0.364875099517184</v>
       </c>
       <c r="HJ4">
-        <v>0.355348421063303</v>
+        <v>0.251021320997518</v>
       </c>
       <c r="HK4">
-        <v>0.11179740799453</v>
+        <v>0.123326214467257</v>
       </c>
       <c r="HL4">
-        <v>-0.12678636189336201</v>
+        <v>-6.0324450639387198E-3</v>
       </c>
       <c r="HM4">
-        <v>-0.37267924953564402</v>
+        <v>-0.11186111044458399</v>
       </c>
       <c r="HN4">
-        <v>-0.57329085452380801</v>
+        <v>-0.22295650156428001</v>
       </c>
       <c r="HO4">
-        <v>-0.75535456405354395</v>
+        <v>-0.30757931519534398</v>
       </c>
       <c r="HP4">
-        <v>-0.89828223900567306</v>
+        <v>-0.38166115794390998</v>
       </c>
       <c r="HQ4">
-        <v>-0.99957680229430701</v>
+        <v>-0.42696674034778298</v>
       </c>
       <c r="HR4">
-        <v>-1.03764997046772</v>
+        <v>-0.46449369924996903</v>
       </c>
       <c r="HS4">
-        <v>-1.0396753555002101</v>
+        <v>-0.46396076390725499</v>
       </c>
       <c r="HT4">
-        <v>-0.98724091441685702</v>
+        <v>-0.41953626991762799</v>
       </c>
       <c r="HU4">
-        <v>-0.88116872920353095</v>
+        <v>-0.36424637177531599</v>
       </c>
       <c r="HV4">
-        <v>-0.72949417034288799</v>
+        <v>-0.299996906470821</v>
       </c>
       <c r="HW4">
-        <v>-0.55278778875141399</v>
+        <v>-0.20092438881267499</v>
       </c>
       <c r="HX4">
-        <v>-0.33743966065210501</v>
+        <v>-9.71887815011169E-2</v>
       </c>
       <c r="HY4">
-        <v>-9.0015865542008106E-2</v>
+        <v>1.9851606379993898E-2</v>
       </c>
       <c r="HZ4">
-        <v>0.137091674543218</v>
+        <v>0.15302355652896901</v>
       </c>
       <c r="IA4">
-        <v>0.39588546686554299</v>
+        <v>0.26461941510106801</v>
       </c>
       <c r="IB4">
-        <v>0.63711862672382502</v>
+        <v>0.38095631968861798</v>
       </c>
       <c r="IC4">
-        <v>0.849927369000958</v>
+        <v>0.50464591402080805</v>
       </c>
       <c r="ID4">
-        <v>1.02030428265822</v>
+        <v>0.589742693536774</v>
       </c>
       <c r="IE4">
-        <v>1.1714547663252699</v>
+        <v>0.64431144459217504</v>
       </c>
       <c r="IF4">
-        <v>1.26267166765086</v>
+        <v>0.69646236782016402</v>
       </c>
       <c r="IG4">
-        <v>1.3166474947406701</v>
+        <v>0.72002998071731505</v>
       </c>
       <c r="IH4">
-        <v>1.3090209446265899</v>
+        <v>0.72436513553117199</v>
       </c>
       <c r="II4">
-        <v>1.2530362658109899</v>
+        <v>0.68444226202437897</v>
       </c>
       <c r="IJ4">
-        <v>1.1502842836398799</v>
+        <v>0.62919390827314303</v>
       </c>
       <c r="IK4">
-        <v>0.98094804934795998</v>
+        <v>0.56797603087595405</v>
       </c>
       <c r="IL4">
-        <v>0.80160765541558099</v>
+        <v>0.46779984422701598</v>
       </c>
       <c r="IM4">
-        <v>0.588334769472865</v>
+        <v>0.35800513394910299</v>
       </c>
       <c r="IN4">
-        <v>0.35447292700594601</v>
+        <v>0.242080786092189</v>
       </c>
       <c r="IO4">
-        <v>0.103450139063384</v>
+        <v>0.11999775597177301</v>
       </c>
       <c r="IP4">
-        <v>-0.13760793651466099</v>
+        <v>-5.6647578484060098E-3</v>
       </c>
       <c r="IQ4">
-        <v>-0.37477779299353697</v>
+        <v>-0.11818019002760401</v>
       </c>
       <c r="IR4">
-        <v>-0.59153432310994802</v>
+        <v>-0.231505284125264</v>
       </c>
       <c r="IS4">
-        <v>-0.76139769504371702</v>
+        <v>-0.31579680438127</v>
       </c>
       <c r="IT4">
-        <v>-0.90085036988521805</v>
+        <v>-0.38092297906515898</v>
       </c>
       <c r="IU4">
-        <v>-0.99954827445082195</v>
+        <v>-0.435532893146583</v>
       </c>
       <c r="IV4">
-        <v>-1.04959127102248</v>
+        <v>-0.452979808065615</v>
       </c>
       <c r="IW4">
-        <v>-1.02691346180893</v>
+        <v>-0.46052650011054103</v>
       </c>
       <c r="IX4">
-        <v>-0.97787183863920502</v>
+        <v>-0.423177684855226</v>
       </c>
       <c r="IY4">
-        <v>-0.88097846103954203</v>
+        <v>-0.36812782074202599</v>
       </c>
       <c r="IZ4">
-        <v>-0.72149104095382399</v>
+        <v>-0.29150272181470499</v>
       </c>
       <c r="JA4">
-        <v>-0.54466144017311102</v>
+        <v>-0.210101848583541</v>
       </c>
       <c r="JB4">
-        <v>-0.31792119018061099</v>
+        <v>-8.5694253680916904E-2</v>
       </c>
       <c r="JC4">
-        <v>-7.9514680396622794E-2</v>
+        <v>2.82845803873863E-2</v>
       </c>
       <c r="JD4">
-        <v>0.164393280444496</v>
+        <v>0.15198546228798801</v>
       </c>
       <c r="JE4">
-        <v>0.41593078650663801</v>
+        <v>0.26735791978818202</v>
       </c>
       <c r="JF4">
-        <v>0.64663965341344498</v>
+        <v>0.38428156998320201</v>
       </c>
       <c r="JG4">
-        <v>0.85833849998066603</v>
+        <v>0.49829136339885399</v>
       </c>
       <c r="JH4">
-        <v>1.02510067850211</v>
+        <v>0.58009844579637204</v>
       </c>
       <c r="JI4">
-        <v>1.17612447852777</v>
+        <v>0.651913439598517</v>
       </c>
       <c r="JJ4">
-        <v>1.2660306282787299</v>
+        <v>0.69762709557424896</v>
       </c>
       <c r="JK4">
-        <v>1.3101428454781801</v>
+        <v>0.72291490273172299</v>
       </c>
       <c r="JL4">
-        <v>1.29150045716905</v>
+        <v>0.71026182032335805</v>
       </c>
       <c r="JM4">
-        <v>1.25323238984406</v>
+        <v>0.68912961456243005</v>
       </c>
       <c r="JN4">
-        <v>1.13817059087356</v>
+        <v>0.63691348113666002</v>
       </c>
       <c r="JO4">
-        <v>0.98797004217836604</v>
+        <v>0.55965997476820095</v>
       </c>
       <c r="JP4">
-        <v>0.802352487694317</v>
+        <v>0.47230579897980302</v>
       </c>
       <c r="JQ4">
-        <v>0.57971027651615104</v>
+        <v>0.34963869874651099</v>
       </c>
       <c r="JR4">
-        <v>0.34274344059338202</v>
+        <v>0.23223148551426401</v>
       </c>
       <c r="JS4">
-        <v>8.5727844161455805E-2</v>
+        <v>0.118388717222461</v>
       </c>
       <c r="JT4">
-        <v>-0.147295330379214</v>
+        <v>-3.468809158203E-3</v>
       </c>
       <c r="JU4">
-        <v>-0.39436134967331798</v>
+        <v>-0.124799075836127</v>
       </c>
       <c r="JV4">
-        <v>-0.59248456705961805</v>
+        <v>-0.22852372968812401</v>
       </c>
       <c r="JW4">
-        <v>-0.76949630676781899</v>
+        <v>-0.32137569746459799</v>
       </c>
       <c r="JX4">
-        <v>-0.901565220353715</v>
+        <v>-0.38603584316998302</v>
       </c>
       <c r="JY4">
-        <v>-0.99923000092805703</v>
+        <v>-0.42133965168446402</v>
       </c>
       <c r="JZ4">
-        <v>-1.0362667189871599</v>
+        <v>-0.44788996120845198</v>
       </c>
       <c r="KA4">
-        <v>-1.0359161242597801</v>
+        <v>-0.45583221285734998</v>
       </c>
       <c r="KB4">
-        <v>-0.99422765744052</v>
+        <v>-0.41375161963706902</v>
       </c>
       <c r="KC4">
-        <v>-0.87216883610554097</v>
+        <v>-0.361688406645083</v>
       </c>
       <c r="KD4">
-        <v>-0.71978273048445995</v>
+        <v>-0.29535702492131299</v>
       </c>
       <c r="KE4">
-        <v>-0.52470644002572298</v>
+        <v>-0.20375425824082</v>
       </c>
       <c r="KF4">
-        <v>-0.31782558817013001</v>
+        <v>-9.1097679063407905E-2</v>
       </c>
       <c r="KG4">
-        <v>-7.6451164461183704E-2</v>
+        <v>2.9244884481510601E-2</v>
       </c>
       <c r="KH4">
-        <v>0.17959873870625401</v>
+        <v>0.16053811244235699</v>
       </c>
       <c r="KI4">
-        <v>0.42664261787489599</v>
+        <v>0.26521279260990399</v>
       </c>
       <c r="KJ4">
-        <v>0.64645249296551599</v>
+        <v>0.38807176095710999</v>
       </c>
       <c r="KK4">
-        <v>0.86427155514731802</v>
+        <v>0.49748644975907602</v>
       </c>
       <c r="KL4">
-        <v>1.0378372078178699</v>
+        <v>0.59184489073858304</v>
       </c>
       <c r="KM4">
-        <v>1.17441214328147</v>
+        <v>0.65958451869089796</v>
       </c>
       <c r="KN4">
-        <v>1.2669944854539501</v>
+        <v>0.69946443343489595</v>
       </c>
       <c r="KO4">
-        <v>1.31961809291426</v>
+        <v>0.72393330775891895</v>
       </c>
       <c r="KP4">
-        <v>1.31164897039252</v>
+        <v>0.73807775180512802</v>
       </c>
       <c r="KQ4">
-        <v>1.2528368348341801</v>
+        <v>0.68489133310458095</v>
       </c>
       <c r="KR4">
-        <v>1.14597046539027</v>
+        <v>0.63519192625968002</v>
       </c>
       <c r="KS4">
-        <v>0.98172409497078095</v>
+        <v>0.54898060811510396</v>
       </c>
       <c r="KT4">
-        <v>0.79979922846222895</v>
+        <v>0.46076292897916099</v>
       </c>
       <c r="KU4">
-        <v>0.56867900012801398</v>
+        <v>0.35550299538896302</v>
       </c>
       <c r="KV4">
-        <v>0.33489248929485699</v>
+        <v>0.23749068155098199</v>
       </c>
       <c r="KW4">
-        <v>8.3436138775704702E-2</v>
+        <v>0.11505569835227</v>
       </c>
       <c r="KX4">
-        <v>-0.157342656786677</v>
+        <v>-6.6314636813143502E-3</v>
       </c>
       <c r="KY4">
-        <v>-0.39072760218319402</v>
+        <v>-0.133925124687477</v>
       </c>
       <c r="KZ4">
-        <v>-0.59796793413140803</v>
+        <v>-0.22895836408888001</v>
       </c>
       <c r="LA4">
-        <v>-0.77210691137174003</v>
+        <v>-0.32672296827326403</v>
       </c>
       <c r="LB4">
-        <v>-0.89883396306139396</v>
+        <v>-0.38360642048246602</v>
       </c>
       <c r="LC4">
-        <v>-1.00512986070594</v>
+        <v>-0.43171855592341801</v>
       </c>
       <c r="LD4">
-        <v>-1.0469376320346</v>
+        <v>-0.45637557165693299</v>
       </c>
       <c r="LE4">
-        <v>-1.0455629803214599</v>
+        <v>-0.44071909435080397</v>
       </c>
       <c r="LF4">
-        <v>-0.98140761743233895</v>
+        <v>-0.41691800993550199</v>
       </c>
       <c r="LG4">
-        <v>-0.86514908242385702</v>
+        <v>-0.369954178421737</v>
       </c>
       <c r="LH4">
-        <v>-0.71300736229900596</v>
+        <v>-0.27858337756328599</v>
       </c>
       <c r="LI4">
-        <v>-0.51771308693876605</v>
+        <v>-0.199191714187616</v>
       </c>
       <c r="LJ4">
-        <v>-0.30309351713021399</v>
+        <v>-8.3781973503375504E-2</v>
       </c>
       <c r="LK4">
-        <v>-6.8068346946165204E-2</v>
+        <v>1.92674134221699E-2</v>
       </c>
       <c r="LL4">
-        <v>0.18816754759356599</v>
+        <v>0.16197269486719301</v>
       </c>
       <c r="LM4">
-        <v>0.431866743524288</v>
+        <v>0.27007080014892898</v>
       </c>
       <c r="LN4">
-        <v>0.65275941093694601</v>
+        <v>0.38915227663233698</v>
       </c>
       <c r="LO4">
-        <v>0.87400398676200797</v>
+        <v>0.50254084164351298</v>
       </c>
       <c r="LP4">
-        <v>1.0348377868947101</v>
+        <v>0.58057678588669104</v>
       </c>
       <c r="LQ4">
-        <v>1.17389786689272</v>
+        <v>0.656083442910675</v>
       </c>
       <c r="LR4">
-        <v>1.2715924711900199</v>
+        <v>0.69371088598547404</v>
       </c>
       <c r="LS4">
-        <v>1.31808091566906</v>
+        <v>0.72286072769267096</v>
       </c>
       <c r="LT4">
-        <v>1.30518355302105</v>
+        <v>0.71910435637759296</v>
       </c>
       <c r="LU4">
-        <v>1.23769204904618</v>
+        <v>0.68585987227089995</v>
       </c>
       <c r="LV4">
-        <v>1.1329109111593001</v>
+        <v>0.62998426730915702</v>
       </c>
       <c r="LW4">
-        <v>0.97858857316235304</v>
+        <v>0.55740470965864697</v>
       </c>
       <c r="LX4">
-        <v>0.79227549829177102</v>
+        <v>0.44707187005350102</v>
       </c>
       <c r="LY4">
-        <v>0.56308100130351102</v>
+        <v>0.34277887292397602</v>
       </c>
       <c r="LZ4">
-        <v>0.326742199401509</v>
+        <v>0.23148210550874501</v>
       </c>
       <c r="MA4">
-        <v>7.9841702765103204E-2</v>
+        <v>0.11718659594601299</v>
       </c>
       <c r="MB4">
-        <v>-0.16637178188145199</v>
+        <v>-2.9305302610024099E-2</v>
       </c>
       <c r="MC4">
-        <v>-0.39221606571960999</v>
+        <v>-0.13556998401953901</v>
       </c>
       <c r="MD4">
-        <v>-0.60873713126787199</v>
+        <v>-0.238626358251909</v>
       </c>
       <c r="ME4">
-        <v>-0.77322328472378399</v>
+        <v>-0.33183579042587802</v>
       </c>
       <c r="MF4">
-        <v>-0.91574199536678003</v>
+        <v>-0.384647327703241</v>
       </c>
       <c r="MG4">
-        <v>-1.0070524587583201</v>
+        <v>-0.44127805710115697</v>
       </c>
       <c r="MH4">
-        <v>-1.0507567560839599</v>
+        <v>-0.45865075999958799</v>
       </c>
       <c r="MI4">
-        <v>-1.03627735756442</v>
+        <v>-0.44171749042111402</v>
       </c>
       <c r="MJ4">
-        <v>-0.97565716745822795</v>
+        <v>-0.42626422247865797</v>
       </c>
       <c r="MK4">
-        <v>-0.86704954809511103</v>
+        <v>-0.37512369714375299</v>
       </c>
       <c r="ML4">
-        <v>-0.69817288898498597</v>
+        <v>-0.28378491810671203</v>
       </c>
       <c r="MM4">
-        <v>-0.51076480461542495</v>
+        <v>-0.201057896230005</v>
       </c>
       <c r="MN4">
-        <v>-0.30073454775063502</v>
+        <v>-9.0853092391444595E-2</v>
       </c>
       <c r="MO4">
-        <v>-4.2526303103782401E-2</v>
+        <v>3.35012245185317E-2</v>
       </c>
       <c r="MP4">
-        <v>0.19040980155359</v>
+        <v>0.15101785591189201</v>
       </c>
       <c r="MQ4">
-        <v>0.43873686821894697</v>
+        <v>0.28022310152982599</v>
       </c>
       <c r="MR4">
-        <v>0.66599402887954895</v>
+        <v>0.391897243778766</v>
       </c>
       <c r="MS4">
-        <v>0.87052723727758297</v>
+        <v>0.50737617058958895</v>
       </c>
       <c r="MT4">
-        <v>1.0504268318418399</v>
+        <v>0.59744935175750602</v>
       </c>
       <c r="MU4">
-        <v>1.18730977497263</v>
+        <v>0.66253619263707197</v>
       </c>
       <c r="MV4">
-        <v>1.2665999979106899</v>
+        <v>0.70549512877154397</v>
       </c>
       <c r="MW4">
-        <v>1.3172348075779099</v>
+        <v>0.72866423122518498</v>
       </c>
       <c r="MX4">
-        <v>1.3043355544664901</v>
+        <v>0.72332417331736898</v>
       </c>
       <c r="MY4">
-        <v>1.2315967100909899</v>
+        <v>0.68782272988336601</v>
       </c>
       <c r="MZ4">
-        <v>1.1162611689597499</v>
+        <v>0.63003899562486898</v>
       </c>
       <c r="NA4">
-        <v>0.96433380221793596</v>
+        <v>0.548830299468134</v>
       </c>
       <c r="NB4">
-        <v>0.77387023559842605</v>
+        <v>0.462798493661076</v>
       </c>
       <c r="NC4">
-        <v>0.55518634310799098</v>
+        <v>0.34877554377277298</v>
       </c>
       <c r="ND4">
-        <v>0.31986231025665501</v>
+        <v>0.23128670591564299</v>
       </c>
       <c r="NE4">
-        <v>7.6796956901327207E-2</v>
+        <v>9.9372975975232897E-2</v>
       </c>
       <c r="NF4">
-        <v>-0.17704039938612601</v>
+        <v>-1.4092354460171101E-2</v>
       </c>
       <c r="NG4">
-        <v>-0.39951235573285698</v>
+        <v>-0.14196376985914699</v>
       </c>
       <c r="NH4">
-        <v>-0.61435581403383199</v>
+        <v>-0.24453361774671301</v>
       </c>
       <c r="NI4">
-        <v>-0.78905910159769099</v>
+        <v>-0.32989273121091001</v>
       </c>
       <c r="NJ4">
-        <v>-0.91974987448158596</v>
+        <v>-0.38601977575110802</v>
       </c>
       <c r="NK4">
-        <v>-1.01410747308131</v>
+        <v>-0.43375420585503899</v>
       </c>
       <c r="NL4">
-        <v>-1.04797474393996</v>
+        <v>-0.45706939350847398</v>
       </c>
       <c r="NM4">
-        <v>-1.0295962484233401</v>
+        <v>-0.45186676244879298</v>
       </c>
       <c r="NN4">
-        <v>-0.96877553085476698</v>
+        <v>-0.41654980558215898</v>
       </c>
       <c r="NO4">
-        <v>-0.85417860330878403</v>
+        <v>-0.35846242474981399</v>
       </c>
       <c r="NP4">
-        <v>-0.70122773754594103</v>
+        <v>-0.29470297855912803</v>
       </c>
       <c r="NQ4">
-        <v>-0.50483701186419605</v>
+        <v>-0.17851121930729999</v>
       </c>
       <c r="NR4">
-        <v>-0.27770831799568102</v>
+        <v>-7.9985457511147107E-2</v>
       </c>
       <c r="NS4">
-        <v>-5.0557476393541897E-2</v>
+        <v>4.3160424625346597E-2</v>
       </c>
       <c r="NT4">
-        <v>0.19392630426200999</v>
+        <v>0.179104375417003</v>
       </c>
       <c r="NU4">
-        <v>0.44126838067621899</v>
+        <v>0.29507935336137397</v>
       </c>
       <c r="NV4">
-        <v>0.65015419139591901</v>
+        <v>0.39524802526941</v>
       </c>
       <c r="NW4">
-        <v>0.87643833235666302</v>
+        <v>0.50980078845583798</v>
       </c>
       <c r="NX4">
-        <v>1.06500513414197</v>
+        <v>0.59090999337418504</v>
       </c>
       <c r="NY4">
-        <v>1.18283601364917</v>
+        <v>0.66604135315947499</v>
       </c>
       <c r="NZ4">
-        <v>1.2627218005429499</v>
+        <v>0.702229015696194</v>
       </c>
       <c r="OA4">
-        <v>1.32060253353412</v>
+        <v>0.72854852970275696</v>
       </c>
       <c r="OB4">
-        <v>1.29654767071875</v>
+        <v>0.71644874851051699</v>
       </c>
       <c r="OC4">
-        <v>1.2368916103256999</v>
+        <v>0.682037797442546</v>
       </c>
       <c r="OD4">
-        <v>1.11805837438928</v>
+        <v>0.61959573845403804</v>
       </c>
       <c r="OE4">
-        <v>0.96371350347011497</v>
+        <v>0.55200436446034096</v>
       </c>
       <c r="OF4">
-        <v>0.78405964278463602</v>
+        <v>0.45884255104265798</v>
       </c>
       <c r="OG4">
-        <v>0.54895200190709403</v>
+        <v>0.34676716490873299</v>
       </c>
       <c r="OH4">
-        <v>0.32224507046987</v>
+        <v>0.23503553276557601</v>
       </c>
       <c r="OI4">
-        <v>6.9081330945173602E-2</v>
+        <v>0.10296783546876399</v>
       </c>
       <c r="OJ4">
-        <v>-0.18510359731989501</v>
+        <v>-2.1471674291114101E-2</v>
       </c>
       <c r="OK4">
-        <v>-0.40788104094998501</v>
+        <v>-0.13801372648277699</v>
       </c>
       <c r="OL4">
-        <v>-0.59924007492806297</v>
+        <v>-0.23868968542553801</v>
       </c>
       <c r="OM4">
-        <v>-0.78152077812426501</v>
+        <v>-0.316111310506282</v>
       </c>
       <c r="ON4">
-        <v>-0.92349943064761797</v>
+        <v>-0.38892615653859602</v>
       </c>
       <c r="OO4">
-        <v>-1.0151618753435601</v>
+        <v>-0.45223511927645599</v>
       </c>
       <c r="OP4">
-        <v>-1.04951396350375</v>
+        <v>-0.465379246968597</v>
       </c>
       <c r="OQ4">
-        <v>-1.03197827089173</v>
+        <v>-0.43856570349235802</v>
       </c>
       <c r="OR4">
-        <v>-0.95152902036267994</v>
+        <v>-0.42440729839116498</v>
       </c>
       <c r="OS4">
-        <v>-0.86176516032264305</v>
+        <v>-0.35429134004892499</v>
       </c>
       <c r="OT4">
-        <v>-0.70120586551975805</v>
+        <v>-0.29190844006416999</v>
       </c>
       <c r="OU4">
-        <v>-0.51331502619278502</v>
+        <v>-0.19184802730488601</v>
       </c>
       <c r="OV4">
-        <v>-0.28960955344712103</v>
+        <v>-6.99270659256091E-2</v>
       </c>
       <c r="OW4">
-        <v>-5.08333048016699E-2</v>
+        <v>4.5122221396296999E-2</v>
       </c>
       <c r="OX4">
-        <v>0.20261861128417899</v>
+        <v>0.17851428316128201</v>
       </c>
       <c r="OY4">
-        <v>0.44216430391184303</v>
+        <v>0.28907505359160501</v>
       </c>
       <c r="OZ4">
-        <v>0.67552789892633403</v>
+        <v>0.39658306850643199</v>
       </c>
       <c r="PA4">
-        <v>0.87274072465157204</v>
+        <v>0.50766123855420497</v>
       </c>
       <c r="PB4">
-        <v>1.0560971287721801</v>
+        <v>0.59217329579586098</v>
       </c>
       <c r="PC4">
-        <v>1.18514936105289</v>
+        <v>0.665194266760324</v>
       </c>
       <c r="PD4">
-        <v>1.27308956026007</v>
+        <v>0.71306877414667902</v>
       </c>
       <c r="PE4">
-        <v>1.3212068082279</v>
+        <v>0.72381018989078105</v>
       </c>
       <c r="PF4">
-        <v>1.3003684512089599</v>
+        <v>0.72625567527055201</v>
       </c>
       <c r="PG4">
-        <v>1.23517252093271</v>
+        <v>0.68491400447934503</v>
       </c>
       <c r="PH4">
-        <v>1.12531771449189</v>
+        <v>0.63040529361566</v>
       </c>
       <c r="PI4">
-        <v>0.964622665450244</v>
+        <v>0.55257840300781402</v>
       </c>
       <c r="PJ4">
-        <v>0.77736020901521496</v>
+        <v>0.45537724014341902</v>
       </c>
       <c r="PK4">
-        <v>0.556251221418259</v>
+        <v>0.35281878956087598</v>
       </c>
       <c r="PL4">
-        <v>0.313005744536551</v>
+        <v>0.22316831508637899</v>
       </c>
       <c r="PM4">
-        <v>5.9420301609641797E-2</v>
+        <v>0.105863922680238</v>
       </c>
       <c r="PN4">
-        <v>-0.18087726454480599</v>
+        <v>-4.6117618723003203E-3</v>
       </c>
       <c r="PO4">
-        <v>-0.40790842892842999</v>
+        <v>-0.13737884923511501</v>
       </c>
       <c r="PP4">
-        <v>-0.62419597421401796</v>
+        <v>-0.23349631796887799</v>
       </c>
       <c r="PQ4">
-        <v>-0.79061703086337798</v>
+        <v>-0.33428982484193398</v>
       </c>
       <c r="PR4">
-        <v>-0.922441514093846</v>
+        <v>-0.40227136063605601</v>
       </c>
       <c r="PS4">
-        <v>-1.0169270778531401</v>
+        <v>-0.43355297000920701</v>
       </c>
       <c r="PT4">
-        <v>-1.0497543926102699</v>
+        <v>-0.45607054025851201</v>
       </c>
       <c r="PU4">
-        <v>-1.04289022430978</v>
+        <v>-0.44744486556937502</v>
       </c>
       <c r="PV4">
-        <v>-0.97376708261644696</v>
+        <v>-0.41774860579859702</v>
       </c>
       <c r="PW4">
-        <v>-0.84256973355655895</v>
+        <v>-0.349235025169925</v>
       </c>
       <c r="PX4">
-        <v>-0.70224017188722698</v>
+        <v>-0.27653395933046099</v>
       </c>
       <c r="PY4">
-        <v>-0.51864869739939701</v>
+        <v>-0.19155213635332899</v>
       </c>
       <c r="PZ4">
-        <v>-0.28036835884143901</v>
+        <v>-6.8976465033110904E-2</v>
       </c>
       <c r="QA4">
-        <v>-4.9331502535467198E-2</v>
+        <v>4.80325153899561E-2</v>
       </c>
       <c r="QB4">
-        <v>0.202292434402224</v>
+        <v>0.15495429416492301</v>
       </c>
       <c r="QC4">
-        <v>0.45232436066776499</v>
+        <v>0.29046464670456701</v>
       </c>
       <c r="QD4">
-        <v>0.68299035983313705</v>
+        <v>0.41231316439409998</v>
       </c>
       <c r="QE4">
-        <v>0.88635896860578001</v>
+        <v>0.50128206969312705</v>
       </c>
       <c r="QF4">
-        <v>1.05777234799961</v>
+        <v>0.59617687668515895</v>
       </c>
       <c r="QG4">
-        <v>1.17917053034441</v>
+        <v>0.64895592386316203</v>
       </c>
       <c r="QH4">
-        <v>1.2855012342794701</v>
+        <v>0.70568363694566805</v>
       </c>
       <c r="QI4">
-        <v>1.31010978252204</v>
+        <v>0.714462146487851</v>
       </c>
       <c r="QJ4">
-        <v>1.29769581094092</v>
+        <v>0.71690839054668298</v>
       </c>
       <c r="QK4">
-        <v>1.2413778740932</v>
+        <v>0.68492652444521296</v>
       </c>
       <c r="QL4">
-        <v>1.1282422315202401</v>
+        <v>0.62140927046351402</v>
       </c>
       <c r="QM4">
-        <v>0.95470012661273196</v>
+        <v>0.54155426342367696</v>
       </c>
       <c r="QN4">
-        <v>0.78219763782113105</v>
+        <v>0.45741019898832103</v>
       </c>
       <c r="QO4">
-        <v>0.55170931518894095</v>
+        <v>0.33952252953017897</v>
       </c>
       <c r="QP4">
-        <v>0.32210777388623602</v>
+        <v>0.228775049490689</v>
       </c>
       <c r="QQ4">
-        <v>7.5424482953940303E-2</v>
+        <v>0.102315232051713</v>
       </c>
       <c r="QR4">
-        <v>-0.188810915458757</v>
+        <v>-2.80500092974958E-2</v>
       </c>
       <c r="QS4">
-        <v>-0.40479932351713299</v>
+        <v>-0.134927646574698</v>
       </c>
       <c r="QT4">
-        <v>-0.61932206306261395</v>
+        <v>-0.238081342136196</v>
       </c>
       <c r="QU4">
-        <v>-0.78930542564602602</v>
+        <v>-0.31619539667235802</v>
       </c>
       <c r="QV4">
-        <v>-0.92218977209838504</v>
+        <v>-0.394240729596673</v>
       </c>
       <c r="QW4">
-        <v>-1.0058896936902499</v>
+        <v>-0.43791497934319901</v>
       </c>
       <c r="QX4">
-        <v>-1.0464420199757001</v>
+        <v>-0.45888505015265202</v>
       </c>
       <c r="QY4">
-        <v>-1.0285137926825001</v>
+        <v>-0.44821384980102102</v>
       </c>
       <c r="QZ4">
-        <v>-0.97577423173961897</v>
+        <v>-0.42068137650174198</v>
       </c>
       <c r="RA4">
-        <v>-0.859784427356172</v>
+        <v>-0.369724650445517</v>
       </c>
       <c r="RB4">
-        <v>-0.70273745682411004</v>
+        <v>-0.280813102385915</v>
       </c>
       <c r="RC4">
-        <v>-0.50268366008348297</v>
+        <v>-0.19636736740695801</v>
       </c>
       <c r="RD4">
-        <v>-0.28780307299282498</v>
+        <v>-6.8860288165578598E-2</v>
       </c>
       <c r="RE4">
-        <v>-4.3780850455899002E-2</v>
+        <v>3.9083557837896798E-2</v>
       </c>
       <c r="RF4">
-        <v>0.20243494918979299</v>
+        <v>0.171478058417978</v>
       </c>
       <c r="RG4">
-        <v>0.44144186074402297</v>
+        <v>0.30381140170847498</v>
       </c>
       <c r="RH4">
-        <v>0.67574252711577398</v>
+        <v>0.40211874392226099</v>
       </c>
       <c r="RI4">
-        <v>0.87938265509357305</v>
+        <v>0.50654564282362302</v>
       </c>
       <c r="RJ4">
-        <v>1.05123709322291</v>
+        <v>0.60183775243248205</v>
       </c>
       <c r="RK4">
-        <v>1.1908457766837599</v>
+        <v>0.66979925856365696</v>
       </c>
       <c r="RL4">
-        <v>1.2803190420921999</v>
+        <v>0.69802645669813301</v>
       </c>
       <c r="RM4">
-        <v>1.3177122425391801</v>
+        <v>0.733697205209909</v>
       </c>
       <c r="RN4">
-        <v>1.30590657648335</v>
+        <v>0.71627582437659698</v>
       </c>
       <c r="RO4">
-        <v>1.23225989469347</v>
+        <v>0.67188099928492395</v>
       </c>
       <c r="RP4">
-        <v>1.12559591948895</v>
+        <v>0.63789711497577894</v>
       </c>
       <c r="RQ4">
-        <v>0.970875264180458</v>
+        <v>0.55299256231554605</v>
       </c>
       <c r="RR4">
-        <v>0.779778503479021</v>
+        <v>0.45108902732919098</v>
       </c>
       <c r="RS4">
-        <v>0.55281171931971596</v>
+        <v>0.344686592289212</v>
       </c>
       <c r="RT4">
-        <v>0.31133050421293701</v>
+        <v>0.22832889484810301</v>
       </c>
       <c r="RU4">
-        <v>6.0154598255887801E-2</v>
+        <v>0.10389405347922</v>
       </c>
       <c r="RV4">
-        <v>-0.17695967592119499</v>
+        <v>-2.3968538905368899E-2</v>
       </c>
       <c r="RW4">
-        <v>-0.409050070995992</v>
+        <v>-0.12931248612378801</v>
       </c>
       <c r="RX4">
-        <v>-0.61526917921522595</v>
+        <v>-0.22575802296637801</v>
       </c>
       <c r="RY4">
-        <v>-0.78987761997129702</v>
+        <v>-0.320996486601071</v>
       </c>
       <c r="RZ4">
-        <v>-0.92055739312852303</v>
+        <v>-0.38890854041693701</v>
       </c>
       <c r="SA4">
-        <v>-1.00531708123515</v>
+        <v>-0.42575133693258699</v>
       </c>
       <c r="SB4">
-        <v>-1.05097149820839</v>
+        <v>-0.46043185159042299</v>
       </c>
       <c r="SC4">
-        <v>-1.0274552197881599</v>
+        <v>-0.45213383794293899</v>
       </c>
       <c r="SD4">
-        <v>-0.96224792604981002</v>
+        <v>-0.42097599226805299</v>
       </c>
       <c r="SE4">
-        <v>-0.85403312856447999</v>
+        <v>-0.36875563867255901</v>
       </c>
       <c r="SF4">
-        <v>-0.69555939499522301</v>
+        <v>-0.28025889775000101</v>
       </c>
       <c r="SG4">
-        <v>-0.50154177409151801</v>
+        <v>-0.20064594102686401</v>
       </c>
       <c r="SH4">
-        <v>-0.29662063740896899</v>
+        <v>-7.1511547584654098E-2</v>
       </c>
       <c r="SI4">
-        <v>-4.7937123921942701E-2</v>
+        <v>3.8482668506740897E-2</v>
       </c>
       <c r="SJ4">
-        <v>0.19988617125847</v>
+        <v>0.16712878022948199</v>
       </c>
       <c r="SK4">
-        <v>0.44295192963871499</v>
+        <v>0.29074554820954202</v>
       </c>
       <c r="SL4">
-        <v>0.68173826621012701</v>
+        <v>0.39711789808527098</v>
       </c>
       <c r="SM4">
-        <v>0.88093454498472401</v>
+        <v>0.52019323486816305</v>
       </c>
       <c r="SN4">
-        <v>1.05998952207101</v>
+        <v>0.58483104820723097</v>
       </c>
       <c r="SO4">
-        <v>1.1944348336447399</v>
+        <v>0.65971289483451101</v>
       </c>
       <c r="SP4">
-        <v>1.27376445595729</v>
+        <v>0.71567449554534701</v>
       </c>
       <c r="SQ4">
-        <v>1.3156137506295</v>
+        <v>0.72734291087525105</v>
       </c>
       <c r="SR4">
-        <v>1.28954644244012</v>
+        <v>0.71105826271217898</v>
       </c>
       <c r="SS4">
-        <v>1.23779066731206</v>
+        <v>0.67647074648713901</v>
       </c>
       <c r="ST4">
-        <v>1.1352586969470699</v>
+        <v>0.63346604126356099</v>
       </c>
       <c r="SU4">
-        <v>0.97535993444859204</v>
+        <v>0.54990490579791196</v>
       </c>
       <c r="SV4">
-        <v>0.77969602745189803</v>
+        <v>0.46311483929333802</v>
       </c>
       <c r="SW4">
-        <v>0.55829884306270505</v>
+        <v>0.36394453166832003</v>
       </c>
       <c r="SX4">
-        <v>0.32197268417483998</v>
+        <v>0.238634408137918</v>
       </c>
       <c r="SY4">
-        <v>6.8548987053095797E-2</v>
+        <v>0.102081547324922</v>
       </c>
       <c r="SZ4">
-        <v>-0.17375821046706599</v>
+        <v>-2.2520709009525401E-2</v>
       </c>
       <c r="TA4">
-        <v>-0.40738864837296701</v>
+        <v>-0.123145067837771</v>
       </c>
       <c r="TB4">
-        <v>-0.60768638159201005</v>
+        <v>-0.241148456224933</v>
       </c>
       <c r="TC4">
-        <v>-0.78998167070925096</v>
+        <v>-0.32030556643722102</v>
       </c>
       <c r="TD4">
-        <v>-0.91028106350076998</v>
+        <v>-0.38602556983351</v>
       </c>
       <c r="TE4">
-        <v>-1.0091618545852401</v>
+        <v>-0.43970144409585099</v>
       </c>
       <c r="TF4">
-        <v>-1.0500999680454</v>
+        <v>-0.45404295461786098</v>
       </c>
       <c r="TG4">
-        <v>-1.02779189179223</v>
+        <v>-0.44032500300281702</v>
       </c>
       <c r="TH4">
-        <v>-0.96047554049116501</v>
+        <v>-0.42752001610043999</v>
       </c>
       <c r="TI4">
-        <v>-0.86464327724728895</v>
+        <v>-0.37320761658872298</v>
       </c>
       <c r="TJ4">
-        <v>-0.70032525186754802</v>
+        <v>-0.28270739521590399</v>
       </c>
       <c r="TK4">
-        <v>-0.51879351558711295</v>
+        <v>-0.18595084172565099</v>
       </c>
       <c r="TL4">
-        <v>-0.29402272313169697</v>
+        <v>-8.0566638434137305E-2</v>
       </c>
       <c r="TM4">
-        <v>-4.7575062382484601E-2</v>
+        <v>2.91358835535559E-2</v>
       </c>
       <c r="TN4">
-        <v>0.19900541762334401</v>
+        <v>0.16650685244847599</v>
       </c>
       <c r="TO4">
-        <v>0.44137513124391903</v>
+        <v>0.28780896395709199</v>
       </c>
       <c r="TP4">
-        <v>0.66764450253214702</v>
+        <v>0.40533535306386198</v>
       </c>
       <c r="TQ4">
-        <v>0.88184598734362396</v>
+        <v>0.50167553722133695</v>
       </c>
       <c r="TR4">
-        <v>1.0529346473521699</v>
+        <v>0.59094311746497197</v>
       </c>
       <c r="TS4">
-        <v>1.1876396724662099</v>
+        <v>0.66226508290448405</v>
       </c>
       <c r="TT4">
-        <v>1.2805417877068099</v>
+        <v>0.71003342424252003</v>
       </c>
       <c r="TU4">
-        <v>1.31102445965501</v>
+        <v>0.72991606018890098</v>
       </c>
       <c r="TV4">
-        <v>1.29197307918047</v>
+        <v>0.71881740594506305</v>
       </c>
       <c r="TW4">
-        <v>1.2297097486369599</v>
+        <v>0.69126742697679</v>
       </c>
       <c r="TX4">
-        <v>1.1327816372725299</v>
+        <v>0.62038511051703504</v>
       </c>
       <c r="TY4">
-        <v>0.97879072946963097</v>
+        <v>0.55108573980249698</v>
       </c>
       <c r="TZ4">
-        <v>0.79817665647777902</v>
+        <v>0.45713459095484299</v>
       </c>
       <c r="UA4">
-        <v>0.57260565618927595</v>
+        <v>0.33686320633907302</v>
       </c>
       <c r="UB4">
-        <v>0.32739909075429002</v>
+        <v>0.23074768211552199</v>
       </c>
       <c r="UC4">
-        <v>7.4521067343191499E-2</v>
+        <v>0.115954347095404</v>
       </c>
       <c r="UD4">
-        <v>-0.15753347032000101</v>
+        <v>-1.1687801169380599E-2</v>
       </c>
       <c r="UE4">
-        <v>-0.39116548831655901</v>
+        <v>-0.13319063674633499</v>
       </c>
       <c r="UF4">
-        <v>-0.60095378976009906</v>
+        <v>-0.235419061034676</v>
       </c>
       <c r="UG4">
-        <v>-0.77938284390310097</v>
+        <v>-0.31871297654143399</v>
       </c>
       <c r="UH4">
-        <v>-0.91569115621236996</v>
+        <v>-0.39127424453432302</v>
       </c>
       <c r="UI4">
-        <v>-1.01026909952491</v>
+        <v>-0.43970648949962998</v>
       </c>
       <c r="UJ4">
-        <v>-1.0427369365788499</v>
+        <v>-0.46326785896643402</v>
       </c>
       <c r="UK4">
-        <v>-1.02979141201278</v>
+        <v>-0.46019132143592001</v>
       </c>
       <c r="UL4">
-        <v>-0.98785348276975105</v>
+        <v>-0.41490452295167701</v>
       </c>
       <c r="UM4">
-        <v>-0.86133770445122504</v>
+        <v>-0.36209547475772902</v>
       </c>
       <c r="UN4">
-        <v>-0.72169579313863397</v>
+        <v>-0.28813252807721501</v>
       </c>
       <c r="UO4">
-        <v>-0.51766943960150102</v>
+        <v>-0.19449060482147301</v>
       </c>
       <c r="UP4">
-        <v>-0.29467766077477903</v>
+        <v>-7.2708551322749698E-2</v>
       </c>
       <c r="UQ4">
-        <v>-6.1499389832906898E-2</v>
+        <v>4.0943903842852403E-2</v>
       </c>
       <c r="UR4">
-        <v>0.190200411227606</v>
+        <v>0.16191483835922499</v>
       </c>
       <c r="US4">
-        <v>0.42837738150412302</v>
+        <v>0.28829022721101299</v>
       </c>
       <c r="UT4">
-        <v>0.662022210662919</v>
+        <v>0.394176471792552</v>
       </c>
       <c r="UU4">
-        <v>0.88229104370225098</v>
+        <v>0.50450796702631595</v>
       </c>
       <c r="UV4">
-        <v>1.04418444955465</v>
+        <v>0.58047884433079999</v>
       </c>
       <c r="UW4">
-        <v>1.17748248741067</v>
+        <v>0.65166072276059095</v>
       </c>
       <c r="UX4">
-        <v>1.2752125672800201</v>
+        <v>0.70954206606060699</v>
       </c>
       <c r="UY4">
-        <v>1.3161878252139501</v>
+        <v>0.727058810640685</v>
       </c>
       <c r="UZ4">
-        <v>-1.0444575561891201</v>
+        <v>-0.471210563846861</v>
       </c>
     </row>
   </sheetData>
